--- a/0250/file/7_kabar_kg.xlsx
+++ b/0250/file/7_kabar_kg.xlsx
@@ -14,48 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="217">
   <si>
     <t>链接</t>
   </si>
   <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>浏览量</t>
+  </si>
+  <si>
     <t>图片地址</t>
   </si>
   <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>浏览量</t>
+    <t>https://kabar.kg/news/kitai-vydelit-100-tys-dollarov-dlia-zhitelei-batkenskoi-oblasti/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/glava-tamozhennoi-sluzhby-vstretilsia-s-poslom-kr-v-kitae/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/sotrudnikam-rossiiskogo-ofisa-tiktok-predlozhili-pereekhat-v-kyrgyzstan/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/sadyr-zhaparov-kyrgyzstan-vidit-znachitel-nyi-potentcial-v-mezhregional-nom-sotrudnichestve-tca-i-es/</t>
   </si>
   <si>
     <t>https://kabar.kg/news/prezident-pozdravil-rabotnikov-avtotransporta-i-dorozhnogo-khoziaistva-s-professional-nym-prazdnikom/</t>
   </si>
   <si>
+    <t>https://kabar.kg/news/akylbek-zhaparov-v-ramkakh-svoego-predsedatel-stva-v-sgp-shos-my-budem-otkryty-ko-vsem-predlozheniiam/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/v-bishkeke-otkryli-novuiu-magistral-foto/</t>
+  </si>
+  <si>
     <t>https://kabar.kg/news/deputat-zhk-predlagaet-vvesti-turisticheskie-vizy-dlia-grazhdan-kitaia/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/sotrudnikam-rossiiskogo-ofisa-tiktok-predlozhili-pereekhat-v-kyrgyzstan/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/v-bishkeke-otkryli-novuiu-magistral-foto/</t>
+    <t>https://kabar.kg/news/kitai-snova-zakryvaet-svoi-goroda-na-karantin-iz-za-vspyshki-covid-19/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/kabmin-vvel-vremennyi-zapret-na-vyvoz-uglia-avtotransportom/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/sadyr-zhaparov-pozdravil-si-tczin-pina-s-pereizbraniem-na-post-genseka-tck-kpk/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/sadyr-zhaparov-dal-start-stroitel-stvu-kulanakskoi-ges/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/zamglavy-mek-kr-prinial-uchastie-v-zasedanii-natcional-nykh-koordinatorov-programmy-tcares/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/v-bishkeke-podveli-itogi-ezhegodnogo-marafona-mbulak-kuz-demi-2022/</t>
   </si>
   <si>
     <t>https://kabar.kg/news/do-kontca-goda-v-bishkek-pribudut-120-avtobusov/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/akylbek-zhaparov-v-ramkakh-svoego-predsedatel-stva-v-sgp-shos-my-budem-otkryty-ko-vsem-predlozheniiam/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/kitai-vydelit-100-tys-dollarov-dlia-zhitelei-batkenskoi-oblasti/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/glava-tamozhennoi-sluzhby-vstretilsia-s-poslom-kr-v-kitae/</t>
+    <t>https://kabar.kg/news/popytka-destabilizatcii-kak-bystro-mozhno-unichtozhit-vse-chto-narabatyvaetsia-godami/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/smert-shakhterov-ot-utechki-gaza-minprirody-rasskazalo-o-narusheniiakh-v-rabote-kompanii/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/posol-stvo-kitaia-v-kr-ob-iavilo-o-nachale-registratcii-na-vtoruiu-stipendial-nuiu-programmu-sleduia-za-kitaiskoi-mechtoi/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/sabotazh-po-zakazu-zachem-oppozitciia-pytaetsia-sorvat-podpisanie-dogovora-o-granitce-s-uzbekistanom/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/zh-d-kitai-kyrgyzstan-uzbekistan-idet-podgotovka-teo/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/sadyr-zhaparov-oznakomilsia-s-khodom-stroitel-stva-zheleznoi-dorogi-balykchy-kochkor-kara-keche/</t>
   </si>
   <si>
     <t>https://kabar.kg/news/kitai-zainteresovan-v-importe-meda-alkogolia-i-molochnoi-produktcii-iz-kyrgyzstana/</t>
@@ -64,148 +103,148 @@
     <t>https://kabar.kg/news/toraga-zhogorku-kenesha-vstretilsia-s-predsedatelem-senata-olii-mazhlisa-uzbekistana-chto-obsudili/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/kabmin-vvel-vremennyi-zapret-na-vyvoz-uglia-avtotransportom/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/popytka-destabilizatcii-kak-bystro-mozhno-unichtozhit-vse-chto-narabatyvaetsia-godami/</t>
+    <t>https://kabar.kg/news/v-zhk-podniali-vopros-o-tcelesoobraznosti-sushchestvovaniia-antimonopol-noi-sluzhby/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/adylbek-kasymaliev-vstretilsia-s-chlenami-soveta-direktorov-abr/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/v-bishkeke-proidet-samyi-krupnyi-aziatskii-festival-po-kitaiskoi-igre-go/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/uzbekistan-nameren-uskorit-razvitie-elektromobil-noi-otrasli-v-strane/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/umnaia-maska-kitaiskie-uchenye-sozdali-litcevoi-datchik-protiv-covid/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/30-let-s-momenta-ustanovleniia-dipotnoshenii-kak-razvivalis-kyrgyzsko-kitaiskie-otnosheniia/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/novye-gorizonty-i-konkretnye-resheniia-gosvizit-prezidenta-azerbaidzhana-v-kyrgyzstan/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/delegatciia-kyrgyzstana-primet-uchastie-v-mezhdunarodnom-ekoforume-hanabad-wellness-resort-v-andizhane/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/realizatciia-ii-etapa-bezopasnogo-goroda-nachnetsia-posle-zaversheniia-sudebnogo-protcessa-sharshenova/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/glava-verkhovnogo-suda-kr-vstretilsia-s-poslom-kitaia/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/akylbek-zhaparov-prinial-uchastie-v-kyrgyzsko-rossiiskom-investforume/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/eksport-kyrgyzskogo-uglia-vyros-na-25-iz-za-uvelicheniia-postavok-v-evropu/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/glava-nai-i-posol-kr-v-kitae-predlozhili-riad-reshenii-dlia-uvelicheniia-investitcii-v-kyrgyzstan/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/glava-kabmina-predstavil-kollektivu-mintransa-novogo-rukovoditelia/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/kyrgyzstan-obsudil-s-iranom-vozmozhnosti-importa-gsm-i-uvelicheniia-tovarooborota/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/akylbek-zhaparov-v-etom-godu-v-bishkeke-za-5-mesiatcev-bylo-postroeno-15-shkol/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/v-bishkeke-v-2023-godu-postroiat-5-transportnykh-razviazok/</t>
   </si>
   <si>
     <t>https://kabar.kg/news/deputaty-predlagaiut-predusmotret-v-konstitutcii-smertnuiu-kazn-za-pedofiliiu/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/sadyr-zhaparov-dal-start-stroitel-stvu-kulanakskoi-ges/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/sadyr-zhaparov-oznakomilsia-s-khodom-stroitel-stva-zheleznoi-dorogi-balykchy-kochkor-kara-keche/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/kitai-snova-zakryvaet-svoi-goroda-na-karantin-iz-za-vspyshki-covid-19/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/zamglavy-mek-kr-prinial-uchastie-v-zasedanii-natcional-nykh-koordinatorov-programmy-tcares/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/novye-gorizonty-i-konkretnye-resheniia-gosvizit-prezidenta-azerbaidzhana-v-kyrgyzstan/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/kyrgyzstan-obsudil-s-iranom-vozmozhnosti-importa-gsm-i-uvelicheniia-tovarooborota/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/v-bishkeke-proidet-samyi-krupnyi-aziatskii-festival-po-kitaiskoi-igre-go/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/v-bishkeke-podveli-itogi-ezhegodnogo-marafona-mbulak-kuz-demi-2022/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/smert-shakhterov-ot-utechki-gaza-minprirody-rasskazalo-o-narusheniiakh-v-rabote-kompanii/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/eksport-kyrgyzskogo-uglia-vyros-na-25-iz-za-uvelicheniia-postavok-v-evropu/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/sabotazh-po-zakazu-zachem-oppozitciia-pytaetsia-sorvat-podpisanie-dogovora-o-granitce-s-uzbekistanom/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/sadyr-zhaparov-kyrgyzstan-vidit-znachitel-nyi-potentcial-v-mezhregional-nom-sotrudnichestve-tca-i-es/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/30-let-s-momenta-ustanovleniia-dipotnoshenii-kak-razvivalis-kyrgyzsko-kitaiskie-otnosheniia/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/sadyr-zhaparov-pozdravil-si-tczin-pina-s-pereizbraniem-na-post-genseka-tck-kpk/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/delegatciia-kyrgyzstana-primet-uchastie-v-mezhdunarodnom-ekoforume-hanabad-wellness-resort-v-andizhane/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/zh-d-kitai-kyrgyzstan-uzbekistan-idet-podgotovka-teo/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/posol-stvo-kitaia-v-kr-ob-iavilo-o-nachale-registratcii-na-vtoruiu-stipendial-nuiu-programmu-sleduia-za-kitaiskoi-mechtoi/</t>
+    <t>https://kabar.kg/news/v-bishkeke-posle-remonta-otkryli-otrezok-ulitcy-sadybakasova/</t>
   </si>
   <si>
     <t>https://kabar.kg/news/amangel-diev-prinial-uchastie-v-21-om-soveshchanii-ministrov-shos-v-rezhime-onlain/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/uzbekistan-nameren-uskorit-razvitie-elektromobil-noi-otrasli-v-strane/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/v-zhk-podniali-vopros-o-tcelesoobraznosti-sushchestvovaniia-antimonopol-noi-sluzhby/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/v-bishkeke-posle-remonta-otkryli-otrezok-ulitcy-sadybakasova/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/realizatciia-ii-etapa-bezopasnogo-goroda-nachnetsia-posle-zaversheniia-sudebnogo-protcessa-sharshenova/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/umnaia-maska-kitaiskie-uchenye-sozdali-litcevoi-datchik-protiv-covid/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/v-bishkeke-v-2023-godu-postroiat-5-transportnykh-razviazok/</t>
+    <t>https://kabar.kg/news/kyrgyzsko-kitaiskuiu-granitcu-zakroiut-na-tri-dnia/</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/news/ebrr-prognoziruet-rost-vvp-kyrgyzstana-na-7/</t>
   </si>
   <si>
     <t>https://kabar.kg/news/po-sledam-samarkandskogo-sammita-shos-interv-iu-s-poslom-kyrgyzstana-v-uzbekistane/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/glava-verkhovnogo-suda-kr-vstretilsia-s-poslom-kitaia/</t>
+    <t>https://kabar.kg/news/kanaiym-baktygulova-osvobozhdena-ot-dolzhnosti-posla-kyrgyzstana-v-kitae/</t>
   </si>
   <si>
     <t>https://kabar.kg/news/kyrgyzsko-kitaiskaia-assotciatciia-rabotaiushchaia-v-kyrgyzstane-okazala-gumpomoshch-batkenu/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/adylbek-kasymaliev-vstretilsia-s-chlenami-soveta-direktorov-abr/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/glava-kabmina-predstavil-kollektivu-mintransa-novogo-rukovoditelia/</t>
-  </si>
-  <si>
     <t>https://kabar.kg/news/sbornik-proizvedenii-zooka-kyrgyzskogo-pisatelia-beishenbaia-usubalieva-izdan-v-turtcii/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/kyrgyzsko-kitaiskuiu-granitcu-zakroiut-na-tri-dnia/</t>
-  </si>
-  <si>
     <t>https://kabar.kg/news/aktilek-musaeva-naznachena-poslom-kyrgyzstana-v-kitae/</t>
   </si>
   <si>
-    <t>https://kabar.kg/news/akylbek-zhaparov-prinial-uchastie-v-kyrgyzsko-rossiiskom-investforume/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/ebrr-prognoziruet-rost-vvp-kyrgyzstana-na-7/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/akylbek-zhaparov-v-etom-godu-v-bishkeke-za-5-mesiatcev-bylo-postroeno-15-shkol/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/glava-nai-i-posol-kr-v-kitae-predlozhili-riad-reshenii-dlia-uvelicheniia-investitcii-v-kyrgyzstan/</t>
-  </si>
-  <si>
-    <t>https://kabar.kg/news/kanaiym-baktygulova-osvobozhdena-ot-dolzhnosti-posla-kyrgyzstana-v-kitae/</t>
+    <t>Китай выделит гумпомощь в 100 тыс. долларов для жителей Баткенской области</t>
+  </si>
+  <si>
+    <t>Глава Таможенной службы встретился с послом КР в Китае</t>
+  </si>
+  <si>
+    <t>Сотрудникам российского офиса TikTok предложили переехать в Кыргызстан</t>
+  </si>
+  <si>
+    <t>Садыр Жапаров: Кыргызстан видит значительный потенциал в межрегиональном сотрудничестве ЦА и ЕС</t>
   </si>
   <si>
     <t>Президент поздравил работников автотранспорта и дорожного хозяйства с профессиональным праздником</t>
   </si>
   <si>
+    <t>Акылбек Жапаров: В рамках своего председательства в СГП ШОС мы будем открыты ко всем предложениям</t>
+  </si>
+  <si>
+    <t>В Бишкеке открыли новую магистраль (фото)</t>
+  </si>
+  <si>
     <t>Депутат ЖК предлагает ввести туристические визы для граждан Китая</t>
   </si>
   <si>
-    <t>Сотрудникам российского офиса TikTok предложили переехать в Кыргызстан</t>
-  </si>
-  <si>
-    <t>В Бишкеке открыли новую магистраль (фото)</t>
+    <t>Китай снова закрывает свои города на карантин из-за вспышки COVID-19</t>
+  </si>
+  <si>
+    <t>Кабмин ввел временный запрет на вывоз угля автотранспортом</t>
+  </si>
+  <si>
+    <t>Садыр Жапаров поздравил Си Цзиньпина с переизбранием на пост генсека ЦК КПК</t>
+  </si>
+  <si>
+    <t>Садыр Жапаров дал старт строительству Куланакской ГЭС</t>
+  </si>
+  <si>
+    <t>Замглавы МЭК КР принял участие в заседании национальных координаторов программы ЦАРЭС</t>
+  </si>
+  <si>
+    <t>В Бишкеке подвели итоги ежегодного марафона «MBulak Kuz Demi 2022»</t>
   </si>
   <si>
     <t>До конца года в Бишкек прибудут 120 автобусов</t>
   </si>
   <si>
-    <t>Акылбек Жапаров: В рамках своего председательства в СГП ШОС мы будем открыты ко всем предложениям</t>
-  </si>
-  <si>
-    <t>Китай выделит гумпомощь в 100 тыс. долларов для жителей Баткенской области</t>
-  </si>
-  <si>
-    <t>Глава Таможенной службы встретился с послом КР в Китае</t>
+    <t>Попытка дестабилизации. Как быстро можно уничтожить все, что нарабатывается годами</t>
+  </si>
+  <si>
+    <t>Смерть шахтеров от утечки газа. Минприроды рассказало о нарушениях в работе компании</t>
+  </si>
+  <si>
+    <t>Посольство Китая в КР объявило о начале регистрации на вторую стипендиальную программу  «Следуя за китайской мечтой»</t>
+  </si>
+  <si>
+    <t>Саботаж по заказу. Зачем «оппозиция» пытается сорвать подписание договора о границе с Узбекистаном?</t>
+  </si>
+  <si>
+    <t>Ж/д «Китай – Кыргызстан – Узбекистан». Идет подготовка ТЭО</t>
+  </si>
+  <si>
+    <t>Садыр Жапаров ознакомился с ходом строительства железной дороги Балыкчы-Кочкор-Кара-Кече</t>
   </si>
   <si>
     <t>Китай заинтересован в импорте меда, алкоголя и молочной продукции из Кыргызстана</t>
@@ -214,148 +253,229 @@
     <t>Торага Жогорку Кенеша встретился с председателем Сената Олий Мажлиса Узбекистана. Что обсудили?</t>
   </si>
   <si>
-    <t>Кабмин ввел временный запрет на вывоз угля автотранспортом</t>
-  </si>
-  <si>
-    <t>Попытка дестабилизации. Как быстро можно уничтожить все, что нарабатывается годами</t>
+    <t>В ЖК подняли вопрос о целесообразности существования Антимонопольной службы</t>
+  </si>
+  <si>
+    <t>Адылбек Касымалиев встретился с членами совета директоров АБР</t>
+  </si>
+  <si>
+    <t>В Бишкеке пройдет самый крупный Азиатский фестиваль по китайской игре Го</t>
+  </si>
+  <si>
+    <t>Узбекистан намерен ускорить развитие электромобильной отрасли в стране</t>
+  </si>
+  <si>
+    <t>Умная маска. Китайские ученые создали лицевой датчик против COVID</t>
+  </si>
+  <si>
+    <t>30 лет с момента установления дипотношений. Как развивались кыргызско-китайские отношения</t>
+  </si>
+  <si>
+    <t>Новые горизонты и конкретные решения. Госвизит президента Азербайджана в Кыргызстан</t>
+  </si>
+  <si>
+    <t>Делегация Кыргызстана примет участие в международном экофоруме «Hanabad wellness-resort» в Андижане</t>
+  </si>
+  <si>
+    <t>Реализация II этапа «Безопасного города» начнется после завершения судебного процесса — Шаршенова</t>
+  </si>
+  <si>
+    <t>Глава Верховного суда КР встретился с послом Китая</t>
+  </si>
+  <si>
+    <t>Акылбек Жапаров принял участие в кыргызско-российском инвестфоруме</t>
+  </si>
+  <si>
+    <t>Экспорт кыргызского угля вырос на 25% из-за увеличения поставок в Европу</t>
+  </si>
+  <si>
+    <t>Глава НАИ и посол КР в Китае предложили ряд решений для увеличения инвестиций в Кыргызстан</t>
+  </si>
+  <si>
+    <t>Глава кабмина представил коллективу Минтранса нового руководителя</t>
+  </si>
+  <si>
+    <t>Кыргызстан обсудил с Ираном возможности импорта ГСМ и увеличения товарооборота</t>
+  </si>
+  <si>
+    <t>Акылбек Жапаров: В этом году в Бишкеке за 5 месяцев было построено 15 школ</t>
+  </si>
+  <si>
+    <t>В Бишкеке в 2023 году построят 5 транспортных развязок</t>
   </si>
   <si>
     <t>Депутаты предлагают предусмотреть в Конституции смертную казнь за педофилию</t>
   </si>
   <si>
-    <t>Садыр Жапаров дал старт строительству Куланакской ГЭС</t>
-  </si>
-  <si>
-    <t>Садыр Жапаров ознакомился с ходом строительства железной дороги Балыкчы-Кочкор-Кара-Кече</t>
-  </si>
-  <si>
-    <t>Китай снова закрывает свои города на карантин из-за вспышки COVID-19</t>
-  </si>
-  <si>
-    <t>Замглавы МЭК КР принял участие в заседании национальных координаторов программы ЦАРЭС</t>
-  </si>
-  <si>
-    <t>Новые горизонты и конкретные решения. Госвизит президента Азербайджана в Кыргызстан</t>
-  </si>
-  <si>
-    <t>Кыргызстан обсудил с Ираном возможности импорта ГСМ и увеличения товарооборота</t>
-  </si>
-  <si>
-    <t>В Бишкеке пройдет самый крупный Азиатский фестиваль по китайской игре Го</t>
-  </si>
-  <si>
-    <t>В Бишкеке подвели итоги ежегодного марафона «MBulak Kuz Demi 2022»</t>
-  </si>
-  <si>
-    <t>Смерть шахтеров от утечки газа. Минприроды рассказало о нарушениях в работе компании</t>
-  </si>
-  <si>
-    <t>Экспорт кыргызского угля вырос на 25% из-за увеличения поставок в Европу</t>
-  </si>
-  <si>
-    <t>Саботаж по заказу. Зачем «оппозиция» пытается сорвать подписание договора о границе с Узбекистаном?</t>
-  </si>
-  <si>
-    <t>Садыр Жапаров: Кыргызстан видит значительный потенциал в межрегиональном сотрудничестве ЦА и ЕС</t>
-  </si>
-  <si>
-    <t>30 лет с момента установления дипотношений. Как развивались кыргызско-китайские отношения</t>
-  </si>
-  <si>
-    <t>Садыр Жапаров поздравил Си Цзиньпина с переизбранием на пост генсека ЦК КПК</t>
-  </si>
-  <si>
-    <t>Делегация Кыргызстана примет участие в международном экофоруме «Hanabad wellness-resort» в Андижане</t>
-  </si>
-  <si>
-    <t>Ж/д «Китай – Кыргызстан – Узбекистан». Идет подготовка ТЭО</t>
-  </si>
-  <si>
-    <t>Посольство Китая в КР объявило о начале регистрации на вторую стипендиальную программу  «Следуя за китайской мечтой»</t>
+    <t>В Бишкеке после ремонта открыли отрезок улицы Садыбакасова</t>
   </si>
   <si>
     <t>Амангельдиев принял участие в 21-ом совещании министров ШОС в режиме онлайн</t>
   </si>
   <si>
-    <t>Узбекистан намерен ускорить развитие электромобильной отрасли в стране</t>
-  </si>
-  <si>
-    <t>В ЖК подняли вопрос о целесообразности существования Антимонопольной службы</t>
-  </si>
-  <si>
-    <t>В Бишкеке после ремонта открыли отрезок улицы Садыбакасова</t>
-  </si>
-  <si>
-    <t>Реализация II этапа «Безопасного города» начнется после завершения судебного процесса — Шаршенова</t>
-  </si>
-  <si>
-    <t>Умная маска. Китайские ученые создали лицевой датчик против COVID</t>
-  </si>
-  <si>
-    <t>В Бишкеке в 2023 году построят 5 транспортных развязок</t>
+    <t>Кыргызско-китайскую границу закроют на три дня</t>
+  </si>
+  <si>
+    <t>ЕБРР прогнозирует рост ВВП Кыргызстана на 7%</t>
   </si>
   <si>
     <t>По следам Самаркандского  саммита ШОС. Интервью с послом Кыргызстана в Узбекистане</t>
   </si>
   <si>
-    <t>Глава Верховного суда КР встретился с послом Китая</t>
+    <t>Канайым Бактыгулова освобождена от должности посла Кыргызстана в Китае</t>
   </si>
   <si>
     <t>Кыргызско-китайская ассоциация оказала гумпомощь Баткену</t>
   </si>
   <si>
-    <t>Адылбек Касымалиев встретился с членами совета директоров АБР</t>
-  </si>
-  <si>
-    <t>Глава кабмина представил коллективу Минтранса нового руководителя</t>
-  </si>
-  <si>
     <t>Сборник произведений «Зоока» кыргызского писателя Бейшенбая Усубалиева издан в Турции</t>
   </si>
   <si>
-    <t>Кыргызско-китайскую границу закроют на три дня</t>
-  </si>
-  <si>
     <t>Актилек Мусаева назначена послом Кыргызстана в Китае</t>
   </si>
   <si>
-    <t>Акылбек Жапаров принял участие в кыргызско-российском инвестфоруме</t>
-  </si>
-  <si>
-    <t>ЕБРР прогнозирует рост ВВП Кыргызстана на 7%</t>
-  </si>
-  <si>
-    <t>Акылбек Жапаров: В этом году в Бишкеке за 5 месяцев было построено 15 школ</t>
-  </si>
-  <si>
-    <t>Глава НАИ и посол КР в Китае предложили ряд решений для увеличения инвестиций в Кыргызстан</t>
-  </si>
-  <si>
-    <t>Канайым Бактыгулова освобождена от должности посла Кыргызстана в Китае</t>
+    <t>2022-11-03</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>2022-11-02</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>2022-10-30</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>2022-10-25</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>2022-10-19</t>
+  </si>
+  <si>
+    <t>2022-10-14</t>
+  </si>
+  <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>2022-10-26</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>2022-10-13</t>
+  </si>
+  <si>
+    <t>2022-10-20</t>
+  </si>
+  <si>
+    <t>2022-10-07</t>
+  </si>
+  <si>
+    <t>2022-10-08</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>2022-10-04</t>
+  </si>
+  <si>
+    <t>2022-09-27</t>
+  </si>
+  <si>
+    <t>2022-09-29</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>Бишкек, 03.11.22. /Кабар/.Китай выделит гумпомощь в 100 тыс. долларов для жителей Баткенской области.По информации МИД КР, 2 ноября 2022 года состоялась встреча заместителя министра иностранных дел Кыргызской Республики Азизбека Мадмарова с чрезвычайным и полномочным послом Китайской Народной Республики в Кыргызской Республике Ду Дэвэнь.В ходе встречи китайская сторона озвучила о принятом решении выделить гуманитарную помощь в размере 100 тыс. долларов США для жителей Баткенской области, пострадавших в результате конфликта на кыргызско-таджикской границе.Стороны также обсудили вопросы реализации договоренностей, достигнутых по итогам визита члена Государственного Совета Китая, министра иностранных дел КНР Ван И в Кыргызскую Республику.</t>
+  </si>
+  <si>
+    <t>Бишкек, 28.10.22. /Кабар/.В Центральном аппарате Государственной таможенной службы (ГТС) при Министерстве финансов КР состоялась встреча председателя ГТС С.Исабекова с чрезвычайным и полномочным послом КР в Китайской Народной Республике А.Мусаевой.В ходе встречи сторонами обсуждены актуальные и проблемные вопросы межведомственного взаимодействия с Китайской Народной Республикой, в том числе деятельность пунктов пропусков на кыргызско-китайской границе, а также перспективы дальнейшего развития и укрепления двустороннего сотрудничества в таможенной сфере.</t>
+  </si>
+  <si>
+    <t>Бишкек, 02.11.22. /Кабар/.Сотрудникам российского офиса TikTok предложили релокацию в Кыргызстан, Казахстан и Армению. Об этомсообщаетРБК.Но для этого специалистам, покинувшим Россию, нужно вернуться в страну для подписания дополнительного соглашения к трудовому договору и взять все расходы по переезду на себя.Сервис TikTok принадлежит китайскому конгломерату ByteDance. Ее руководитель отдела глобальных бизнес-решений в Восточной Европе Анастасия Панина ранее сообщила, что компания открывает новый офис в Казахстане, который возглавит она.По словам одного из собеседников РБК, до марта в российском офисе TikTok работали 200–300 сотрудников, какая-то часть из них физически находилась не в России. Сейчас каждый третий сотрудник находится в другой стране.Также об открытии представительства TikTok в Астане сообщал заместитель министра культуры, информации, спорта и молодежной политики КР Чынгыз Эсенгул уулу. По его словам, Кыргызстан планирует предложить компании открыть еще офис в Кыргызстане.</t>
+  </si>
+  <si>
+    <t>Бишкек, 27.10.22 /Кабар/.«Мы приветствуем появление нового шестистороннего формата на высшем уровне. Видим значительный потенциал в нашем межрегиональном сотрудничестве», — отметил президент Кыргызстана Садыр Жапаров выступая на первой встрече лидеров «Центральная Азия — Европейский Союз» в г. Астана (Республика Казахстан).В своем выступлении Глава государства подчеркнул, что в этом году исполнилось ровно 30 лет со дня установления двустороннего партнерства Кыргызской Республики с Европейским Союзом. На сегодняшний день взаимодействие охватывает практически все сферы и выходит на качественно новый уровень сотрудничества. В регионе Кыргызстан выступает за укрепление интеграции в Центральной Азии и прилагает для этого практические усилия.Садыр Жапаров напомнил, что последняя Консультативная встреча глав государств Центральной Азии в июле 2022 года в Чолпон-Ате показала, что у стран региона есть понимание того, что торгово-экономическое, энергетическое, транспортное и иные виды взаимодействия являются прочной основой обеспечения стабильности и безопасности всей Центральной Азии.По итогам данной встречи была принята «Концепция взаимодействия государств Центральной Азии в рамках многосторонних форматов», в соответствии с которой главы государств подтвердили свое твердое намерение развивать региональное сотрудничество, в том числе с Европейским Союзом. На Консультативной встрече был также подписан Договор о дружбе, добрососедстве и сотрудничестве в целях развития Центральной Азии в XXI веке.«Мы договорились развивать взаимоотношения на основе доверия, руководствуясь принципами взаимного уважения государственного суверенитета, территориальной целостности и нерушимости границ, урегулирования споров за столом переговоров, неприменения силы или угрозы силой, соблюдения основных прав и свобод человека, добросовестного выполнения международных обязательств и норм международного права», — добавил Глава государства.Он с удовлетворением отметил, что проведенный в прошлом году по инициативе кыргызской стороны Первый экономический форум Центральная Азия — Европейский Союз в Бишкеке был поддержан партнерами и очередное заседание запланировано в Казахстане весной следующего года.Отдельно Президент остановился на транзитном потенциале Центральной Азии. Кыргызстан, как страна, не имеющая выхода к морю, на сегодняшний день продолжает модернизацию важных транспортных артерий страны. Намечен крупный проект в области железнодорожного транспорта с участием соседних стран — строительство железнодорожной магистрали «Китай–Кыргызстан–Узбекистан».Садыр Жапаров акцентировал внимание на том, что Кыргызская Республика заинтересована в реализации в стране и других крупных инфраструктурных проектов в транспортной сфере. Это в значительной степени будет способствовать развитию как межрегионального торгово-экономического сотрудничества, так и внутри региона Центральной Азии.«С оптимизмом ожидаем итоги исследования со стороны Европейского банка реконструкции и развития устойчивых транспортных соединений между Европой и Центральной Азией. Планомерно продвигаемся в вопросах цифровизации. С Европейским Союзом на протяжении нескольких лет мы ведем эффективные проекты в данной области и готовы их продолжить. Это, в свою очередь, помогает нашим беспрецедентным мерам по борьбе с коррупцией на всех уровнях, что вкупе с экономическими реформами имеет благоприятный эффект для роста интеллектуальной активности и создания здоровой деловой среды в Кыргызстане», — отметил Глава государства.В своем выступлении Президент также подчеркнул, что Кыргызстан приветствует усилия международного сообщества, в том числе Европейского Союза, направленные на поддержку афганского народа в деле предотвращения гуманитарной катастрофы, которая может только усилиться с приходом морозов.Садыр Жапаров отметил важность продолжения региональных проектов Евросоюза по управлению границами, содействию торговле, борьбе с терроризмом, наркотиками и контрабандой. Важно, чтобы эта помощь была использована по своему прямому назначению. Со своей стороны, Кыргызстан, как традиционно дружественная Афганистану страна, придерживаясь принципа невмешательства во внутренние дела, заинтересована в стабильном и процветающем Афганистане. Кыргызская сторона всегда прилагала и будет прилагать усилия для установления мира и стабильности в этой стране. Все эти и другие актуальные вопросы возможно будет подробно обсудить в ходе запланированной встречи Спецпредставителей стран Центральной Азии и Европейского Союза по Афганистану, проведение которой запланировано в Кыргызстане.Вместе с тем Глава государства затронул проектно-программную деятельность Евросоюза.«В соответствии с Региональной индикативной программой до 2027 года наш регион получает поддержку Евросоюза в области прав человека, воды и энергетики, гражданского общества, укрепления мира и безопасности, цифровизации, деловой среды и повышения человеческого потенциала. Вместе с этим, мы приветствовали бы в регионе передовые европейские технологии, образование и экспертизу. Рассчитываем, что за политическим сближением наших регионов последует рост инфраструктурных проектов и инвестиций», — заключил Садыр Жапаров.</t>
   </si>
   <si>
     <t>Бишкек, 30.10.22. /Кабар/.Президент Кыргызстана Садыр Жапаров поздравил работников автомобильного транспорта и дорожного хозяйства с профессиональным праздником.В поздравлении главы государства говорится:«Уважаемые работники автомобильного транспорта и дорожного хозяйства!Уважаемые ветераны отрасли!От всей души поздравляю вас с профессиональным праздником.В связи с высокогорными и труднодоступными условиями нашей страны автомобильный транспорт является важнейшим элементом транспортной системы в Кыргызстане. Согласно данным, 95 процентов пассажирских и грузовых перевозок осуществляется автомобильным транспортом, составляющим основную часть транспортного комплекса.Стратегическая цель автотранспортной отрасли страны – ответственное управление во всех сферах экономики, качественное выполнение перевозок грузов и обеспечение безопасности при перевозке пассажиров и грузов.Структура и количество организационно-правовых форм транспортных предприятий меняются ежегодно. Это свидетельствует о том, что продолжается формирование оптимального рынка, регулируемого принципами конкуренции и реального спроса в сфере оказания транспортных услуг.В настоящее время предстоит большая работа по переводу требуемых разрешений в сфере автомобильного транспорта в электронный формат, с учетом геополитической ситуации во всем мире, проведения работ по использованию новых транспортных коридоров для кыргызских перевозчиков, созданию современных условий для пассажиров на автовокзалах, завоз экологически чистых электробусов и инфраструктуры электроснабжения.Строительство дорог – неотъемлемая часть экономического возрождения страны.Мы создаем наше светлое будущее, строя в Кыргызстане дороги, имеющие большое стратегическое значение, и способствуя развитию экономики страны.Таким образом, с созданием развитой системы автомобильного транспорта мы постепенно превращаемся в транзитную страну. Нет сомнений в том, что Кыргызстан в ближайшем будущем станет одним из деловых участников международных транзитных отношений.Отметим, что в настоящее время из крупных проектов успешно ведется строительство альтернативной автодороги Север – Юг. Реализация данного проекта обеспечит транзит по маршруту Россия – Казахстан – Кыргызстан – Таджикистан.Строительство «кольцевой дороги Иссык-Куль» позволит нам выйти на магистраль «Западный Китай – Западная Европа». Конечно, за такими серьезными проектами стоят работники дорожного хозяйства.Уважаемые работники автомобильного транспорта и дорожного хозяйства!Я уверен, что благодаря вашему неустанному труду народ Кыргызстана в ближайшем будущем получит качественное транспортное сообщение по современным дорогам, отвечающим всем требованиям времени.Еще раз поздравляю вас с праздником!Желаю всем вам крепкого здоровья, благополучной жизни и успехов в ваших благородных начинаниях.Пусть транспортно-дорожная отрасль нашей страны развивается и служит на благо народа Кыргызстана!»/</t>
   </si>
   <si>
+    <t>Бишкек, 01.11.22. /Кабар/.Председатель кабинета министров КР - руководитель администрации президента КР Акылбек Жапаров принял участие в заседании Совета глав правительств (СГП) государств-членов Шанхайской организации сотрудничества (ШОС) в режиме видеоконференцсвязи.В ходе выступления глава кабмина отметил, что на сегодняшний день ШОС стала динамично растущей трансрегиональной организацией, объединяющий почти четверть мирового валового внутреннего продукта.«Вот уже на протяжении трех лет мировое сообщество переживает период трансформации и кардинальных изменений. В связи с чем перед нашими странами в качестве приоритетных задач стоят вопросы скорейшего восстановления деловой активности и экономических связей, снятия торговых барьеров и ограничений, расширения промышленной кооперации наших стран», - отметил Акылбек Жапаров, добавив, что своевременное утверждение Программы по развитию цифровой экономики позволит активизировать практическое сотрудничество и обмен опытом в области цифровой экономики между государствами – членами ШОС, а также наращивать конкурентоспособность экономики региона.Глава Кабмина подчеркнул, что месяц назад успешно прошло заседание Совета глав государств – членов ШОС, в ходе которого подписаны и одобрены более 40 документов в различных стратегических сферах взаимодействия между государствами – членами организации.«Считаю важным принять соответствующие меры по практической реализации принятых решений и документов в ходе Самаркандского саммита. Необходимо совместное содействие в развитии индустриальных парков и транспортно-логистических центров в странах ШОС, интегрированных в Свободные экономические зоны стран организации, а также создании многофункциональных площадок делового сотрудничества. Полагается важным также использовать потенциал Демонстрационной зоны регионального торгово-экономического сотрудничества Китай - ШОС в развитии сотрудничества в данном направлении», - сказал председатель кабинета министров и добавил, что кыргызская сторона неоднократно заявляла, о необходимости как можно скорее решить вопросы по созданию Банка развития и Фонда развития Шанхайской организации сотрудничества.В завершение Акылбек Жапаров выразил благодарность за поддержку в проведении ежегодного Иссык-Кульского марафона ШОС, отметив, что Кыргызская Республика готова принять председательство в Совете глав правительств Шанхайской организации сотрудничества с ноября 2022 года.«Придерживаясь принципов «шанхайского духа» в рамках своего председательства в Совете глав правительств мы будем открыты ко всем предложениям и готовы к совместному взаимовыгодному сотрудничеству во благо и во имя интересов наших стран и народов», - заключил глава кабинета министров.</t>
+  </si>
+  <si>
+    <t>Бишкек, 28.10.22. /Кабар/.В Бишкеке состоялось открытие отрезка улицы Жайыл Баатыра от улицы Чортекова до улицы Алыкулова, сообщили в столичной мэрии.Новая шестиполосная дорога в восточно-западном направлении соединяет Орокский айыл окмоту с Бишкеком. Для удобства и безопасности горожан, живущих вдоль магистральной дороги, предусмотрена дорога местного значения.Отметим, дорога кольцевая и соединяет улицы Муромскую, Б. Алыкулова, проезд ТЭЦ-2, что позволит разгрузить от автотранспортных средств на дорогах, расположенных в южной части дорог столицы.Строительство производилось в рамках проекта «Развитие улично-дорожной сети города Бишкек» за счет гранта Китайской Народной Республики.Открытие прошло с участием мэра столицы Эмилбека Абдыкадырова, акима Ленинского района Русланбека Тагаева, директора Департамента транспорта и развития дорожно-транспортной инфраструктуры Максата Нусувалиева, а также представителей «China Road and Bridge Corporation» и китайской управляющей компании.</t>
+  </si>
+  <si>
     <t>Бишкек, 02.11.22. /Кабар/.Депутат Жогорку Кенеша Жанар Акаев на заседании парламента предложил кабмину рассмотреть вопрос введения туристических виз для граждан Китайской Народной Республики.По его словам, Узбекистан ввел безвизовый режим на 10 дней для граждан Китая.«В результате за два года в стране увеличились иностранные бизнесмены до 2 тыс. Наши люди должны понимать это и не говорить о том, что мы будем разрешать жить и оставаться в стране. Это туристическая виза. Инвесторы будут приезжать и рассматривать в стране возможности для ведения бизнеса. В том числе и туристы тоже будут вкладывать деньги в нашу экономику», - сказал он.Депутат добавил, что Казахстан также ввел безвизовый режим для граждан Китая до 20 дней. «Сейчас инвесторы из Китая заезжают в страну. Вот мы говорим, что имеется дефицит бюджета, будем развивать туризм, мы должны пойти на такие решения. Бояться все время, что в страну приедут террористы или еще кто-то, нельзя. Мы должны открыть для мира свои двери, но все должно быть под контролем», - считает депутат.</t>
   </si>
   <si>
-    <t>Бишкек, 02.11.22. /Кабар/.Сотрудникам российского офиса TikTok предложили релокацию в Кыргызстан, Казахстан и Армению. Об этомсообщаетРБК.Но для этого специалистам, покинувшим Россию, нужно вернуться в страну для подписания дополнительного соглашения к трудовому договору и взять все расходы по переезду на себя.Сервис TikTok принадлежит китайскому конгломерату ByteDance. Ее руководитель отдела глобальных бизнес-решений в Восточной Европе Анастасия Панина ранее сообщила, что компания открывает новый офис в Казахстане, который возглавит она.По словам одного из собеседников РБК, до марта в российском офисе TikTok работали 200–300 сотрудников, какая-то часть из них физически находилась не в России. Сейчас каждый третий сотрудник находится в другой стране.Также об открытии представительства TikTok в Астане сообщал заместитель министра культуры, информации, спорта и молодежной политики КР Чынгыз Эсенгул уулу. По его словам, Кыргызстан планирует предложить компании открыть еще офис в Кыргызстане.</t>
-  </si>
-  <si>
-    <t>Бишкек, 28.10.22. /Кабар/.В Бишкеке состоялось открытие отрезка улицы Жайыл Баатыра от улицы Чортекова до улицы Алыкулова, сообщили в столичной мэрии.Новая шестиполосная дорога в восточно-западном направлении соединяет Орокский айыл окмоту с Бишкеком. Для удобства и безопасности горожан, живущих вдоль магистральной дороги, предусмотрена дорога местного значения.Отметим, дорога кольцевая и соединяет улицы Муромскую, Б. Алыкулова, проезд ТЭЦ-2, что позволит разгрузить от автотранспортных средств на дорогах, расположенных в южной части дорог столицы.Строительство производилось в рамках проекта «Развитие улично-дорожной сети города Бишкек» за счет гранта Китайской Народной Республики.Открытие прошло с участием мэра столицы Эмилбека Абдыкадырова, акима Ленинского района Русланбека Тагаева, директора Департамента транспорта и развития дорожно-транспортной инфраструктуры Максата Нусувалиева, а также представителей «China Road and Bridge Corporation» и китайской управляющей компании.</t>
+    <t>Бишкек, 28.10.22./Кабар/.Правительство Китайской народной республики вновь закрывает на карантин города в центральной и северо-западной части страны из-за новой вспышки COVID-19.По данным республиканского штаба КР, в Китае сообщили о том, что три дня подряд по всей стране регистрируется более 1 тыс. новых случаев COVID-19.Так, в городе Ухань, где впервые в мире выявили вспышку коронавируса в конце 2019 года, на этой неделе сообщили о 20-25 новых случаях заражения. За последние 14 дней в городе зарегистрировано 240 случаев. Местные власти приказали более 800 тыс. человек в одном районе оставаться дома до 30 октября.В Гуанчжоу, четвертом по величине городе Китая по объему экономического производства, опечатали еще больше улиц и кварталов, людям приказали оставаться в своих домах из-за того, что новые районы были признаны зонами повышенного риска в связи с активизацией вируса, которая продолжается уже четвертую неделю.</t>
+  </si>
+  <si>
+    <t>Бишкек, 25.10.22. /Индира Камчыбекова - Кабар/.Председатель кабмина Акылбек Жапаров подписал постановление о некоторых вопросах перевозки угля, от 24.10.22 г. №581.Согласно документу, в соответствии со статьями 29, 47 Договора о Евразийском экономическом союзе от 29 мая 2014 года, статьями 13, 17 конституционного Закона КР «О Кабинете Министров КР» кабмин постановляет:1. Ввести временный запрет сроком на шесть месяцев на вывоз угля (классифицируемого кодами 2701 и 2702 ТН ВЭД ЕАЭС) с территории Кыргызстана автомобильным транспортом (за исключением пунктов пропуска на кыргызско-китайской государственной границе «Иркештам автодорожный» и «Торугарт автодорожный»).2. Министерству экономики и коммерции КР не позднее трех дней с даты вступления в силу настоящего постановления в установленном порядке уведомить Всемирную торговую организацию и Евразийскую экономическую комиссию о введении временного запрета, указанного в пункте 1 настоящего постановления.3. Министерству иностранных дел КР не позднее трех дней с даты вступления в силу настоящего постановления в установленном порядке уведомить Исполнительный комитет Содружества Независимых Государств о введении временного запрета, указанного в пункте 1 настоящего постановления.4. Министерству транспорта и коммуникаций КР, Государственной таможенной службе при Министерстве финансов КР и Пограничной службе Государственного комитета национальной безопасности КР принять необходимые меры, вытекающие из пункта 1 настоящего постановления.5. Контроль за исполнением настоящего постановления возложить на управление контроля исполнения решений президента и кабинета министров администрации президента КР.6. Настоящее постановление вступает в силу по истечении трех дней со дня официального опубликования.</t>
+  </si>
+  <si>
+    <t>Бишкек, 24.10.22. /Кабар/.Президент Кыргызстана Садыр Жапаров поздравил Си Цзиньпина с переизбранием на пост Генерального секретаря Центрального комитета Коммунистической партии Китая.«Примите мои искренние поздравления по случаю Вашего переизбрания на пост Генерального секретаря Центрального комитета Коммунистической партии Китая, а также успешного проведения XX Всекитайского съезда Коммунистической партии Китая.Результаты прошедшего голосования показали высокое доверие Коммунистической партии и народа Китайской Народной Республики к проводимому Вами курсу как во внутренней, так и во внешней политике, который направлен на укрепление устойчивого развития Китая.Кыргызско-китайские отношения в последние годы динамично развиваются. Между нашими государствами укрепляются добрососедство и дружба, политическое взаимодоверие, непрерывно расширяется торгово-экономическое сотрудничество. Наши страны поддерживают тесные контакты на всех уровнях, на основе политического доверия тесно сотрудничают в рамках проекта «Один пояс, один путь», реализуют ряд крупных совместных проектов, что приносит реальную пользу нашим народам.С удовлетворением хотел бы отметить наши встречи в феврале и сентябре этого года в Пекине и Самарканде, в результате которых были достигнуты договоренности по широкому кругу вопросов двусторонних отношений, взаимодействия в многостороннем формате.Выражаю готовность к продолжению совместной конструктивной работы по дальнейшей активизации всего спектра кыргызско-китайских отношений.Желаю Вам, здоровья и дальнейших успехов в государственной деятельности, а дружественному китайскому народу – благополучия, мира и процветания», - говорится в поздравительном послании.</t>
+  </si>
+  <si>
+    <t>Бишкек, 21.10.22. /Кабар/.Президент Кыргызстана Садыр Жапаров дал старт строительству Куланакской ГЭС, заложив капсулу под начало строительства ГЭС в селе Куланак Нарынской области.Глава государства в своей речи подчеркнул, что сегодняшнее событие - закладка первого камня и начало строительства Куланакской ГЭС, принесет пользу не только Нарынской области, но и в целом экономике и энергетике Кыргызстана.«Это один из важных шагов в истории, прокладывающий путь в будущее нашей энергетики. Поэтому разрешите поздравить вас всех с сегодняшним мероприятием!», - отметил президент.Садыр Жапаров подчеркнул, что руководство страны делает акцент на развитии экономики государства за счет строительства новых гидроэлектростанций.«Обеспечение энергетической независимости и безопасности страны – одна из наших главных задач. Конечно, мы прилагаем все усилия, чтобы эти цели не остались лишь на бумаге.При этом мы не забываем о вопросах сохранения и передачи будущим поколениям прекрасной природы, подаренной Творцом.В настоящее время мы изучаем различные направления развития возобновляемых источников энергии. Среди них особое внимание уделяется строительству малых ГЭС», - сказал он.Садыр Жапаров выразил уверенность, что благодаря гражданам, которые думают о будущем государства, народ Кыргызстана будет жить в достатке, с широкими возможностями для развития.«Государство оказывает посильную помощь и создает все условия для строительства. В будущем мы создадим еще больше условий», - сказал он.Далее Глава государства кратко рассказал о планируемой Куланакской ГЭС.«У нас есть цель возвести ГЭС мощностью 100 МВт. По завершению строительства и введения гидроэлектростанции в эксплуатацию, ожидается, что она будет производить 450 млн кВтч электроэнергии в год. Таким образом, вся Нарынская область полностью обеспечивается электроэнергией.По оценкам специалистов, в ходе строительства ГЭС, будет создано от 800 до 1000 рабочих мест. После завершения строительства и ввода объекта в полную эксплуатацию, около 100 человек получат постоянные рабочие места. Проект строительства данного объекта включает плотину высотой 27 метров, гидрошлюзы для отвода русла реки и отвода воды, деривационный канал протяженностью 6,5 км, здание электростанции с агрегатами, водозабор для орошения сельскохозяйственных угодий в айыльных аймаках Учкун, Жан-Булак, Эмгек-Талаа, Мин-Булак, Жерге-Тал Нарынского района, по реке Нарын», - сказал он.Президент обратил внимание местных жителей на то, что строительство ГЭС принесет огромную пользу в энергетике и хозяйственной сфере, а также даст возможность для орошения сельскохозяйственных угодий.«Со строительством Куланакской ГЭС улучшится обеспечение оросительной водой 5081 га сельскохозяйственных угодий в Учкунском и Сары-Ойском айылных аймаках. Кроме того, будет освоено 2100 га новых земель. Даст Бог, Куланакская ГЭС станет локомотивом гидроэнергетики Нарынской области. В связи с этим поручаю всем соответствующим государственным органам обратить особое внимание на преимущества объекта «Куланак», принять действенные меры и оказывать всемерную поддержку в оперативном решении вопросов строительства», - отметил Садыр Жапаров.Глава государства возложил на Министерство энергетики ответственность за безупречную и качественную реализацию проекта.«Имеется возможность построить на реке Нарын другие ГЭС на 2,5 тыс. МВт. Надеюсь, в ближайшем будущем мы построим множество средних и малых ГЭС. Уже два года мы закладываем капсулы под строительство многих объектов. Каждый проект завершается в срок. Этот объект, для строительства которого мы заложили капсулу сегодня, будет сдан в эксплуатацию через четыре года.Год подготовительных работ, потом три года строительства. Весной мы заклали капсулу на месте строительства Камбар-Атинской ГЭС. Мы рассчитываем завершить этот проект через 8 лет. Даже если мы закончим через 10 лет вместо 8, это будет большое дело», - заявил Президент.Садыр Жапаров отметил, что при завершении строительства Камбаратинской ГЭС, Кыргызстан станет независимой, полностью самодостаточной страной, которая не импортирует, а экспортирует электроэнергию.«Сейчас у нас дефицит в 3 млрд киловатт-часов электроэнергии в год. Мы стоим у истока воды, но, не пользуясь этим, за тридцать лет не построили ни одной ГЭС. Теперь начали строить. Мы используем только десять процентов всего потенциала. Если добавить еще процентов 90, то мы сможем продавать электроэнергию не только странам Средней Азии, но и в Европу и Китай. Даст Бог, до этого дойдем», - сказал он.Глава государства выразил надежду, что Куланакская ГЭС станет крупным промышленным предприятием, которое будет служить всему кыргызскому народу.«Пусть будет благословлен народ священного Тенир-Тоо, да будет мир на нашей земле и развивается наша страна», - завершил свою речь Садыр Жапаров.Отмечается, что общая стоимость проекта составляет 124 млн долларов США, из которых 88 млн долларов США, как кредитные средства будут предоставлены группой финансовых институтов, в том числе Российско-Кыргызским фондом развития и Евразийским банком развития.</t>
+  </si>
+  <si>
+    <t>Бишкек, 24.10.22. /Кабар/.Состоялось онлайн заседание национальных координаторов программы Центральноазиатского регионального экономического сотрудничества (ЦАРЭС). Национальным координатором ЦАРЭС от Кыргызстана является заместитель министра экономики и коммерции КР Канат Абдрахманов.В данном виртуальном мероприятии приняли участие национальные координаторы программы ЦАРЭС и другие высокопоставленные должностные лица из 11 стран-членов ЦАРЭС, а также представители Азиатского банка развития и других партнеров по развитию.На заседании состоялся стратегический диалог между официальными лицами из стран-членов ЦАРЭС, посвященный дальнейшему укреплению программ и деятельности ЦАРЭС в будущем, в частности были рассмотрены следующие вопросы:- Рамочный документ на период после пандемии для «зеленого», устойчивого и инклюзивного восстановления;- Рамочный документ по сотрудничеству для развития сельского хозяйства и продовольственной безопасности в регионе ЦАРЭС;- Альянс «зеленой» энергии ЦАРЭС;- Тема и структура 21-й Министерской конференции ЦАРЭС.В своем выступлении Абдрахманов отметил особую актуальность и важность вопросов по улучшению уровня продовольственной безопасности, энергетической эффективности и увеличения мощностей всех видов возобновляемых источников энергии (ВИЭ), необходимость реализации региональных проектов в области охраны окружающей среды, инициатив по изменению климата.Справочно:Программа ЦАРЭС представляет собой партнерство 11 стран-участниц и партнеров по развитию как долгосрочная инициатива регионального сотрудничества для ускорения экономического роста и общего процветания региона ЦАРЭС.В число стран-участниц ЦАРЭС входят: Афганистан, Азербайджан, Китайская Народная Республика, Грузия, Казахстан, Кыргызская Республика, Монголия, Пакистан, Таджикистан, Туркменистан и Узбекистан.Программа ЦАРЭС достигает свои цели посредством реализации проектов технической помощи, поддержания диалога по вопросам проводимой экономической политики, продуктов и услуг в области знаний в пяти операционных кластерах:- экономическая и финансовая стабильность;- торговля, туризм и развитие экономических коридоров;- инфраструктура и экономическая связанность (транспорт и энергетика);- сельское хозяйство и водные ресурсы;- человеческое развитие (здравоохранение и образование).Вместе с тем, Программа ЦАРЭС охватывает вопросы по таким сквозным темам, как гендерная проблематика, информационно-коммуникационные технологии (ИКТ)и адаптация к изменению климата.Координирующим органом от КР в рамках Программы ЦАРЭС является Министерство экономики и коммерции КР.</t>
+  </si>
+  <si>
+    <t>Бишкек, 24.10.22. /Эркеайым Таалайбекова – Кабар/.В Бишкеке подвели итоги международного благотворительного марафона «MBulak Kuz Demi 2022».Как сообщает пресс-служба столичной мэрии, в забеге приняло участие около 3 тыс. взрослых и 300 детей.«Участники забега преодолели дистанцию 5, 10, 21,1 и 42,2 км по трассе Аэропорт «Манас» — Бишкек, место старта и финиша – мемориальный комплекс «Аска-Таш». Кроме того, в рамках марафона прошел еще детский забег, в котором приняли участие дети с 3 до 15 лет. Отметим, самому юному участнику мероприятия было 2,5 года, а самому старшему – 76 лет», - говорится в сообщении.Уточняется, что по данным организаторов, на марафоне пробежали представители таких стран, как Кыргызстан, Россия, Австрия, Китай, Хорватия, Франция, Германия, Греция, Индия, Италия, Казахстан, Мексика, Монголия, Нигерия, Филиппины, Турция, США и ОАЭ. Кроме этого, около 40% участвующих составляют корпоративные участники из порядка 70-80 местных и зарубежных компаний.Напомним, в этом году марафон прошел под слоганом: «Вместе мы можем больше». 100 сомов с взносов каждого участника будут направлены в фонды по защите женщин, детей и подростков, а именно в общественный фонд «Оазис» и кризисный центр «Сезим».</t>
   </si>
   <si>
     <t>Бишкек, 28.10.22 /Кабар/.До конца этого года в Бишкек прибудут 120 автобусов. Об этом журналистам сообщил мэр столицы Эмилбек Абдыкадыров.По его словам, на их покупку из городского бюджета было выделено около 1 млрд сомов.«Уточню, деньги из местного бюджета. То есть закупаем это вне проектов. Процедуры по автобусам, которые мы берем в рамках проекта с партнерами, затянулись за последние четыре-пять лет», — добавил градоначальник.Автобусы куплены у китайской компании. Деньги за них уже выплачены.Добавим, ранее сообщалось, что мэрия закупит 120 автобусов у китайской компании Zhongtong Bus Hoiding Co., Ltd. Цена каждого с запчастями — 91 тыс. долларов США.</t>
   </si>
   <si>
-    <t>Бишкек, 01.11.22. /Кабар/.Председатель кабинета министров КР - руководитель администрации президента КР Акылбек Жапаров принял участие в заседании Совета глав правительств (СГП) государств-членов Шанхайской организации сотрудничества (ШОС) в режиме видеоконференцсвязи.В ходе выступления глава кабмина отметил, что на сегодняшний день ШОС стала динамично растущей трансрегиональной организацией, объединяющий почти четверть мирового валового внутреннего продукта.«Вот уже на протяжении трех лет мировое сообщество переживает период трансформации и кардинальных изменений. В связи с чем перед нашими странами в качестве приоритетных задач стоят вопросы скорейшего восстановления деловой активности и экономических связей, снятия торговых барьеров и ограничений, расширения промышленной кооперации наших стран», - отметил Акылбек Жапаров, добавив, что своевременное утверждение Программы по развитию цифровой экономики позволит активизировать практическое сотрудничество и обмен опытом в области цифровой экономики между государствами – членами ШОС, а также наращивать конкурентоспособность экономики региона.Глава Кабмина подчеркнул, что месяц назад успешно прошло заседание Совета глав государств – членов ШОС, в ходе которого подписаны и одобрены более 40 документов в различных стратегических сферах взаимодействия между государствами – членами организации.«Считаю важным принять соответствующие меры по практической реализации принятых решений и документов в ходе Самаркандского саммита. Необходимо совместное содействие в развитии индустриальных парков и транспортно-логистических центров в странах ШОС, интегрированных в Свободные экономические зоны стран организации, а также создании многофункциональных площадок делового сотрудничества. Полагается важным также использовать потенциал Демонстрационной зоны регионального торгово-экономического сотрудничества Китай - ШОС в развитии сотрудничества в данном направлении», - сказал председатель кабинета министров и добавил, что кыргызская сторона неоднократно заявляла, о необходимости как можно скорее решить вопросы по созданию Банка развития и Фонда развития Шанхайской организации сотрудничества.В завершение Акылбек Жапаров выразил благодарность за поддержку в проведении ежегодного Иссык-Кульского марафона ШОС, отметив, что Кыргызская Республика готова принять председательство в Совете глав правительств Шанхайской организации сотрудничества с ноября 2022 года.«Придерживаясь принципов «шанхайского духа» в рамках своего председательства в Совете глав правительств мы будем открыты ко всем предложениям и готовы к совместному взаимовыгодному сотрудничеству во благо и во имя интересов наших стран и народов», - заключил глава кабинета министров.</t>
-  </si>
-  <si>
-    <t>Бишкек, 03.11.22. /Кабар/.Китай выделит гумпомощь в 100 тыс. долларов для жителей Баткенской области.По информации МИД КР, 2 ноября 2022 года состоялась встреча заместителя министра иностранных дел Кыргызской Республики Азизбека Мадмарова с чрезвычайным и полномочным послом Китайской Народной Республики в Кыргызской Республике Ду Дэвэнь.В ходе встречи китайская сторона озвучила о принятом решении выделить гуманитарную помощь в размере 100 тыс. долларов США для жителей Баткенской области, пострадавших в результате конфликта на кыргызско-таджикской границе.Стороны также обсудили вопросы реализации договоренностей, достигнутых по итогам визита члена Государственного Совета Китая, министра иностранных дел КНР Ван И в Кыргызскую Республику.</t>
-  </si>
-  <si>
-    <t>Бишкек, 28.10.22. /Кабар/.В Центральном аппарате Государственной таможенной службы (ГТС) при Министерстве финансов КР состоялась встреча председателя ГТС С.Исабекова с чрезвычайным и полномочным послом КР в Китайской Народной Республике А.Мусаевой.В ходе встречи сторонами обсуждены актуальные и проблемные вопросы межведомственного взаимодействия с Китайской Народной Республикой, в том числе деятельность пунктов пропусков на кыргызско-китайской границе, а также перспективы дальнейшего развития и укрепления двустороннего сотрудничества в таможенной сфере.</t>
+    <t>В интернете появились записи закулисных переговоров, на которых задержанные накануне «оппозиционеры» обсуждают вопросы организации массовых акций гражданского неповиновения. Причем обсуждаются детали не только готовящихся митингов, но и действий в информационном пространстве. То есть речь идет о плане действий насильственного и идеологического характера, которые могут привести к дестабилизации общественно политической обстановки в Кыргызстане. И что же это - демократия или заговор?Этим вопросом задался и вице-премьер Эдиль Байсалов. Пришел он к следующему выводу: «Здесь бывший председатель ГКНБ Дуйшебаев ясно дает понять, что цель — переворот. Он говорит: «Либо мы посадим, либо нас»».Байсалов считает, что это заговор против демократии. «Это покушение на Конституцию и народ. Просто факт покушения на демократию налицо. И то, что вы тут в их поддержку собираете, ничего общего со свободой слова не имеет», - поделился своим мнением в интернете зампред правительства.Отреагировал на последние события и Феликс Кулов, позиция которого оказалась традиционно размыта, многословными реверансами как в одну, так и в другую сторону. Тем не менее, бывший премьер-министр сделал несколько важных акцентов:1. «Скажу откровенно, не все члены данного комитета у меня вызывают симпатии, некоторых я считаю откровенными популистами, пытающимися на протестной волне решать свои меркантильные интересы. Фамилии называть не буду, так как не хочу потом тратить свое время и отвечать на их судебные иски».2. «Другого пути нет и не может быть, и я первый выступлю против любого, кто будет призывать ко всяким революциям и переворотам. Более того, при всем моем уважении к отдельным оппозиционерам, но, немножко разбираясь в политике и немножко зная настроения людей, уверено заявляю: сегодня никто не пойдет ради них на баррикады».3. «Любая революция - переворот в нынешних условиях глобального кризиса, сложной геополитической ситуации - приведет к разрушению нашей страны, потере государственности, полному обнищанию народа. Все процессы смены власти должны происходить цивилизованным путем, в соответствии с Конституцией».Если называть вещи своими именами, то подстрекательства к массовым беспорядкам могут привести к тому, что Кыргызстан потеряет все. В один момент можно лишиться всего, что нарабатывалось годами и десятилетиями.Схожего мнения придерживается политолог Марс Сариев. «Активистов и сектор НПО внешние силы использовали как «торпеды», а Кемпир-Абад использовали как болевую точку. Цель их заключается в том, чтобы рассорить Кыргызстан с Узбекистаном. Создать напряженную ситуацию, чтобы вопросы границ остались нерешенными. В дальнейшем это, конечно, могло бы застопорить проект по строительству железной дороги Китай — Кыргызстан — Узбекистан, которая сильно меняет геополитическую ситуацию в нашем регионе. Есть геополитические игроки, которые заинтересованы в срыве этого проекта и создании очагов нестабильности в Центрально-Азиатском регионе. То есть к кыргызско-таджикскому приграничному конфликту добавляется еще одна точка нестабильности.Второй акт «Марлезонского балета» может состоять в том, чтобы используя как предлог аресты активистов и блогеров, попытаться раскачать протестный электорат. Таким образом, в преддверии зимы, пока позволяет погода, был план дестабилизировать Кыргызстан, совершить переворот. Я далек от мысли, что задержанные фигуранты дела о массовых беспорядках на самом деле смогли бы раскачать ситуацию и совершить захват власти. Их использовали втемную, под соусом патриотической риторики. Я считаю, что было ожидание у внешних драматургов того, что аресты создадут вокруг задержанных образ мучеников, и это можно будет использовать как фактор для дальнейшей дестабилизации», - полагает Марс Сариев.Кирилл Степанюк</t>
+  </si>
+  <si>
+    <t>Бишкек, 19.10.22. /Нуркыз Сабырова – Кабар/.К китайской компании Full Gold Mining, которая разрабатывает месторождение Иштамберди в Чаткальском хребте Джалал-Абадской области, имеется много претензий. Об этом сегодня на пресс-конференции в агентстве «Кабар» рассказал первый заместитель министра природных ресурсов, экологии и технологического надзора Канат Садыков.По его словам, на сегодня там работает специальная комиссия из специалистов Минздрава, Санэпидемстанции и Службы экологического надзора, которая выясняет причины утечки газа.«Есть постановление правительства, и есть положение, согласно которому при каждом несчастном случае со смертельным исходом создается специальная комиссия. Она проводит там работу. К компании много вопросов», — сообщил Садыков.Замминистра добавил, что после завершения работы комиссии информация о причине смерти сотрудников будет доведена до общественности. Он добавил, что на компанию Full Gold Mining ранее еще жаловались из-за того, что она не предоставляет сотрудникам надлежащие условия для труда и жилья.«За последние годы система государственного экологического контроля упала ниже нуля. Мы эту систему сейчас полностью восстанавливаем. Последние случаи показывают, что ранее Госэкотехинспекция осуществляла контроль не полностью», — заключил Садыков.Напомним, 11 октября, от отравления угарным газом на золотодобывающей шахте Full Gold Mining месторождения Иштамберды погибли два человека. Еще 11 были госпитализированы.</t>
+  </si>
+  <si>
+    <t>Бишкек, 14.10.22. /Кабар/.Посольство Китая в Кыргызстанеобъявилоо начале регистрации на вторую стипендиальную программу «Следуя за китайской мечтой», сообщает диппредставительства.«В целях расширения гуманитарных связей между Китаем и Кыргызстаном, предоставления кыргызским выпускникам больше возможностей учиться в Китае, в 2021 году Посольство Китая в Кыргызстане учредило стипендиальную программу «Следуя за китайской мечтой», шесть победителей получили полные правительственные стипендии для обучения в Китае. В нынешнем году Посольство Китая в Кыргызстане продолжает данный проект и официально открыло регистрацию на 2-ю стипендиальную программу «Следуя за китайской мечтой». Посольство надеется на активное участие выпускников средних школ Кыргызстана!», - говорится в сообщении</t>
+  </si>
+  <si>
+    <t>Состоявшаяся вчера попытка властей наладить диалог между активистами, жителями приграничных с Узбекистаном территорий и представители так называемой «оппозиции» (далее поясним, почему это определение сейчас следует кавычить), в значительной степени достигла своего результата. Заседание завершилось тем, что собравшиеся аксакалы, которые живут в непосредственной близости от Кемпир-Абадского водохранилища дали президенту бата (благословение), на заключение договора, который принесет стабильность и мир с соседями и соответствует национальным интересам Кыргызстана.Но это произошло только во второй половине мероприятия, когда собравшиеся увидели карты и получили исчерпывающую информацию о том, какая земля по результатам переговоров отходит Кыргызстану и каким образом теперь будет осуществляться совместное управление Кемпир-Абадским водохранилищем. Ну а в начале заседания отдельные представители из числе «вечно недовольных» пытались превратить важное заседание в цирк.Когда выступали президент Садыр Жапаров и глава ГКНБ Камчыбек Ташиев, демонстрировали спутниковые снимки, карты и давали подробные разъяснение, отдельные деятели из неправительственного сектора подскакивали, паясничали и кривлялись. На это удручающее зрелище, можно было бы и не обращать внимания, но разворачивалось оно в самом центре зала у всех на виду. Руководители страны несколько раз были вынуждены прерывать выступление и вежливо просить прекратить клоунаду. Увы, демонстрация пренебрежения к докладчикам и собравшимся повторялось и повторялось.Не подействовал даже тот аргумент, что плотина Кемпир-Абадского водохранилища будет управляться совместно, а граждане Кыргызстана будут иметь к нему свободный доступ, смогут там рыбачить и свободно использовать воду для полива. О каким ущербе интересам Кыргызстана может идти речь в таком случае? Если жители приграничья на встрече с президентом и главой ГКНБ поняли всю суть, то до «оппозиционеров» так ничего и не дошло.Было очевидно, что лица, совершавшие неадекватные поступки ни в чем даже не пытались разобраться. Им было не интересно, а на встречу, они пожаловали только для того, чтобы попытаться устроить балаган. Также и по итогам заседания в своих интервью отдельным СМИ они все переврали. Какие цели преследуются такими выходками, так называемой «оппозицией»?Интересное мнение на этот счет было высказано на состоявшемся сегодня в Бишкеке круглом столе «Итоги Астанинских саммитов. Роль Кыргызстана в региональных интеграционных процессах», организатором мероприятия выступил Центр экспертных инициатив «Ой ордо» в партнерстве с Международной ассоциацией ветеранов «Альфа». Участники этой встречи задались вопросами – «Как-то так получилось, что все наши «ура-патриоты» существуют на англо-саксонские гранты? Зачем сейчас разгоняют тему Кемпир-Абадского водохранилища?». Вот этот важный момент и есть причинна того, что определение «оппозиция» сейчас правильнее всего кавычить. Тем более в тех вопросах, которые касаются пограничного размежевания с соседями. Очевидно, что участие в этом процессе третьих заинтересованных лиц, может повлечь за собой серьезные проблемы.Неоспорим факт того, что если неким силам удастся сорвать подписание соглашение о делимитации границ между Кыргызстаном и Узбекистаном, то на карте Центральной Азии сохранятся несколько болевых точек, где между двумя народами могут возникать споры из-за земли и воды. В этих потенциальных очах напряженности даже незначительная провокация может создать серьезный конфликт. Кому нужен этот источник постоянной нестабильности?И еще несколько важных акцентов. Кто знает, какими могут быть последствия срыва договоренностей с Узбекистаном и пограничном размежевании? Как это отразится на реализации проекта железной дороги Китай-Кыргызстан-Узбекистан? Увы, и экономические последствия неадекватного поведения «оппозиции» могут оказаться для Кыргызстана очень неприятными.Лекарство от этого одно - не поддеваться на провокации сохраняя спокойствие и единство. В сложной международной обстановке это самое верное решение.Кирилл Степанюк</t>
+  </si>
+  <si>
+    <t>Бишкек, 18.10.22. /Кабар/.Активизирована работа по проекту строительства железной дороги Китай - Кыргызстан - Узбекистан. Об этом на пресс-конференции сообщил заместитель гендиректора ГП НК «Кыргыз темир жолу» Абдес Анарбеков.По его словам, на саммите ШОС в Самарканде был подписан Меморандум о сотрудничестве по проекту строительства железной дороги «Китай - Кыргызстан - Узбекистан» между Министерствами транспорта трех стран.«В настоящее время около 185 сотрудников Первого проектно-изыскательского института Китайской железнодорожной строительной корпорации проводят работы по подготовке ТЭО в Нарынской и Джалал-Абадской областях», - добавил он.</t>
+  </si>
+  <si>
+    <t>Бишкек, 25.10.22. /Кабар/.Президент Кыргызстана Садыр Жапаров ознакомился с ходом строительства железной дороги Балыкчы-Кочкор-Кара-Кече.Генеральный директор государственного предприятия «Национальная компания «Кыргыз темир жолу» Азамат Сакиев проинформировал главу государства о текущих работах по строительству участка железной дороги Балыкчы-Кочкор, проводимых близ города Балыкчы Иссык-Кульской области.До конца текущего года планируется завершить прокладку 5 км путей, на настоящий момент работы завершены на 85% — земляное полотно подготовлено на участке 4,5 км, уложены рельсы длиной 3,7 км. Ведутся также переговоры по привлечению зарубежных инвестиций.Президент, проинспектировав ход строительства, поручил не сбавлять темпы работ, в тоже время соблюдая требуемые стандарты качества.Далее глава государства осмотрел готовящееся к запуску предприятие по производству железнодорожных шпал, расположенное в Кеминском районе Чуйской области.Работы по возведению предприятия были начаты в мае текущего года. В ноябре планируется завершить установку всего необходимого оборудования, а в декабре уже начать выпуск шпал высокого качества. Ожидаемая производственная мощность — 6-8 тысяч штук шпал в месяцПродукция предприятия позволит покрывать потребности внутреннего рынка в шпалах, в том числе при строительстве железной дороги Балыкчы-Кочкор-Кара-Кече.Ранее в стране при ремонте железнодорожных путей поставки материалов велись из-за рубежа, теперь же при ремонте и строительстве появится возможность использовать шпалы отечественного производства. Это в свою очередь скажется и на снижении цен. В планах у предприятия также и выходить на зарубежные рынки, экспортировать свою продукцию — шпалы, в третьи страны.Садыр Жапаров напомнил о большой значимости реализации национального проекта строительства железной дороги Балыкчы-Кочкор-Кара-Кече, имеющего важное социально-экономическое значение для всей страны.При реализации проекта железнодорожным маршрутом будут соединены северная и южная части страны через дальнейшую прокладку железной дороги в Джалал-Абадскую область.В перспективе планируется соединить железную дорогу по маршруту Балыкчы-Кочкор-Кара-Кече с проектируемой железной дорогой Китай-Кыргызстан-Узбекистан.Кроме того, со строительством железной дороги Балыкчы-Кочкор-Кара-Кече создается наименее затратный путь транспортировки угля из месторождения Кара-Кече, который обеспечивает население регионов и ТЭЦ города Бишкек топливом в осенне-зимний отопительный период.Напомним, что это первая стройка железнодорожных путей в Кыргызстане за годы независимости.</t>
   </si>
   <si>
     <t>Бишкек, 26.10.22 /Нуркыз Сабырова — Кабар/.Китайские рынки готовы наращивать импорт меда, алкогольной и молочной продукции из Кыргызстана. Этот вопрос был обсужден сегодня на встрече директора Национального агентства по инвестициям Умбриэля Темиралиева с советником отдела по торгово-экономическим вопросам посольства КНР в КР Ли Юе.По данным пресс-службы Нацагентства, основная тема разговора касалась активизации динамики торгово-экономических отношений между предпринимателями Китая и Кыргызстана.Темиралиев обозначил, что цель агентства — последовательно наращивать масштабы торговых отношений, стимулировать сбалансированное развитие взаимовыгодного двустороннего торгово-экономического сотрудничества, а также увеличить экспорт кыргызской продукции на рынок Китая.Ли Юе отметил, что китайские рынки уже знакомы с кыргызской продукцией, и они пользуются спросом, поэтому их компании заинтересованы во взаимном сотрудничестве.По итогам переговоров стороны сошлись во мнении о необходимости создания площадок, где предприниматели смогут ознакомиться с продукцией Кыргызстана, обсудить вопросы создания совместных предприятий и найти взаимовыгодные пути решения.</t>
@@ -364,124 +484,187 @@
     <t>Бишкек, 27.10.22. /Кабар/.Торага Жогорку Кенеша Нурланбек Шакиев встретился с председателем Сената Олий Мажлиса Узбекистана Танзилой Нарбаевой на площадке Межпарламентской Ассамблеи государств-участников Содружества Независимых Государств (МПА СНГ) в городе Самарканде (Узбекистан).Как сообщает пресс-служба ЖК КР, в ходе встречи стороны обсудили актуальные вопросы двустороннего сотрудничества и межпарламентского взаимодействия.Шакиев подчеркнул, что развитие дружественных и добрососедских отношений с Узбекистаном являются одним из приоритетных направлений внешнеполитической деятельности Кыргызстана.«Благодаря сложившимся тесным и доверительным контактам, прямому и регулярному диалогу на всех уровнях, за последние годы наблюдается значительная положительная динамика в развитии двусторонних связей», - сказал он, остановившись на позитивных событиях кыргызско-узбекского сотрудничества, обоюдных визитах и совместных мероприятиях.Кроме того, торага в своей речи касаясь вопроса межпарламентского сотрудничества с Узбекистаном, обозначил важность его дальнейшего расширения. «В данном контексте предлагаю активизировать проведение очередного заседания Межпарламентской комиссии по сотрудничеству между Жогорку Кенешем и Олий Мажлисом в ближайшее время, а также взаимных визитов парламентских делегаций, депутатских групп дружбы двух стран», - отметил Шакиев.В завершении торага Жогорку Кенеша выразил готовность кыргызской стороны к совместной работе по созданию благоприятных условий для доступа товаров и услуг на рынок двух стран в целях увеличения двустороннего товарооборота до 2 млрд долларов США.В свою очередь, председатель Сената Олий Мажлиса Узбекистана Танзила Нарбаева поздравила Нурланбека Шакиева в связи с избранием на должность тораги Жогорку Кенеша, пожелала успехов на ответственном посту и пригласила посетить Узбекистан с официальным визитом.Нарбаева подчеркнула высокий уровень кыргызско-узбекского сотрудничества, основанного на схожих культурно-духовных ценностях и принципах дружбы, добрососедства и стратегического партнерства, а также рассказала о первых шагах, предпринимаемых для реализации проекта по строительству железной дороги Китай – Кыргызстан – Узбекистан. «В частности, является необходимым, при содействии парламентариев добиться новых ощутимых результатов, прежде всего, в рамках реализации двусторонних договоренностей на высшем уровне, обеспечив их правовую основу. Важную роль в этом направлении должна сыграть Межпарламентская комиссия по сотрудничеству между Олий Мажлисом и Жогорку Кенешем», - сказала она.</t>
   </si>
   <si>
-    <t>Бишкек, 25.10.22. /Индира Камчыбекова - Кабар/.Председатель кабмина Акылбек Жапаров подписал постановление о некоторых вопросах перевозки угля, от 24.10.22 г. №581.Согласно документу, в соответствии со статьями 29, 47 Договора о Евразийском экономическом союзе от 29 мая 2014 года, статьями 13, 17 конституционного Закона КР «О Кабинете Министров КР» кабмин постановляет:1. Ввести временный запрет сроком на шесть месяцев на вывоз угля (классифицируемого кодами 2701 и 2702 ТН ВЭД ЕАЭС) с территории Кыргызстана автомобильным транспортом (за исключением пунктов пропуска на кыргызско-китайской государственной границе «Иркештам автодорожный» и «Торугарт автодорожный»).2. Министерству экономики и коммерции КР не позднее трех дней с даты вступления в силу настоящего постановления в установленном порядке уведомить Всемирную торговую организацию и Евразийскую экономическую комиссию о введении временного запрета, указанного в пункте 1 настоящего постановления.3. Министерству иностранных дел КР не позднее трех дней с даты вступления в силу настоящего постановления в установленном порядке уведомить Исполнительный комитет Содружества Независимых Государств о введении временного запрета, указанного в пункте 1 настоящего постановления.4. Министерству транспорта и коммуникаций КР, Государственной таможенной службе при Министерстве финансов КР и Пограничной службе Государственного комитета национальной безопасности КР принять необходимые меры, вытекающие из пункта 1 настоящего постановления.5. Контроль за исполнением настоящего постановления возложить на управление контроля исполнения решений президента и кабинета министров администрации президента КР.6. Настоящее постановление вступает в силу по истечении трех дней со дня официального опубликования.</t>
-  </si>
-  <si>
-    <t>В интернете появились записи закулисных переговоров, на которых задержанные накануне «оппозиционеры» обсуждают вопросы организации массовых акций гражданского неповиновения. Причем обсуждаются детали не только готовящихся митингов, но и действий в информационном пространстве. То есть речь идет о плане действий насильственного и идеологического характера, которые могут привести к дестабилизации общественно политической обстановки в Кыргызстане. И что же это - демократия или заговор?Этим вопросом задался и вице-премьер Эдиль Байсалов. Пришел он к следующему выводу: «Здесь бывший председатель ГКНБ Дуйшебаев ясно дает понять, что цель — переворот. Он говорит: «Либо мы посадим, либо нас»».Байсалов считает, что это заговор против демократии. «Это покушение на Конституцию и народ. Просто факт покушения на демократию налицо. И то, что вы тут в их поддержку собираете, ничего общего со свободой слова не имеет», - поделился своим мнением в интернете зампред правительства.Отреагировал на последние события и Феликс Кулов, позиция которого оказалась традиционно размыта, многословными реверансами как в одну, так и в другую сторону. Тем не менее, бывший премьер-министр сделал несколько важных акцентов:1. «Скажу откровенно, не все члены данного комитета у меня вызывают симпатии, некоторых я считаю откровенными популистами, пытающимися на протестной волне решать свои меркантильные интересы. Фамилии называть не буду, так как не хочу потом тратить свое время и отвечать на их судебные иски».2. «Другого пути нет и не может быть, и я первый выступлю против любого, кто будет призывать ко всяким революциям и переворотам. Более того, при всем моем уважении к отдельным оппозиционерам, но, немножко разбираясь в политике и немножко зная настроения людей, уверено заявляю: сегодня никто не пойдет ради них на баррикады».3. «Любая революция - переворот в нынешних условиях глобального кризиса, сложной геополитической ситуации - приведет к разрушению нашей страны, потере государственности, полному обнищанию народа. Все процессы смены власти должны происходить цивилизованным путем, в соответствии с Конституцией».Если называть вещи своими именами, то подстрекательства к массовым беспорядкам могут привести к тому, что Кыргызстан потеряет все. В один момент можно лишиться всего, что нарабатывалось годами и десятилетиями.Схожего мнения придерживается политолог Марс Сариев. «Активистов и сектор НПО внешние силы использовали как «торпеды», а Кемпир-Абад использовали как болевую точку. Цель их заключается в том, чтобы рассорить Кыргызстан с Узбекистаном. Создать напряженную ситуацию, чтобы вопросы границ остались нерешенными. В дальнейшем это, конечно, могло бы застопорить проект по строительству железной дороги Китай — Кыргызстан — Узбекистан, которая сильно меняет геополитическую ситуацию в нашем регионе. Есть геополитические игроки, которые заинтересованы в срыве этого проекта и создании очагов нестабильности в Центрально-Азиатском регионе. То есть к кыргызско-таджикскому приграничному конфликту добавляется еще одна точка нестабильности.Второй акт «Марлезонского балета» может состоять в том, чтобы используя как предлог аресты активистов и блогеров, попытаться раскачать протестный электорат. Таким образом, в преддверии зимы, пока позволяет погода, был план дестабилизировать Кыргызстан, совершить переворот. Я далек от мысли, что задержанные фигуранты дела о массовых беспорядках на самом деле смогли бы раскачать ситуацию и совершить захват власти. Их использовали втемную, под соусом патриотической риторики. Я считаю, что было ожидание у внешних драматургов того, что аресты создадут вокруг задержанных образ мучеников, и это можно будет использовать как фактор для дальнейшей дестабилизации», - полагает Марс Сариев.Кирилл Степанюк</t>
+    <t>Бишкек, 03.10.22. /Кабар/.На заседании Комитета по аграрной политике, водным ресурсам, экологии и региональному развитию рассмотрен вопрос по стабилизации цен на продукты питания первой необходимости.Как сообщает пресс-служба парламента, информацию представил заместитель председателя службы Антимонопольного регулирования Женалы Орозбаев.Он отметил, что со стороны Антимонопольной службы принимаются меры по сдерживанию цен на социально значимые товары, осуществляется мониторинг цен на продовольственные товары первой необходимости, проводятся разъяснительные работы с реализаторами о недопустимости необоснованного повышения цен на социально значимые товары. Также докладчик рассказал о ходе проверок субъектов предпринимательства по вопросам контроля за соблюдением антимонопольного законодательства в рамках своих полномочий.Говоря о причинах резкого роста цен на продовольствие, Ж.Орозбаев подчеркнул, что это в первую очередь связано с международной ситуацией, повлекшей экономический кризис.В ходе обсуждения депутаты выразили обеспокоенность сложившейся ситуацией на рынке и указали на недостаточные меры службы Антимонопольного регулирования по борьбе со спекулятивным ростом цен на основные продукты питания.Так, председатель комитета Аманкан Кенжебаев раскритиковал работу правительства по обеспечению продовольственной безопасности и поднял вопрос о целесообразности существования Антимонопольной службы, которая не имеет реальных рычагов воздействия на ценовую политику, а занимается лишь сбором статистических данных.«Если нет соответствующих полномочий, контрольных функций, зачем держать такую службу, выплачивать зарплату? Пришедший на заседание заместитель председателя Антимонопольной службы не знает, по какой цене закупается свекла, отвечает, что по 5 сомов. Он также не осведомлен, когда начнет работать завод «Каинды – Кант», хотя он уже работает. Я только вчера встретился с фермерами, с работниками завода, на свеклоприемных пунктах закупочная стоимость свеклы составляет 6 сомов 3 тыйына. Также завод уже как 15-20 дней перестал перерабатывать сахарный тростник, как рассказывает докладчик, и перепрофилируется на переработку свеклы», - сказал А.Кенжебаев.Также депутат Султанбай Айжигитов призвал кабинет министров пересмотреть подход к государственной политике по развитию экономики и принять безотлагательные меры по ее стабилизации. «Вы пустили экономику на самотек, на протяжении последних двух лет я поднимаю вопрос о необходимости внедрения центрального планирования с учетом рыночных механизмов по типу китайской экономической модели», - отметил С.Айжигитов.</t>
+  </si>
+  <si>
+    <t>Бишкек, 11.10.22 /Кабар/.Первый заместитель председателя кабинета министров КР Адылбек Касымалиев встретился с членами Советом директоров Азиатского банка развития (АБР), сообщили в пресс-службе кабмина.В ходе встречи стороны обсудили перспективы реализации проектов в следующих направлениях сотрудничества: транспорт, энергетика, поддержка частного сектора, цифровизация, зеленая экономика и развитие человеческого капитала.Адылбек Касымалиев отметил, что время диктует нам принимать быстрые и действенные меры для развития страны.“Для смягчения негативного влияния вызовов и рисков на Кыргызскую Республику были разработаны Антикризисный план и План работы кабинета министров КР на 2022 год. За январь-сентябрь 2022 года наблюдается положительный тренд экономического роста на уровне 7,2%. Кабинетом министров пристально контролируются показатели бюджетной устойчивости”,- сказал Адылбек Касымалиев, добавив, что одной из приоритетных задач кабмина является всестороннее экономическое развитие регионов страны, в особенности Баткенской области.В свою очередь, Советом директоров АБР было отмечено, что для финансирования будут рассматриваться следующие основные приоритетные направления: снижение бедности, поддержка частного сектора, вопросы изменения климата, транспорт, энергетика, качественное государственное управление и региональное сотрудничество.Совет директоров АБР также отметил, что в краткосрочной перспективе рисками для Кыргызской Республики являются последствия пандемии COVID-19, инфляция, кризис в Украине и приграничный конфликт.Стороны также обсудили реализацию крупных проектов, запущенных в Кыргызской Республике, в частности строительство Камбар-Атинской ГЭС-1, проект железной дороги «Китай - Кыргызстан - Узбекистан».</t>
+  </si>
+  <si>
+    <t>Бишкек, 12.10.22. /Кабар/.Федерация Го Кыргызстана приглашает всех желающих участвовать в открытом фестивале «Asian Go Fest», который будет проходить 22-23 октября на площадке в Центральном Кампусе МУК (Льва Толстого 17а/1).Игра Го – это лучший тренажер стратегического и креативного мышления, в котором задача обоих игроков – захватить камнями большую территорию, чем у соперника. Игра направлена на стратегию и поэтому активно используется в кругу бизнесменов, IT-специалистов, политиков и даже киберспортсменов.Как сообщили в Кыргызской федерации Го, в мероприятии примет участие около 200 человек из разных клубов Го Кыргызстана. Также ожидается более чем 1 тыс. гостей на культурно-развлекательной программе турнира, среди которых будут блогеры, предприниматели и партнеры.Всех гостей ждет интересная программа 23 октября с 11:00 до 18:00 в Центральном Кампусе МУК.Мастер-классы и призовые конкурсы:• Китайская чайная церемония и Каллиграфия• Аниме-шопы, зона с игровыми приставками и настольными играми• Шоу представления от мастеров Го• Мини-турниры для начинающих и шоу-турнир для партнеров «Кубок Императора»</t>
+  </si>
+  <si>
+    <t>Ташкент, 11.10.22. /Толонбай Курбанов – Кабар/. Президент Узбекистана Шавкат Мирзиёев в понедельник в ходе презентации проекта «Узавтопрома» поручил ускорить развитие электромобильной отрасли и расширение обслуживания электромобилей, сообщило информагентство УзА.По его словам, электромобили стремительно входят в повседневную жизнь населения, потому что есть спрос, расходы, связанные с эксплуатацией таких автомобилей, меньше, сервис обходится дешевле. «Самое главное, наши люди предпочитают их. Поэтому нам необходимо обеспечить население доступными, малозатратными, современными электромобилями, - сказал Шавкат Мирзиёев.Глава государства поручил создать предприятия совместно с иностранной компанией, имеющей опыт работы в этой сфере, и организации производства популярных моделей электромобилей. Обратил особое внимание на то, чтобы электромобили были доступны по цене.Поставлена ​​задача по расширению сети пунктов сервисного обслуживания электромобилей. В частности, установить в ближайшие два года две тысячи зарядных станций на парковках, топливных заправках и трассах, которым будут применяться различные льготы.Подчеркнута важность подготовки специалистов для отрасли. Представлены планы по организации научной лаборатории электромобилей в Туринском политехническом университете, повышению квалификации преподавателей и специалистов в Китае, Германии, США, Южной Корее и других странах.Напомним, в Стратегии развития Узбекистана в 2022-2026 годах определены цели по переходу к «зеленой» экономике, в том числе по производству электромобилей. На совещании в феврале текущего года, главой государства были даны конкретные указания по данному направлению.Сегодня в Ташкенте курсируют 20 электробусов китайского производства. В следующем году планируется привезти еще 200 электробусов в столицу и 100 в Самарканд.По данным Госкомстата Республики, за первые восемь месяцев 2022 года Узбекистан импортировал из-за рубежа 1 499 электромобилей. В текущем году импорт электромобилей вырос на 1 003 единицы по сравнению с соответствующим периодом 2021 года. Узбекистан импортировал наибольшее количество электромобилей за январь-август текущего года из Китая (1,3 тыс.), ОАЭ (110), Германии (34), Гонконга (30) и из других стран (19).</t>
+  </si>
+  <si>
+    <t>Бишкек, 11.10.22. /Кабар/.Ученые из университета Тонцзи в Шанхае создали датчик респираторных вирусов, который можно устанавливать на лицевых масках. Исследование было опубликовано в известном журнале по материаловедению Matter, передает Республиканский штаб.Чтобы испытать свой датчик ученые подвесили его в камере, а затем разбрызгали в воздух капли воды с вирусными белками COVID-19, свиного и птичьего гриппа.«Датчик фиксирует даже малые доли микролитра воды с патогенами – то есть в десятки раз меньше, чем зараженный человек обычно выделяет при кашле», - говорится в сообщении.В установленное приложение будет посылаться сигнал тревоги. Получив такой сигнал, владелец маски сможет вовремя покинуть «заразную компанию».</t>
+  </si>
+  <si>
+    <t>В этом году Кыргызстан и Китай отмечают 30-летие установления дипломатических отношений между странами. За этот период отношения между Кыргызстаном и Китаем, вышедшим на позицию второй экономики мира, обрели новый уровень стратегического партнерства.В первую очередь между странами были полностью решены пограничные вопросы. Учитывая, что у Китая самые протяженные в мире границы и самое большое количество соседей, путем переговоров Китай завершил демаркацию с 12 из 14 сухопутных соседей, включая Кыргызстан.Китай настаивает на том, что все страны мира равны независимо от того, большие они или маленькие, сильные или слабые, богатые или бедные. Иначе говоря, политика Китая направлена на мирное и созидательное развитие. Практическим подтверждением является инициатива «Один пояс – один путь», направленная на сотрудничество, совместное процветание и получение выгоды всеми странами вдоль пути.К примеру, совокупный объем торговли между Китаем и странами, входящими в инициативу «Один пояс - один путь», составляет 12 триллионов долларов США, а прямые инвестиции в страны вдоль пути превысили 160 миллиардов долларов США. Китайские предприятия инвестировали более 43 млрд долларов США в парки торгово-экономического сотрудничества в странах вдоль маршрута.Подробно о внешней политике Китая и в частности об отношениях с Кыргызстаном в ходе гостевой лекции в дипломатической академии МИД КР рассказала Чрезвычайный и Полномочный посол КНР в Кыргызстане Ду Дэвэнь.По ее словам, когда председатель КНР Си Цзиньпинь выступил с инициативой «Один пояс - один путь» и единой судьбы Китая и человечества, которые стали важными международными и общественными проектами, привлекающими внимание международного сообщества, Кыргызстан стал одной из первых стран, кто поддержал данную инициативу и активно принял в ней участие.«Китай проводит мирную, самостоятельную внешнюю политику, придерживаясь пути мирного развития, стремится строить мир во всем мире и является защитником мирового порядка. Сформировалась идея. Идеи дипломатии имеют очень богатое содержание. Среди которых — всегда придерживаться концепции созидания единой судьбы человечества с целью поддержания мира во всем мире и стимулирования общего процветания, придерживаться пути мирного развития на основе взаимного уважения и совместного выигрыша на основе равноправия и справедливости. Китай выступает и придерживается пути мирного развития, уважает право всех стран самостоятельно выбирать пути развития и выступает против притеснения слабых сильными и вмешательства во внутренние дела других стран», - сообщила Ду Дэвэнь.15 сентября на полях саммита ШОС в Самарканде представители Китая, Кыргызстана и Узбекистана подписали документ по строительству железной дороги Китай — Кыргызстан — Узбекистан. Идея строительства дороги возникла более 20 лет назад. По оценкам экспертов, этот проект станет новым флагманом азиатско-европейских транснациональных торговых путей, который поможет Кыргызстану выявить и реализовать транзитный потенциал страны, параллельно получив доступ к морю.«Народы Кыргызстана и Китая веками живут по соседству. Древний Шелковый путь свидетельствует о традиционной дружбе между народами наших двух стран. За 30 лет, благодаря общим усилиям обеих стран, китайско-кыргызские отношения выдержали все испытания и международные изменения и добились динамичного развития и вышли на высокий уровень всестороннего стратегического партнерства. Китай и Кыргызстан стали по-настоящему добрыми соседями, хорошими друзьями и надежными партнерами», - добавила посол.Стоит добавить, что две страны подписали десятки двусторонних договоров и соглашений, включая договор о добрососедстве, дружбе и сотрудничестве, а также совместную декларацию об установлении всестороннего стратегического партнерства, что заложило прочную правовую основу для развития двусторонних отношений.В июне 2019 года председатель Си Цзиньпинь совершил государственный визит в Кыргызстан и принял участие в саммите ШОС, что вывело кыргызско-китайские отношения на качественно новый уровень. В феврале текущего года президент Кыргызстана Садыр Жапаров посетил Китай, где принял участие в церемонии открытия зимних олимпийских игр в Пекине. В ходе этого визита Жапаров провел двустороннюю встречу с председателем Си Цзиньпинем.Лидеры двух стран выступили с совместным заявлением, в котором отражена позиция обеих сторон поддерживать друг друга и стремиться к общему развитию.Развивать добрососедские и экономические отношения — это наш единственно правильный выбор. В настоящее время между Китаем и Кыргызстаном не существует никаких нерешенных политических вопросов.«Китай твердо поддерживает путь развития Кыргызстана в соответствии с национальными интересами и поддерживает меры, предпринятые кыргызским правительством для защиты национальной независимости, суверенитета и безопасности. Китай выступает против вмешательства внешних сил во внутренние дела Кыргызстана», - заверила посол Ду Дэвэнь.Кроме того, Китай и Кыргызстан поддерживают тесное взаимодействие в рамках ШОС, ООН и других международных организаций.Согласно статистике КР, объем торговли между странами в текущем году составил 1 млрд 734 млн долларов США, что занимает одну треть от общего объема внешней торговли Кыргызстана, а совокупные инвестиции Китая в Кыргызстан превысили 4 млрд 600 млн долларов США.Мирлан Киизбаев</t>
+  </si>
+  <si>
+    <t>Подписание пакета из девяти совместных соглашений и договоров, запуск работы Межгоссовета как органа постоянного взаимодействия, открытие парка «Дружбы» и двух школ — таковы итоги государственного визита в Кыргызстан президента Азербайджана Ильхама Алиева. Как считают эксперты, Бишкек и Баку открыли новую страницу в своих взаимоотношениях, выведя их на качественно новый уровень и нацелив на достижение конкретных результатов.Садыр Жапаров встретил гостя у трапа, принимали его по высшему разряду с выстроенным как по линейке почетным караулом, исполнением гимнов и ковровыми дорожками. Таковы атрибуты государственного визита, имеющего наивысший статус, подчеркивающий важность не столько самих переговоров, сколько уровень межгосударственного диалога, степень его актуальности и востребованности для обеих сторон.Еще один красочный церемониал разворачивается на территории резиденции «Ала-Арча», перед началом переговоров и первым в истории отношений Кыргызстана и Азербайджана заседанием Межгоссовета. Присутствующие отмечают, что Садыр Жапаров и Ильхам Алиев общаются как добрые друзья, и это еще один показатель того, что между лидерами сложились доверительные отношение и взаимопонимание, что в значительной мере формирует как повестку двустороннего взаимодействия по ключевым направлениям, так и качество сотрудничества.«На встрече в узком формате мы уже обсудили многие важные вопросы нашего сотрудничества, отметили главные его направления, приоритеты и в рамках заседания Межгоссовета продолжим обсуждение.Говоря о торгово-инвестиционном сотрудничестве, хочу с удовлетворением отметить, что сегодня мы с Вами рассмотрели важную роль Кыргызско-Азербайджанского фонда развития, который должен стать катализатором ускорения и действенным механизмом привлечения азербайджанских инвестиций в Кыргызстан, реализации взаимовыгодных бизнес-проектов.Отрадно, что у нас есть понимание о необходимости увеличения товарооборота между нашими странами. Нынешний его уровень пока далек от потенциала. Мы приветствуем бизнес-сообщество Азербайджанской Республики на нашем рынке и открыты к дальнейшему партнерству. Мы гарантируем защиту инвесторов и готовы предоставить самые благоприятные условия», - подчеркнул в своем выступлении Садыр Жапаров.Итогом заседания Межгоссовета стало подписание девяти документов, открывающих новые горизонты сотрудничества между Кыргызстаном и Азербайджаном. Они касаются комплексного сотрудничества в самых разных сферах и призваны усилить двустороннее взаимодействие – в экономике и инвестициях, в дипломатической и культурно-гуманитарной сферах, сельском хозяйстве и вопросах экологии.В этом списке ключевое значение отводится Межгосударственному совету, работа которого запущена на постоянной основе, и создаваемому Кыргызско-Азербайджанскому фонду развития для финансирования инфраструктурных проектов. Садыр Жапаров, подводя итоги заседания, отметил, что удовлетворен его результатами. «В духе стратегического партнерства мы провели содержательные переговоры по актуальным вопросам двустороннего и многостороннего сотрудничества между нашими государствами, обменялись мнениями по вопросам международной и региональной тематики, представляющим взаимный интерес. Переговоры прошли в атмосфере полного взаимопонимания, открытости и доверия, которые характеризуют братские отношения между нашими государствами. Мы подтвердили неизменность курса на активизацию и расширение стратегического партнерства», - отметил президент Кыргызстана.О широком спектре тем, представляющих взаимный интерес, говорит важный момент, на котором акцентировал свое внимание президент Азербайджана Ильхам Алиев. «С вводом в эксплуатацию новой железной дороги Китай — Кыргызстан — Узбекистан — Каспий появятся возможности для увеличения грузооборота и снижения стоимости грузовых перевозок», - сказал он.Иначе говоря, Бишкек и Баку стали не только городами-побратимами, но и находятся в постоянном поиске новых сфер для развития взаимовыгодных партнерских отношений. О положительной динамике такого взаимодействия в эксклюзивном интервью ИА «Кабар» рассказал посол Кыргызстана в Азербайджане. «Что касается конкретных проектов и направлений сотрудничества, то есть договоренности и отдельные соглашения о том, что Баку поделится продвинутым опытом в сфере цифровизации; предоставит возможности своей весьма развитой транспортной логистики, спутников в космосе; предоставит квоты на обучение наших студентов в вузах Азербайджана, таких как Азербайджанская Дипломатическая Академия, Государственный аграрный университет в Гяндже и других вузах, увеличатся квоты в Военном институте. Посольство сейчас работает в указанных направлениях», - рассказал Кайрат Осмоналиев.Парк в южной части Бишкека, открытый Садыром Жапаровым и Ильхамом Алиевым после насыщено переговорного дня, как отметили сами президенты, становится символом крепнущей дружбы между двумя народами Кыргызстана и Азербайджана. Как растут деревья, так планомерно, размеренно и уверенно должны развиваться и отношения. Парк в ночном свете фонарей действительно производит впечатление, такими же яркими красками и позитивом должны быть наполнены партнерские и деловые контакты между Бишкеком и Баку. Сегодня на кыргызской земле я вновь вижу, что наше братство не на словах, а на деле», - резюмировал Ильхам Алиев.А еще в Бишкеке главы государств приняли участие в открытии двух общеобразовательных школ - имени Гейдара Алиева и Низами Гянджеви. Это важный шаг к воссозданию моста дружбы между двумя народами, когда прежние связи на протяжении десятков лет держались в основном на исторической памяти. Подрастающее поколение, изучив и переосмыслив прошлое, способно принять участие в формировании нового формата дружественных отношений с учетом современных реалий. А в уже ближайшее время взаимный настрой на позитив в отношениях между народами продемонстрируют творческие коллективы. Артисты Кыргызстана и Азербайджана станут участниками Дней культуры, которые пройдут в Бишкеке и Баку.Кирилл Степанюк</t>
+  </si>
+  <si>
+    <t>Ташкент, 20.10.22. /Толонбай Курбанов – Кабар/.Кыргызская делегация во главе декана факультета естествознания, туризма и аграрных технологий Ошского государственного университета, д.г.н., профессора Абдурашита Низамиева примет участие в l Международном форуме экотуризма «Xanabad wellnes-resort», который проходит 21-22 октября в Андижанской области. Об этом сегодня сообщили агентству «Кабар» в пресс-службе Министерства туризма и культурного наследия РУз.В состав делегации также вошли заведующий кафедрой экономической географии, отраслевой экономики и туризма, к.г.н., доцент Калыбек Самиев, заведующий кафедрой зоологии и экологии, к.б.н., доцент, Абдиманнап Абдыкааров, доцент кафедры зоологии и экологии, к.б.н., Болот Каримов, сотрудники кафедры физической географии, географии Кыргызстана и концепции современного естествознания Жазгул Жакыпова и Эленура Сапарбай кызы, а также студенты направления «туризм» ОшГУ Айжамал Жээнбекова, Гулжамал Маметкадырова, Салкынай Токторова и Нуржаз Талантбекова.Целью данного форума является информирование широкой общественности о чистом воздухе и природе региона, обмен опытом Андижанской области по вопросам охраны природы и сохранения экологии, выявление уникального потенциала, перспектив развития и возможностей города Ханабад в сфере туризма.Ожидается анализ с научной точки зрения, ознакомление с мнением экспертов отрасли по этому вопросу и разработка предложений и планов с целью дальнейшего увеличения потока туристов в Ханабад.Данный форум организуется в рамках исполнения постановления президента РУз. «О дополнительных мерах по диверсификации услуг внутреннего туризма», которое было принято 30 апреля 2022 года.Этот форум традиционно планируется проводить раз в два года в октябре. Форум имеет международный статус, и в этом году планируется участие ученых и профессоров из 7 зарубежных стран (Болгария, Польша, Китай, Индия, Казахстан, Кыргызстан и Россия), экспертов в области туризма.</t>
+  </si>
+  <si>
+    <t>Бишкек, 11.10.22. /Нуркыз Сабырова – Кабар/.Реализация второго этапа «Безопасного города» в Кыргызстане начнется после завершения судебного процесса. Об этом на пресс-конференции в агентстве «Кабар» сообщила заместитель министра цифрового развития Индира Шаршенова.По ее данным, на сегодня нарушение со стороны исполнителя второй фазы проекта рассматривается судом.«Там было нарушение срока реализации второго этапа проекта со стороны исполнителя. Эти процедуры рассматриваются в судебном процессе. Никто ни с кем не судится», — уточнила Шаршенова.Напомним, тендер на реализацию данного проекта в сентябре 2019 года выиграла китайская компания Shenzhen Sunwin Intelligent Co. Ltd. Согласно условиям торгов, до конца 2020 года в 17 городах и 73 населенных пунктах страны должны были установить 306 камер видеофиксации нарушений ПДД.Из-за пандемии коронавируса, исполнение соглашения было продлено до 18 июня 2021 года. Но компания-исполнитель опоздала и по новому сроку.</t>
+  </si>
+  <si>
+    <t>Бишкек, 07.10.22. /Кабар/.Председатель Верховного суда КР Замирбек Базарбеков встретился с Чрезвычайным и Полномочным послом Китайской Народной Республики в КР Ду Дэвэнь.В ходе встречи стороны обсудили о возможностях обмена опытом по вопросам применения цифровых технологий и искусственного интеллекта, а также другие аспекты возможного взаимодействия судебных систем двух государств.Замирбек Базарбеков в ходе встречи отметил, что уникальный опыт цифровизации права и правовых институтов КНР представляет одну из самых актуальных тем для исследования.Ещё в июне 2016 года в КНР было завершено создание системы «Умного суда» — полного цикла онлайн процессов, с прозрачностью всего процесса. Система «Умного суда» от компьютерного формата была расширена в мобильный формат. Суды КНР создали и активно совершенствуют и продвигают электронную судебную платформу «Мобильный микро-суд», которая использует функции распознавания лиц, удаленного аудио- и видео-фиксации, электронных подписей, демонстрации электронных доказательств, генерации электронного архива по делу, управление судебным процессом и другие. Всё это стало возможным благодаря использованию новых технологий как блокчейн, искусственный интеллект, и другие.Ду Дэвэнь выразила уверенность в дальнейшем правовом сотрудничестве между двумя странами, а также надежном сотрудничестве высших судов двух стран.В завершение встречи стороны подтвердили необходимость дальнейшего сотрудничества.</t>
+  </si>
+  <si>
+    <t>Бишкек, 08.10.22 /Кабар/.Председатель кабинета министров КР Акылбек Жапаров в рамках рабочей поездки в город Ош принял участие в кыргызско-российском инвестиционном форуме.Свое выступление глава кабмина начал со строк великого полководца и поэта Бабура.«Ты на чужбине - и забыт, конечно, человек! Жалеет только сам себя сердечно человек. В своих скитаниях ни на час я радости не знал! По милой родине скорбит извечно человек. Я уверен, что у каждого из вас перед глазами встал образ гонимого всеми бедами и ветрами несчастного изгнанника, нищего дервиша в лохмотьях и вы правы, потому что настолько сильна в этих стихах обездоленность и тоска по покинутой родине. Между тем, эти строки написаны человеком, у ног которого лежал весь полуостров Индостан, огромные пространства нынешних Пакистана и Афганистана. Человек этот обладал несметными богатствами, в числе которых был знаменитый на весь мир алмаз ,,Кохинур" - главное украшение короны британской империи. Имя этого человека Захиреддин Мухамед Бабур, основатель империи Великих Моголов», - отметил Акылбек Жапаров.Глава кабмина назвал неслучайной эту встречу, ведь именно на этой земле начинался блистательный путь нашего знаменитого земляка.«Мы живём в эпоху перемен, в которых не советовали жить древние китайцы. Наша встреча проходит во время тектонических сдвигов в мировой истории и геополитике. Мы живём, когда ломаются вековые устои и на смену старому приходит новый миропорядок. Да, это нелегко, это порой страшно, но это интересно, это новые возможности и новые пути. Это кризис, но кризисы - это двигатели истории и прогресса. Именно так и никак иначе мы должны смотреть на все, что происходит сейчас с нами и с миром», - сказал Акылбек Жапаров.Поэтическое начало своего выступления он объяснил тем, что когда перед Бабуром закрылись одни двери, он открыл другие.«Путь, который он указал пятьсот лет назад и сейчас является дорогой огромных возможностей. Перед нами перспективы неисчерпаемых рынков. Необходимо только отойти от устоявшегося евроцентризма и обратить внимание на Азию. Отсюда, с Оша, с Ферганской долины может начаться новое цивилизационное освоение и развитие не только Центральной, но и всей Азии. Развитие на принципах мира, взаимовыгодного сотрудничества и добрососедства. И роль большого российского бизнеса, пришедшего сюда с новым взглядом и с совершенно иными, чем прежде, в истории парадигмами, может оказаться очень перспективной и взаимовыгодной для наших стран и всей Евразии», - сказал председатель кабмина и призвал российских бизнесменов обратить внимание на возможности азиатского рынка.«Со своей стороны мы как перекрёсток, как место встречи трёх великих цивилизаций, сделаем все возможное для плодотворного взаимодействия и сотрудничества. Для этого у нас есть свое видение, есть открытость и есть политическая воля. Дело за вами», - заключил Акылбек Жапаров.Стоит отметить, что кыргызско-российской инвестиционный форум начал свою работу 7 октября в городе Баткене. Сегодня работа форума продолжается уже в городе Оше. В форуме принимают участие российские предприниматели.По итогам форума планируется подписание более чем 20 проектов.</t>
+  </si>
+  <si>
+    <t>Бишкек, 13.10.22. /Нуркыз Сабырова – Кабар/.Кыргызстан за 8 месяцев этого года экспортировал в страны Европы 57 тыс. 498 тонн каменного угля. Об этом сообщает Нацстатком.По данным ведомства, с января по август объем экспортных поставок вырос на 25%, что было достигнуто за счет продажи твердого топлива в Румынию, Польшу, Латвию и Чехию.В Румынию за указанный период было экспортировано 38 тыс.602 тонны каменного угля, что в совокупности составило 2 млн 228 тыс. долларов США. Это в среднем 57,7 долларов за 1 тонну.В Польшу осуществлена поставка 17 тыс. 109,9 тонны на сумму 887,7 тыс. доллара. В данном расчете 1 тонна обошлась в 51,8 доллара. Латвия закупила у Кыргызстана 1 тыс. 787 тонны каменного угля по средней цене 80 долларов за 1 тонну. По такой же стоимости экспортировано 20 тонн угля в Чешскую Республику. В прошлом году поставки в эти страны не осуществлялись.Максимальный объем данного вида топлива с января по август поставлен в Узбекистан — 313 тыс. 110,2 тонны по средней стоимости 31,7 доллара. Также Кыргызстан за восемь месяцев доставил уголь в Китай (более 9,5 тыс. тонны - по 28 долларов), Грузию (5 тыс.162,5 тонны – по 44 доллара) и Турцию (более 9 тыс. тонн – по 30 долларов).Добавим, министр энергетики Таалайбек Ибраев сегодня сообщил, что с 17 октября в стране будет действовать временный запрет на экспорт угля. Мера вводится для защиты внутреннего рынка.</t>
+  </si>
+  <si>
+    <t>Бишкек, 05.10.22. /Елена Цой – Кабар/.Новый посол Кыргызстана в Китае Актилек Мусаева и директор Национального агентства по инвестициям при президенте Кыргызской Республики Умбриэль Темиралиев обсудили вопросы привлечения инвестиций. Об этом сообщили в НАИ.Во время встречи посол отметила, что Кыргызстан заинтересован в развитии отношений с Китаем. «В настоящее время Китай и Кыргызстан связывают не только добрососедские отношения, мы являемся также надежными партнерами, кроме того Китай является инициатором ряда проектов в Кыргызстане», - отметила А. Мусаева.Стороны сошлись во мнении, что для увеличения инвестиций в Кыргызстан и наращивания экспорта необходимо решение ряда задач.«В первую очередь необходимо упрощение визового вопроса для инвесторов, создание совместных сельскохозяйственных и технопарков, а также упрощение процедуры получения юридического статуса и получения консультационных услуг в одном месте в возможно кратчайшие сроки», - говорится в сообщении.Глава Нацагенства по инвестициям и посол Кыргызстана в Китае договорились о взаимном сотрудничестве и создании площадок для бизнес-сообществ обеих стран.</t>
+  </si>
+  <si>
+    <t>Бишкек, 04.10.22 /Кабар/.Председатель кабинета министров КР Акылбек Жапаров представил коллективу центрального аппарата Министерства транспорта и коммуникаций исполняющего обязанности министра Тилека Текебаева.Глава кабмина отметил важность продолжения реализации начатых реформ в сфере транспорта.Он подчеркнул важность реализации крупных проектов, в том числе по строительству автомобильных дорог, железной дороги Балыкчы – Кочкор – Кара-Кече и Китай – Кыргызстан - Узбекистан.</t>
+  </si>
+  <si>
+    <t>Бишкек, 12.10.22. /Нуркыз Сабырова – Кабар/.В Бишкеке 11 октября состоялось первое заседание Кыргызско-Иранского бизнес-комитета, на котором были обсуждены возможности увеличения товарооборота с 80 млн до 200 млн долларов США. Об этом сообщила пресс-служба Торгово-промышленной палаты (ТПП КР).По ее данным, в нем приняли участие старший вице-президент ТПП КР и председатель комитета с кыргызской стороны Роман Касымов, а также председатель комитета с иранской стороны Казем Ширдел, представители министерств и бизнес-кругов двух стран.Иранская сторона выразила заинтересованность в Кыргызстане для инвестирования в сельское хозяйство, машиностроение, металлургию, горнодобывающую отрасль, а также в сотрудничестве в предоставлении инженерных и технических услуг. В дополнение к этому она готова рассмотреть вопрос введения безвизового режима для кыргызстанских предпринимателей сроком до 14 дней.Кыргызская сторона предложила пополнить этот список возможностями контрактного производства и бизнес-туризма по примеру немецкого проекта, реализуемого ТПП КР.«В рамках этого проекта предприниматели проходят стажировку в Германии и далее развивают производство по немецким технологиям в Кыргызстане. Кроме того, в связи с санкциями отечественный бизнес выразил интерес к поставкам российских аналогов горюче-смазочных материалов из Ирана», — добавили в ТПП.Стороны согласились, что для реализации намеченных планов необходимо прежде решить вопросы с банковскими переводами, а также логистикой через строительство железной дороги Китай—Кыргызстан—Узбекистан, которую можно продлить в сторону Ирана. В завершении встречи они договорились организовать поездку кыргызстанской делегации в Тегеран для более детального ознакомления с местной бизнес-средой.</t>
+  </si>
+  <si>
+    <t>Бишкек, 07.10.22. /Кабар/.Председатель кабинета министров КР Акылбек Жапаров принял участие в открытии дополнительного корпуса учебно-воспитательного комплекса школы-гимназии №20 в городе Бишкеке.«Сегодня мы открываем ещё одно прекрасное трехэтажное здание школы на 500 мест со спортивным залом, спортивной площадкой и другими необходимыми помещениями. Строительные работы были начаты 30 апреля текущего года. На строительство объекта было направлено 347 млн сомов, на техническое оборудование – 13,2 млн сомов. Я поздравляю детей, родителей и учителей с этим событием. Также я хочу поздравить учителей с прошедшим профессиональным праздником», - сказал Акылбек Жапаров.Глава кабмина отметил, что в 2005 году в столице с учетом пригородов насчитывалось более 1,1 млн человек, а в 2016 году Национальный статистический комитет констатировал, что в самом городе проживает 1 млн человек. Одной из самых острых проблем являлся вопрос нехватки и загруженности школ, в связи с чем президент КР поставил перед кабинетом министров и мэрией города Бишкека задачу решить данный вопрос.«Построено 5 новых школ в жилых массивах, в остальных школах построены дополнительные корпуса, не уступающие новым школам. У нас были 2 аварийные школы - №75 и №76, сейчас уже функционируют новые школы. В 1950-1959 годы в городе Фрунзе было построено 11 школ, это был период индустриализации, мы эти времена связывали с Исхаком Раззаковым. А в 1960-1969 годы была построена 31 школа, это времена Турдакуна Усубалиева. В 2022 году мы построили в Бишкеке 15 школ и 1 детский сад в течение 5 месяцев. Думаю, когда-нибудь наши дети будут связывать эти времена уже с Садыром Жапаровым. Мы помним времена, когда в городе Бишкеке не было построено ни одной школы, например, в 2011, 2013, 2014, 2016, 2019 и 2020 годах. Самый большой пик демократического взрыва, самая большая внутренняя миграция и ни одной школы не было построено. У нас осталось построить еще 7 школ в жилмассивах, они будут построены в ближайшие годы. Хочу выразить благодарность строителям, которые за 5 месяцев построили нам новые школы», - сказал он.Акылбек Жапаров также подчеркнул, что более не будет повторяться практика, когда отдельные лица, желая набрать голоса избирателей перед выборами, лоббировали строительство школ в определенных местах.«Месторасположение школ будет определять Министерство образования и науки. От учителей мы просим предоставить качество образования, чтобы наши дети были конкурентоспособными, владели более чем 4 языками, в том числе хорошо владели государственным, официальным, английским, китайским и языком программирования. Мы ожидаем рождения 7-миллионного гражданина. Следовательно, каждый год необходимо строить новые школы для создания хороших условий детям для получения образования. Впереди у детей большое светлое будущее. Они будут жить в развитой стране», - заключил председатель кабинета министров.Справочно:В новом трехэтажном комплексе предусмотрено 20 учебных классов. Здание рассчитано на 500 ученических мест.На первом этаже здания расположены начальные классы, зал для хореографии, тренажерный зал площадью 285 квадратных метров и столовая. На втором этаже: начальные классы, актовый зал площадью 277 квадратных метров на 110 мест. На третьем этаже: предметные кабинеты и лаборатории. Общая площадь помещений – 5035 квадратных метров. На территории школы построены футбольное, баскетбольное и волейбольное поля, беговая дорожка и установлена воркаут-площадка.</t>
+  </si>
+  <si>
+    <t>Бишкек, 27.09.22. /Индира Камчыбекова - Кабар/.В Бишкеке в следующем году будут построены 5 транспортных развязок, сообщил директор Департамента транспорта и развития дорожно-транспортной инфраструктуры мэрии Максат Нусувалиев на заседании Комитета по транспорту, коммуникациям, архитектуре и строительству ЖК.Он отметил, что данный проект будет реализован за счет третьей фазы китайского гранта.«Развязки будут без светофоров, кольцевыми мостами. В настоящее время, эскизы, предоставленные «Бишкекглавархитектурой», согласовываются с китайской стороной. Их строительство начнется в марте 2023 года», - сообщил он.По его данным, в этом году в столице были построены 70 км автодорог за счет гранта Китая.</t>
   </si>
   <si>
     <t>Бишкек, 20.10.22. /Кабар/.Группа депутатов предлагает внести изменения в Конституции Кыргызстана и ввести смертную казнь за совершение преступлений против половой безопасности несовершеннолетних детей.Согласно документу, за 8 месяцев 2022 года следственными подразделениями ОВД республики зарегистрировано:– по фактам убийства, сопряженного с изнасилованием, насильственным удовлетворением половой страсти в иных формах – 1 факт (пункт 8 статьи 122 УК КР); в отношении несовершеннолетней в возрасте 14 лет – 1 факт; по фактам изнасилования – 35 фактов (части 3 и 4 статьи 154 УК КР), из них в отношении детей, не достигших 14-летнего возраста – 15 фактов; от 14 до 18 лет – 20 фактов; по фактам насильственного действия сексуального характера – 25 фактов (части 3 и 4 статьи 155 УК КР), из них в отношении детей, не достигших 14-летнего возраста – 16 фактов; от 14 до 18-лет – 9 фактов.Приведенная статистика показывает, что в настоящее время вопрос защиты детей является важным вопросом сохранения генофонда нации. Насилие над малолетними детьми из года в год имеет тенденцию увеличения, и на сегодняшний день большинство таких преступлений в Кыргызстане остается латентным.Принимая во внимание тот факт, что преступления против половой неприкосновенности ребенка имеют тенденцию к росту, калечат судьбы детей, их семей, данным проектом Закона предлагается предусмотреть в Конституции КР в качестве исключительной меры наказания - смертную казнь.В мире существуют страны, где до сегодняшнего дня применяется смертная казнь (например, Беларусь, Китай, Саудовская Аравия, Иран, Ирак, большинство штатов США и др.) и где в основных законах прописана норма, разрешающая применение смертной казни, но на практике не применяется (например, Россия, Казахстан, Южная Корея, Алжир, Нигер, Мали, Гайана, и др.).В порядке дополнительной информации можно сообщить то, что смертная казнь за педофилию осуществляется в Китае, Иране.Справка-обоснованиеИнициаторы: депутаты Жогорку Кенеша А.Түмөнбаев, Н.Нарматова, М.Самыйкожо, Т.Икрамов, Р.Жакышов, М.Мураталиев, С.Омурзаков, У.Ормонов, Ч.Султанбекова, Ж.Таалайбек кызы, И.Матраимов, А.Козуев, Ж.Абиров, А.Осмонов, К.Сулайманов, Н.Ражабалиев, А.Таштанбеков, А.Кенжебаев, О.Бакиров, Ж.Нурбаев, Ч.Ажибаев, Ф.Исмаилов, М.Сарбагышев, Н.Азыгалиев, Б.Түлөбаев, Ш.Атазов, М.Саккараев, А.Турсунбаев, Д.Толонов, Ы.Атажанов, Д.Жумабеков, У.Примов, Н.Сыдыгалиев, М.Темирбаева, А.Исатбек кызы, М.Маматалиев, Б.Сыдыков, Ш.Ташиев, Ш.Мажитова, Ж.Коргонбай уулу, Э.Сулайманов, Дж.Исаева, А.Маткеримов, Б.Шабазов, Э.Джусупов, Л.Лурова, В.Раимбачаева, К.Талиева, К. Ханджеза, М.Сыдыков, Т.Масабиров, А.Боронбаев, М.Абдалиев, А.Эрбаев, А.Абдибаева, Э.Токтошев, Т.Сарыбашов, Б.Чойбеков, Д.Ашимова, Ж.Токторбаев, Г.Култаева.</t>
   </si>
   <si>
-    <t>Бишкек, 21.10.22. /Кабар/.Президент Кыргызстана Садыр Жапаров дал старт строительству Куланакской ГЭС, заложив капсулу под начало строительства ГЭС в селе Куланак Нарынской области.Глава государства в своей речи подчеркнул, что сегодняшнее событие - закладка первого камня и начало строительства Куланакской ГЭС, принесет пользу не только Нарынской области, но и в целом экономике и энергетике Кыргызстана.«Это один из важных шагов в истории, прокладывающий путь в будущее нашей энергетики. Поэтому разрешите поздравить вас всех с сегодняшним мероприятием!», - отметил президент.Садыр Жапаров подчеркнул, что руководство страны делает акцент на развитии экономики государства за счет строительства новых гидроэлектростанций.«Обеспечение энергетической независимости и безопасности страны – одна из наших главных задач. Конечно, мы прилагаем все усилия, чтобы эти цели не остались лишь на бумаге.При этом мы не забываем о вопросах сохранения и передачи будущим поколениям прекрасной природы, подаренной Творцом.В настоящее время мы изучаем различные направления развития возобновляемых источников энергии. Среди них особое внимание уделяется строительству малых ГЭС», - сказал он.Садыр Жапаров выразил уверенность, что благодаря гражданам, которые думают о будущем государства, народ Кыргызстана будет жить в достатке, с широкими возможностями для развития.«Государство оказывает посильную помощь и создает все условия для строительства. В будущем мы создадим еще больше условий», - сказал он.Далее Глава государства кратко рассказал о планируемой Куланакской ГЭС.«У нас есть цель возвести ГЭС мощностью 100 МВт. По завершению строительства и введения гидроэлектростанции в эксплуатацию, ожидается, что она будет производить 450 млн кВтч электроэнергии в год. Таким образом, вся Нарынская область полностью обеспечивается электроэнергией.По оценкам специалистов, в ходе строительства ГЭС, будет создано от 800 до 1000 рабочих мест. После завершения строительства и ввода объекта в полную эксплуатацию, около 100 человек получат постоянные рабочие места. Проект строительства данного объекта включает плотину высотой 27 метров, гидрошлюзы для отвода русла реки и отвода воды, деривационный канал протяженностью 6,5 км, здание электростанции с агрегатами, водозабор для орошения сельскохозяйственных угодий в айыльных аймаках Учкун, Жан-Булак, Эмгек-Талаа, Мин-Булак, Жерге-Тал Нарынского района, по реке Нарын», - сказал он.Президент обратил внимание местных жителей на то, что строительство ГЭС принесет огромную пользу в энергетике и хозяйственной сфере, а также даст возможность для орошения сельскохозяйственных угодий.«Со строительством Куланакской ГЭС улучшится обеспечение оросительной водой 5081 га сельскохозяйственных угодий в Учкунском и Сары-Ойском айылных аймаках. Кроме того, будет освоено 2100 га новых земель. Даст Бог, Куланакская ГЭС станет локомотивом гидроэнергетики Нарынской области. В связи с этим поручаю всем соответствующим государственным органам обратить особое внимание на преимущества объекта «Куланак», принять действенные меры и оказывать всемерную поддержку в оперативном решении вопросов строительства», - отметил Садыр Жапаров.Глава государства возложил на Министерство энергетики ответственность за безупречную и качественную реализацию проекта.«Имеется возможность построить на реке Нарын другие ГЭС на 2,5 тыс. МВт. Надеюсь, в ближайшем будущем мы построим множество средних и малых ГЭС. Уже два года мы закладываем капсулы под строительство многих объектов. Каждый проект завершается в срок. Этот объект, для строительства которого мы заложили капсулу сегодня, будет сдан в эксплуатацию через четыре года.Год подготовительных работ, потом три года строительства. Весной мы заклали капсулу на месте строительства Камбар-Атинской ГЭС. Мы рассчитываем завершить этот проект через 8 лет. Даже если мы закончим через 10 лет вместо 8, это будет большое дело», - заявил Президент.Садыр Жапаров отметил, что при завершении строительства Камбаратинской ГЭС, Кыргызстан станет независимой, полностью самодостаточной страной, которая не импортирует, а экспортирует электроэнергию.«Сейчас у нас дефицит в 3 млрд киловатт-часов электроэнергии в год. Мы стоим у истока воды, но, не пользуясь этим, за тридцать лет не построили ни одной ГЭС. Теперь начали строить. Мы используем только десять процентов всего потенциала. Если добавить еще процентов 90, то мы сможем продавать электроэнергию не только странам Средней Азии, но и в Европу и Китай. Даст Бог, до этого дойдем», - сказал он.Глава государства выразил надежду, что Куланакская ГЭС станет крупным промышленным предприятием, которое будет служить всему кыргызскому народу.«Пусть будет благословлен народ священного Тенир-Тоо, да будет мир на нашей земле и развивается наша страна», - завершил свою речь Садыр Жапаров.Отмечается, что общая стоимость проекта составляет 124 млн долларов США, из которых 88 млн долларов США, как кредитные средства будут предоставлены группой финансовых институтов, в том числе Российско-Кыргызским фондом развития и Евразийским банком развития.</t>
-  </si>
-  <si>
-    <t>Бишкек, 25.10.22. /Кабар/.Президент Кыргызстана Садыр Жапаров ознакомился с ходом строительства железной дороги Балыкчы-Кочкор-Кара-Кече.Генеральный директор государственного предприятия «Национальная компания «Кыргыз темир жолу» Азамат Сакиев проинформировал главу государства о текущих работах по строительству участка железной дороги Балыкчы-Кочкор, проводимых близ города Балыкчы Иссык-Кульской области.До конца текущего года планируется завершить прокладку 5 км путей, на настоящий момент работы завершены на 85% — земляное полотно подготовлено на участке 4,5 км, уложены рельсы длиной 3,7 км. Ведутся также переговоры по привлечению зарубежных инвестиций.Президент, проинспектировав ход строительства, поручил не сбавлять темпы работ, в тоже время соблюдая требуемые стандарты качества.Далее глава государства осмотрел готовящееся к запуску предприятие по производству железнодорожных шпал, расположенное в Кеминском районе Чуйской области.Работы по возведению предприятия были начаты в мае текущего года. В ноябре планируется завершить установку всего необходимого оборудования, а в декабре уже начать выпуск шпал высокого качества. Ожидаемая производственная мощность — 6-8 тысяч штук шпал в месяцПродукция предприятия позволит покрывать потребности внутреннего рынка в шпалах, в том числе при строительстве железной дороги Балыкчы-Кочкор-Кара-Кече.Ранее в стране при ремонте железнодорожных путей поставки материалов велись из-за рубежа, теперь же при ремонте и строительстве появится возможность использовать шпалы отечественного производства. Это в свою очередь скажется и на снижении цен. В планах у предприятия также и выходить на зарубежные рынки, экспортировать свою продукцию — шпалы, в третьи страны.Садыр Жапаров напомнил о большой значимости реализации национального проекта строительства железной дороги Балыкчы-Кочкор-Кара-Кече, имеющего важное социально-экономическое значение для всей страны.При реализации проекта железнодорожным маршрутом будут соединены северная и южная части страны через дальнейшую прокладку железной дороги в Джалал-Абадскую область.В перспективе планируется соединить железную дорогу по маршруту Балыкчы-Кочкор-Кара-Кече с проектируемой железной дорогой Китай-Кыргызстан-Узбекистан.Кроме того, со строительством железной дороги Балыкчы-Кочкор-Кара-Кече создается наименее затратный путь транспортировки угля из месторождения Кара-Кече, который обеспечивает население регионов и ТЭЦ города Бишкек топливом в осенне-зимний отопительный период.Напомним, что это первая стройка железнодорожных путей в Кыргызстане за годы независимости.</t>
-  </si>
-  <si>
-    <t>Бишкек, 28.10.22./Кабар/.Правительство Китайской народной республики вновь закрывает на карантин города в центральной и северо-западной части страны из-за новой вспышки COVID-19.По данным республиканского штаба КР, в Китае сообщили о том, что три дня подряд по всей стране регистрируется более 1 тыс. новых случаев COVID-19.Так, в городе Ухань, где впервые в мире выявили вспышку коронавируса в конце 2019 года, на этой неделе сообщили о 20-25 новых случаях заражения. За последние 14 дней в городе зарегистрировано 240 случаев. Местные власти приказали более 800 тыс. человек в одном районе оставаться дома до 30 октября.В Гуанчжоу, четвертом по величине городе Китая по объему экономического производства, опечатали еще больше улиц и кварталов, людям приказали оставаться в своих домах из-за того, что новые районы были признаны зонами повышенного риска в связи с активизацией вируса, которая продолжается уже четвертую неделю.</t>
-  </si>
-  <si>
-    <t>Бишкек, 24.10.22. /Кабар/.Состоялось онлайн заседание национальных координаторов программы Центральноазиатского регионального экономического сотрудничества (ЦАРЭС). Национальным координатором ЦАРЭС от Кыргызстана является заместитель министра экономики и коммерции КР Канат Абдрахманов.В данном виртуальном мероприятии приняли участие национальные координаторы программы ЦАРЭС и другие высокопоставленные должностные лица из 11 стран-членов ЦАРЭС, а также представители Азиатского банка развития и других партнеров по развитию.На заседании состоялся стратегический диалог между официальными лицами из стран-членов ЦАРЭС, посвященный дальнейшему укреплению программ и деятельности ЦАРЭС в будущем, в частности были рассмотрены следующие вопросы:- Рамочный документ на период после пандемии для «зеленого», устойчивого и инклюзивного восстановления;- Рамочный документ по сотрудничеству для развития сельского хозяйства и продовольственной безопасности в регионе ЦАРЭС;- Альянс «зеленой» энергии ЦАРЭС;- Тема и структура 21-й Министерской конференции ЦАРЭС.В своем выступлении Абдрахманов отметил особую актуальность и важность вопросов по улучшению уровня продовольственной безопасности, энергетической эффективности и увеличения мощностей всех видов возобновляемых источников энергии (ВИЭ), необходимость реализации региональных проектов в области охраны окружающей среды, инициатив по изменению климата.Справочно:Программа ЦАРЭС представляет собой партнерство 11 стран-участниц и партнеров по развитию как долгосрочная инициатива регионального сотрудничества для ускорения экономического роста и общего процветания региона ЦАРЭС.В число стран-участниц ЦАРЭС входят: Афганистан, Азербайджан, Китайская Народная Республика, Грузия, Казахстан, Кыргызская Республика, Монголия, Пакистан, Таджикистан, Туркменистан и Узбекистан.Программа ЦАРЭС достигает свои цели посредством реализации проектов технической помощи, поддержания диалога по вопросам проводимой экономической политики, продуктов и услуг в области знаний в пяти операционных кластерах:- экономическая и финансовая стабильность;- торговля, туризм и развитие экономических коридоров;- инфраструктура и экономическая связанность (транспорт и энергетика);- сельское хозяйство и водные ресурсы;- человеческое развитие (здравоохранение и образование).Вместе с тем, Программа ЦАРЭС охватывает вопросы по таким сквозным темам, как гендерная проблематика, информационно-коммуникационные технологии (ИКТ)и адаптация к изменению климата.Координирующим органом от КР в рамках Программы ЦАРЭС является Министерство экономики и коммерции КР.</t>
-  </si>
-  <si>
-    <t>Подписание пакета из девяти совместных соглашений и договоров, запуск работы Межгоссовета как органа постоянного взаимодействия, открытие парка «Дружбы» и двух школ — таковы итоги государственного визита в Кыргызстан президента Азербайджана Ильхама Алиева. Как считают эксперты, Бишкек и Баку открыли новую страницу в своих взаимоотношениях, выведя их на качественно новый уровень и нацелив на достижение конкретных результатов.Садыр Жапаров встретил гостя у трапа, принимали его по высшему разряду с выстроенным как по линейке почетным караулом, исполнением гимнов и ковровыми дорожками. Таковы атрибуты государственного визита, имеющего наивысший статус, подчеркивающий важность не столько самих переговоров, сколько уровень межгосударственного диалога, степень его актуальности и востребованности для обеих сторон.Еще один красочный церемониал разворачивается на территории резиденции «Ала-Арча», перед началом переговоров и первым в истории отношений Кыргызстана и Азербайджана заседанием Межгоссовета. Присутствующие отмечают, что Садыр Жапаров и Ильхам Алиев общаются как добрые друзья, и это еще один показатель того, что между лидерами сложились доверительные отношение и взаимопонимание, что в значительной мере формирует как повестку двустороннего взаимодействия по ключевым направлениям, так и качество сотрудничества.«На встрече в узком формате мы уже обсудили многие важные вопросы нашего сотрудничества, отметили главные его направления, приоритеты и в рамках заседания Межгоссовета продолжим обсуждение.Говоря о торгово-инвестиционном сотрудничестве, хочу с удовлетворением отметить, что сегодня мы с Вами рассмотрели важную роль Кыргызско-Азербайджанского фонда развития, который должен стать катализатором ускорения и действенным механизмом привлечения азербайджанских инвестиций в Кыргызстан, реализации взаимовыгодных бизнес-проектов.Отрадно, что у нас есть понимание о необходимости увеличения товарооборота между нашими странами. Нынешний его уровень пока далек от потенциала. Мы приветствуем бизнес-сообщество Азербайджанской Республики на нашем рынке и открыты к дальнейшему партнерству. Мы гарантируем защиту инвесторов и готовы предоставить самые благоприятные условия», - подчеркнул в своем выступлении Садыр Жапаров.Итогом заседания Межгоссовета стало подписание девяти документов, открывающих новые горизонты сотрудничества между Кыргызстаном и Азербайджаном. Они касаются комплексного сотрудничества в самых разных сферах и призваны усилить двустороннее взаимодействие – в экономике и инвестициях, в дипломатической и культурно-гуманитарной сферах, сельском хозяйстве и вопросах экологии.В этом списке ключевое значение отводится Межгосударственному совету, работа которого запущена на постоянной основе, и создаваемому Кыргызско-Азербайджанскому фонду развития для финансирования инфраструктурных проектов. Садыр Жапаров, подводя итоги заседания, отметил, что удовлетворен его результатами. «В духе стратегического партнерства мы провели содержательные переговоры по актуальным вопросам двустороннего и многостороннего сотрудничества между нашими государствами, обменялись мнениями по вопросам международной и региональной тематики, представляющим взаимный интерес. Переговоры прошли в атмосфере полного взаимопонимания, открытости и доверия, которые характеризуют братские отношения между нашими государствами. Мы подтвердили неизменность курса на активизацию и расширение стратегического партнерства», - отметил президент Кыргызстана.О широком спектре тем, представляющих взаимный интерес, говорит важный момент, на котором акцентировал свое внимание президент Азербайджана Ильхам Алиев. «С вводом в эксплуатацию новой железной дороги Китай — Кыргызстан — Узбекистан — Каспий появятся возможности для увеличения грузооборота и снижения стоимости грузовых перевозок», - сказал он.Иначе говоря, Бишкек и Баку стали не только городами-побратимами, но и находятся в постоянном поиске новых сфер для развития взаимовыгодных партнерских отношений. О положительной динамике такого взаимодействия в эксклюзивном интервью ИА «Кабар» рассказал посол Кыргызстана в Азербайджане. «Что касается конкретных проектов и направлений сотрудничества, то есть договоренности и отдельные соглашения о том, что Баку поделится продвинутым опытом в сфере цифровизации; предоставит возможности своей весьма развитой транспортной логистики, спутников в космосе; предоставит квоты на обучение наших студентов в вузах Азербайджана, таких как Азербайджанская Дипломатическая Академия, Государственный аграрный университет в Гяндже и других вузах, увеличатся квоты в Военном институте. Посольство сейчас работает в указанных направлениях», - рассказал Кайрат Осмоналиев.Парк в южной части Бишкека, открытый Садыром Жапаровым и Ильхамом Алиевым после насыщено переговорного дня, как отметили сами президенты, становится символом крепнущей дружбы между двумя народами Кыргызстана и Азербайджана. Как растут деревья, так планомерно, размеренно и уверенно должны развиваться и отношения. Парк в ночном свете фонарей действительно производит впечатление, такими же яркими красками и позитивом должны быть наполнены партнерские и деловые контакты между Бишкеком и Баку. Сегодня на кыргызской земле я вновь вижу, что наше братство не на словах, а на деле», - резюмировал Ильхам Алиев.А еще в Бишкеке главы государств приняли участие в открытии двух общеобразовательных школ - имени Гейдара Алиева и Низами Гянджеви. Это важный шаг к воссозданию моста дружбы между двумя народами, когда прежние связи на протяжении десятков лет держались в основном на исторической памяти. Подрастающее поколение, изучив и переосмыслив прошлое, способно принять участие в формировании нового формата дружественных отношений с учетом современных реалий. А в уже ближайшее время взаимный настрой на позитив в отношениях между народами продемонстрируют творческие коллективы. Артисты Кыргызстана и Азербайджана станут участниками Дней культуры, которые пройдут в Бишкеке и Баку.Кирилл Степанюк</t>
-  </si>
-  <si>
-    <t>Бишкек, 12.10.22. /Нуркыз Сабырова – Кабар/.В Бишкеке 11 октября состоялось первое заседание Кыргызско-Иранского бизнес-комитета, на котором были обсуждены возможности увеличения товарооборота с 80 млн до 200 млн долларов США. Об этом сообщила пресс-служба Торгово-промышленной палаты (ТПП КР).По ее данным, в нем приняли участие старший вице-президент ТПП КР и председатель комитета с кыргызской стороны Роман Касымов, а также председатель комитета с иранской стороны Казем Ширдел, представители министерств и бизнес-кругов двух стран.Иранская сторона выразила заинтересованность в Кыргызстане для инвестирования в сельское хозяйство, машиностроение, металлургию, горнодобывающую отрасль, а также в сотрудничестве в предоставлении инженерных и технических услуг. В дополнение к этому она готова рассмотреть вопрос введения безвизового режима для кыргызстанских предпринимателей сроком до 14 дней.Кыргызская сторона предложила пополнить этот список возможностями контрактного производства и бизнес-туризма по примеру немецкого проекта, реализуемого ТПП КР.«В рамках этого проекта предприниматели проходят стажировку в Германии и далее развивают производство по немецким технологиям в Кыргызстане. Кроме того, в связи с санкциями отечественный бизнес выразил интерес к поставкам российских аналогов горюче-смазочных материалов из Ирана», — добавили в ТПП.Стороны согласились, что для реализации намеченных планов необходимо прежде решить вопросы с банковскими переводами, а также логистикой через строительство железной дороги Китай—Кыргызстан—Узбекистан, которую можно продлить в сторону Ирана. В завершении встречи они договорились организовать поездку кыргызстанской делегации в Тегеран для более детального ознакомления с местной бизнес-средой.</t>
-  </si>
-  <si>
-    <t>Бишкек, 12.10.22. /Кабар/.Федерация Го Кыргызстана приглашает всех желающих участвовать в открытом фестивале «Asian Go Fest», который будет проходить 22-23 октября на площадке в Центральном Кампусе МУК (Льва Толстого 17а/1).Игра Го – это лучший тренажер стратегического и креативного мышления, в котором задача обоих игроков – захватить камнями большую территорию, чем у соперника. Игра направлена на стратегию и поэтому активно используется в кругу бизнесменов, IT-специалистов, политиков и даже киберспортсменов.Как сообщили в Кыргызской федерации Го, в мероприятии примет участие около 200 человек из разных клубов Го Кыргызстана. Также ожидается более чем 1 тыс. гостей на культурно-развлекательной программе турнира, среди которых будут блогеры, предприниматели и партнеры.Всех гостей ждет интересная программа 23 октября с 11:00 до 18:00 в Центральном Кампусе МУК.Мастер-классы и призовые конкурсы:• Китайская чайная церемония и Каллиграфия• Аниме-шопы, зона с игровыми приставками и настольными играми• Шоу представления от мастеров Го• Мини-турниры для начинающих и шоу-турнир для партнеров «Кубок Императора»</t>
-  </si>
-  <si>
-    <t>Бишкек, 24.10.22. /Эркеайым Таалайбекова – Кабар/.В Бишкеке подвели итоги международного благотворительного марафона «MBulak Kuz Demi 2022».Как сообщает пресс-служба столичной мэрии, в забеге приняло участие около 3 тыс. взрослых и 300 детей.«Участники забега преодолели дистанцию 5, 10, 21,1 и 42,2 км по трассе Аэропорт «Манас» — Бишкек, место старта и финиша – мемориальный комплекс «Аска-Таш». Кроме того, в рамках марафона прошел еще детский забег, в котором приняли участие дети с 3 до 15 лет. Отметим, самому юному участнику мероприятия было 2,5 года, а самому старшему – 76 лет», - говорится в сообщении.Уточняется, что по данным организаторов, на марафоне пробежали представители таких стран, как Кыргызстан, Россия, Австрия, Китай, Хорватия, Франция, Германия, Греция, Индия, Италия, Казахстан, Мексика, Монголия, Нигерия, Филиппины, Турция, США и ОАЭ. Кроме этого, около 40% участвующих составляют корпоративные участники из порядка 70-80 местных и зарубежных компаний.Напомним, в этом году марафон прошел под слоганом: «Вместе мы можем больше». 100 сомов с взносов каждого участника будут направлены в фонды по защите женщин, детей и подростков, а именно в общественный фонд «Оазис» и кризисный центр «Сезим».</t>
-  </si>
-  <si>
-    <t>Бишкек, 19.10.22. /Нуркыз Сабырова – Кабар/.К китайской компании Full Gold Mining, которая разрабатывает месторождение Иштамберди в Чаткальском хребте Джалал-Абадской области, имеется много претензий. Об этом сегодня на пресс-конференции в агентстве «Кабар» рассказал первый заместитель министра природных ресурсов, экологии и технологического надзора Канат Садыков.По его словам, на сегодня там работает специальная комиссия из специалистов Минздрава, Санэпидемстанции и Службы экологического надзора, которая выясняет причины утечки газа.«Есть постановление правительства, и есть положение, согласно которому при каждом несчастном случае со смертельным исходом создается специальная комиссия. Она проводит там работу. К компании много вопросов», — сообщил Садыков.Замминистра добавил, что после завершения работы комиссии информация о причине смерти сотрудников будет доведена до общественности. Он добавил, что на компанию Full Gold Mining ранее еще жаловались из-за того, что она не предоставляет сотрудникам надлежащие условия для труда и жилья.«За последние годы система государственного экологического контроля упала ниже нуля. Мы эту систему сейчас полностью восстанавливаем. Последние случаи показывают, что ранее Госэкотехинспекция осуществляла контроль не полностью», — заключил Садыков.Напомним, 11 октября, от отравления угарным газом на золотодобывающей шахте Full Gold Mining месторождения Иштамберды погибли два человека. Еще 11 были госпитализированы.</t>
-  </si>
-  <si>
-    <t>Бишкек, 13.10.22. /Нуркыз Сабырова – Кабар/.Кыргызстан за 8 месяцев этого года экспортировал в страны Европы 57 тыс. 498 тонн каменного угля. Об этом сообщает Нацстатком.По данным ведомства, с января по август объем экспортных поставок вырос на 25%, что было достигнуто за счет продажи твердого топлива в Румынию, Польшу, Латвию и Чехию.В Румынию за указанный период было экспортировано 38 тыс.602 тонны каменного угля, что в совокупности составило 2 млн 228 тыс. долларов США. Это в среднем 57,7 долларов за 1 тонну.В Польшу осуществлена поставка 17 тыс. 109,9 тонны на сумму 887,7 тыс. доллара. В данном расчете 1 тонна обошлась в 51,8 доллара. Латвия закупила у Кыргызстана 1 тыс. 787 тонны каменного угля по средней цене 80 долларов за 1 тонну. По такой же стоимости экспортировано 20 тонн угля в Чешскую Республику. В прошлом году поставки в эти страны не осуществлялись.Максимальный объем данного вида топлива с января по август поставлен в Узбекистан — 313 тыс. 110,2 тонны по средней стоимости 31,7 доллара. Также Кыргызстан за восемь месяцев доставил уголь в Китай (более 9,5 тыс. тонны - по 28 долларов), Грузию (5 тыс.162,5 тонны – по 44 доллара) и Турцию (более 9 тыс. тонн – по 30 долларов).Добавим, министр энергетики Таалайбек Ибраев сегодня сообщил, что с 17 октября в стране будет действовать временный запрет на экспорт угля. Мера вводится для защиты внутреннего рынка.</t>
-  </si>
-  <si>
-    <t>Состоявшаяся вчера попытка властей наладить диалог между активистами, жителями приграничных с Узбекистаном территорий и представители так называемой «оппозиции» (далее поясним, почему это определение сейчас следует кавычить), в значительной степени достигла своего результата. Заседание завершилось тем, что собравшиеся аксакалы, которые живут в непосредственной близости от Кемпир-Абадского водохранилища дали президенту бата (благословение), на заключение договора, который принесет стабильность и мир с соседями и соответствует национальным интересам Кыргызстана.Но это произошло только во второй половине мероприятия, когда собравшиеся увидели карты и получили исчерпывающую информацию о том, какая земля по результатам переговоров отходит Кыргызстану и каким образом теперь будет осуществляться совместное управление Кемпир-Абадским водохранилищем. Ну а в начале заседания отдельные представители из числе «вечно недовольных» пытались превратить важное заседание в цирк.Когда выступали президент Садыр Жапаров и глава ГКНБ Камчыбек Ташиев, демонстрировали спутниковые снимки, карты и давали подробные разъяснение, отдельные деятели из неправительственного сектора подскакивали, паясничали и кривлялись. На это удручающее зрелище, можно было бы и не обращать внимания, но разворачивалось оно в самом центре зала у всех на виду. Руководители страны несколько раз были вынуждены прерывать выступление и вежливо просить прекратить клоунаду. Увы, демонстрация пренебрежения к докладчикам и собравшимся повторялось и повторялось.Не подействовал даже тот аргумент, что плотина Кемпир-Абадского водохранилища будет управляться совместно, а граждане Кыргызстана будут иметь к нему свободный доступ, смогут там рыбачить и свободно использовать воду для полива. О каким ущербе интересам Кыргызстана может идти речь в таком случае? Если жители приграничья на встрече с президентом и главой ГКНБ поняли всю суть, то до «оппозиционеров» так ничего и не дошло.Было очевидно, что лица, совершавшие неадекватные поступки ни в чем даже не пытались разобраться. Им было не интересно, а на встречу, они пожаловали только для того, чтобы попытаться устроить балаган. Также и по итогам заседания в своих интервью отдельным СМИ они все переврали. Какие цели преследуются такими выходками, так называемой «оппозицией»?Интересное мнение на этот счет было высказано на состоявшемся сегодня в Бишкеке круглом столе «Итоги Астанинских саммитов. Роль Кыргызстана в региональных интеграционных процессах», организатором мероприятия выступил Центр экспертных инициатив «Ой ордо» в партнерстве с Международной ассоциацией ветеранов «Альфа». Участники этой встречи задались вопросами – «Как-то так получилось, что все наши «ура-патриоты» существуют на англо-саксонские гранты? Зачем сейчас разгоняют тему Кемпир-Абадского водохранилища?». Вот этот важный момент и есть причинна того, что определение «оппозиция» сейчас правильнее всего кавычить. Тем более в тех вопросах, которые касаются пограничного размежевания с соседями. Очевидно, что участие в этом процессе третьих заинтересованных лиц, может повлечь за собой серьезные проблемы.Неоспорим факт того, что если неким силам удастся сорвать подписание соглашение о делимитации границ между Кыргызстаном и Узбекистаном, то на карте Центральной Азии сохранятся несколько болевых точек, где между двумя народами могут возникать споры из-за земли и воды. В этих потенциальных очах напряженности даже незначительная провокация может создать серьезный конфликт. Кому нужен этот источник постоянной нестабильности?И еще несколько важных акцентов. Кто знает, какими могут быть последствия срыва договоренностей с Узбекистаном и пограничном размежевании? Как это отразится на реализации проекта железной дороги Китай-Кыргызстан-Узбекистан? Увы, и экономические последствия неадекватного поведения «оппозиции» могут оказаться для Кыргызстана очень неприятными.Лекарство от этого одно - не поддеваться на провокации сохраняя спокойствие и единство. В сложной международной обстановке это самое верное решение.Кирилл Степанюк</t>
-  </si>
-  <si>
-    <t>Бишкек, 27.10.22 /Кабар/.«Мы приветствуем появление нового шестистороннего формата на высшем уровне. Видим значительный потенциал в нашем межрегиональном сотрудничестве», — отметил президент Кыргызстана Садыр Жапаров выступая на первой встрече лидеров «Центральная Азия — Европейский Союз» в г. Астана (Республика Казахстан).В своем выступлении Глава государства подчеркнул, что в этом году исполнилось ровно 30 лет со дня установления двустороннего партнерства Кыргызской Республики с Европейским Союзом. На сегодняшний день взаимодействие охватывает практически все сферы и выходит на качественно новый уровень сотрудничества. В регионе Кыргызстан выступает за укрепление интеграции в Центральной Азии и прилагает для этого практические усилия.Садыр Жапаров напомнил, что последняя Консультативная встреча глав государств Центральной Азии в июле 2022 года в Чолпон-Ате показала, что у стран региона есть понимание того, что торгово-экономическое, энергетическое, транспортное и иные виды взаимодействия являются прочной основой обеспечения стабильности и безопасности всей Центральной Азии.По итогам данной встречи была принята «Концепция взаимодействия государств Центральной Азии в рамках многосторонних форматов», в соответствии с которой главы государств подтвердили свое твердое намерение развивать региональное сотрудничество, в том числе с Европейским Союзом. На Консультативной встрече был также подписан Договор о дружбе, добрососедстве и сотрудничестве в целях развития Центральной Азии в XXI веке.«Мы договорились развивать взаимоотношения на основе доверия, руководствуясь принципами взаимного уважения государственного суверенитета, территориальной целостности и нерушимости границ, урегулирования споров за столом переговоров, неприменения силы или угрозы силой, соблюдения основных прав и свобод человека, добросовестного выполнения международных обязательств и норм международного права», — добавил Глава государства.Он с удовлетворением отметил, что проведенный в прошлом году по инициативе кыргызской стороны Первый экономический форум Центральная Азия — Европейский Союз в Бишкеке был поддержан партнерами и очередное заседание запланировано в Казахстане весной следующего года.Отдельно Президент остановился на транзитном потенциале Центральной Азии. Кыргызстан, как страна, не имеющая выхода к морю, на сегодняшний день продолжает модернизацию важных транспортных артерий страны. Намечен крупный проект в области железнодорожного транспорта с участием соседних стран — строительство железнодорожной магистрали «Китай–Кыргызстан–Узбекистан».Садыр Жапаров акцентировал внимание на том, что Кыргызская Республика заинтересована в реализации в стране и других крупных инфраструктурных проектов в транспортной сфере. Это в значительной степени будет способствовать развитию как межрегионального торгово-экономического сотрудничества, так и внутри региона Центральной Азии.«С оптимизмом ожидаем итоги исследования со стороны Европейского банка реконструкции и развития устойчивых транспортных соединений между Европой и Центральной Азией. Планомерно продвигаемся в вопросах цифровизации. С Европейским Союзом на протяжении нескольких лет мы ведем эффективные проекты в данной области и готовы их продолжить. Это, в свою очередь, помогает нашим беспрецедентным мерам по борьбе с коррупцией на всех уровнях, что вкупе с экономическими реформами имеет благоприятный эффект для роста интеллектуальной активности и создания здоровой деловой среды в Кыргызстане», — отметил Глава государства.В своем выступлении Президент также подчеркнул, что Кыргызстан приветствует усилия международного сообщества, в том числе Европейского Союза, направленные на поддержку афганского народа в деле предотвращения гуманитарной катастрофы, которая может только усилиться с приходом морозов.Садыр Жапаров отметил важность продолжения региональных проектов Евросоюза по управлению границами, содействию торговле, борьбе с терроризмом, наркотиками и контрабандой. Важно, чтобы эта помощь была использована по своему прямому назначению. Со своей стороны, Кыргызстан, как традиционно дружественная Афганистану страна, придерживаясь принципа невмешательства во внутренние дела, заинтересована в стабильном и процветающем Афганистане. Кыргызская сторона всегда прилагала и будет прилагать усилия для установления мира и стабильности в этой стране. Все эти и другие актуальные вопросы возможно будет подробно обсудить в ходе запланированной встречи Спецпредставителей стран Центральной Азии и Европейского Союза по Афганистану, проведение которой запланировано в Кыргызстане.Вместе с тем Глава государства затронул проектно-программную деятельность Евросоюза.«В соответствии с Региональной индикативной программой до 2027 года наш регион получает поддержку Евросоюза в области прав человека, воды и энергетики, гражданского общества, укрепления мира и безопасности, цифровизации, деловой среды и повышения человеческого потенциала. Вместе с этим, мы приветствовали бы в регионе передовые европейские технологии, образование и экспертизу. Рассчитываем, что за политическим сближением наших регионов последует рост инфраструктурных проектов и инвестиций», — заключил Садыр Жапаров.</t>
-  </si>
-  <si>
-    <t>В этом году Кыргызстан и Китай отмечают 30-летие установления дипломатических отношений между странами. За этот период отношения между Кыргызстаном и Китаем, вышедшим на позицию второй экономики мира, обрели новый уровень стратегического партнерства.В первую очередь между странами были полностью решены пограничные вопросы. Учитывая, что у Китая самые протяженные в мире границы и самое большое количество соседей, путем переговоров Китай завершил демаркацию с 12 из 14 сухопутных соседей, включая Кыргызстан.Китай настаивает на том, что все страны мира равны независимо от того, большие они или маленькие, сильные или слабые, богатые или бедные. Иначе говоря, политика Китая направлена на мирное и созидательное развитие. Практическим подтверждением является инициатива «Один пояс – один путь», направленная на сотрудничество, совместное процветание и получение выгоды всеми странами вдоль пути.К примеру, совокупный объем торговли между Китаем и странами, входящими в инициативу «Один пояс - один путь», составляет 12 триллионов долларов США, а прямые инвестиции в страны вдоль пути превысили 160 миллиардов долларов США. Китайские предприятия инвестировали более 43 млрд долларов США в парки торгово-экономического сотрудничества в странах вдоль маршрута.Подробно о внешней политике Китая и в частности об отношениях с Кыргызстаном в ходе гостевой лекции в дипломатической академии МИД КР рассказала Чрезвычайный и Полномочный посол КНР в Кыргызстане Ду Дэвэнь.По ее словам, когда председатель КНР Си Цзиньпинь выступил с инициативой «Один пояс - один путь» и единой судьбы Китая и человечества, которые стали важными международными и общественными проектами, привлекающими внимание международного сообщества, Кыргызстан стал одной из первых стран, кто поддержал данную инициативу и активно принял в ней участие.«Китай проводит мирную, самостоятельную внешнюю политику, придерживаясь пути мирного развития, стремится строить мир во всем мире и является защитником мирового порядка. Сформировалась идея. Идеи дипломатии имеют очень богатое содержание. Среди которых — всегда придерживаться концепции созидания единой судьбы человечества с целью поддержания мира во всем мире и стимулирования общего процветания, придерживаться пути мирного развития на основе взаимного уважения и совместного выигрыша на основе равноправия и справедливости. Китай выступает и придерживается пути мирного развития, уважает право всех стран самостоятельно выбирать пути развития и выступает против притеснения слабых сильными и вмешательства во внутренние дела других стран», - сообщила Ду Дэвэнь.15 сентября на полях саммита ШОС в Самарканде представители Китая, Кыргызстана и Узбекистана подписали документ по строительству железной дороги Китай — Кыргызстан — Узбекистан. Идея строительства дороги возникла более 20 лет назад. По оценкам экспертов, этот проект станет новым флагманом азиатско-европейских транснациональных торговых путей, который поможет Кыргызстану выявить и реализовать транзитный потенциал страны, параллельно получив доступ к морю.«Народы Кыргызстана и Китая веками живут по соседству. Древний Шелковый путь свидетельствует о традиционной дружбе между народами наших двух стран. За 30 лет, благодаря общим усилиям обеих стран, китайско-кыргызские отношения выдержали все испытания и международные изменения и добились динамичного развития и вышли на высокий уровень всестороннего стратегического партнерства. Китай и Кыргызстан стали по-настоящему добрыми соседями, хорошими друзьями и надежными партнерами», - добавила посол.Стоит добавить, что две страны подписали десятки двусторонних договоров и соглашений, включая договор о добрососедстве, дружбе и сотрудничестве, а также совместную декларацию об установлении всестороннего стратегического партнерства, что заложило прочную правовую основу для развития двусторонних отношений.В июне 2019 года председатель Си Цзиньпинь совершил государственный визит в Кыргызстан и принял участие в саммите ШОС, что вывело кыргызско-китайские отношения на качественно новый уровень. В феврале текущего года президент Кыргызстана Садыр Жапаров посетил Китай, где принял участие в церемонии открытия зимних олимпийских игр в Пекине. В ходе этого визита Жапаров провел двустороннюю встречу с председателем Си Цзиньпинем.Лидеры двух стран выступили с совместным заявлением, в котором отражена позиция обеих сторон поддерживать друг друга и стремиться к общему развитию.Развивать добрососедские и экономические отношения — это наш единственно правильный выбор. В настоящее время между Китаем и Кыргызстаном не существует никаких нерешенных политических вопросов.«Китай твердо поддерживает путь развития Кыргызстана в соответствии с национальными интересами и поддерживает меры, предпринятые кыргызским правительством для защиты национальной независимости, суверенитета и безопасности. Китай выступает против вмешательства внешних сил во внутренние дела Кыргызстана», - заверила посол Ду Дэвэнь.Кроме того, Китай и Кыргызстан поддерживают тесное взаимодействие в рамках ШОС, ООН и других международных организаций.Согласно статистике КР, объем торговли между странами в текущем году составил 1 млрд 734 млн долларов США, что занимает одну треть от общего объема внешней торговли Кыргызстана, а совокупные инвестиции Китая в Кыргызстан превысили 4 млрд 600 млн долларов США.Мирлан Киизбаев</t>
-  </si>
-  <si>
-    <t>Бишкек, 24.10.22. /Кабар/.Президент Кыргызстана Садыр Жапаров поздравил Си Цзиньпина с переизбранием на пост Генерального секретаря Центрального комитета Коммунистической партии Китая.«Примите мои искренние поздравления по случаю Вашего переизбрания на пост Генерального секретаря Центрального комитета Коммунистической партии Китая, а также успешного проведения XX Всекитайского съезда Коммунистической партии Китая.Результаты прошедшего голосования показали высокое доверие Коммунистической партии и народа Китайской Народной Республики к проводимому Вами курсу как во внутренней, так и во внешней политике, который направлен на укрепление устойчивого развития Китая.Кыргызско-китайские отношения в последние годы динамично развиваются. Между нашими государствами укрепляются добрососедство и дружба, политическое взаимодоверие, непрерывно расширяется торгово-экономическое сотрудничество. Наши страны поддерживают тесные контакты на всех уровнях, на основе политического доверия тесно сотрудничают в рамках проекта «Один пояс, один путь», реализуют ряд крупных совместных проектов, что приносит реальную пользу нашим народам.С удовлетворением хотел бы отметить наши встречи в феврале и сентябре этого года в Пекине и Самарканде, в результате которых были достигнуты договоренности по широкому кругу вопросов двусторонних отношений, взаимодействия в многостороннем формате.Выражаю готовность к продолжению совместной конструктивной работы по дальнейшей активизации всего спектра кыргызско-китайских отношений.Желаю Вам, здоровья и дальнейших успехов в государственной деятельности, а дружественному китайскому народу – благополучия, мира и процветания», - говорится в поздравительном послании.</t>
-  </si>
-  <si>
-    <t>Ташкент, 20.10.22. /Толонбай Курбанов – Кабар/.Кыргызская делегация во главе декана факультета естествознания, туризма и аграрных технологий Ошского государственного университета, д.г.н., профессора Абдурашита Низамиева примет участие в l Международном форуме экотуризма «Xanabad wellnes-resort», который проходит 21-22 октября в Андижанской области. Об этом сегодня сообщили агентству «Кабар» в пресс-службе Министерства туризма и культурного наследия РУз.В состав делегации также вошли заведующий кафедрой экономической географии, отраслевой экономики и туризма, к.г.н., доцент Калыбек Самиев, заведующий кафедрой зоологии и экологии, к.б.н., доцент, Абдиманнап Абдыкааров, доцент кафедры зоологии и экологии, к.б.н., Болот Каримов, сотрудники кафедры физической географии, географии Кыргызстана и концепции современного естествознания Жазгул Жакыпова и Эленура Сапарбай кызы, а также студенты направления «туризм» ОшГУ Айжамал Жээнбекова, Гулжамал Маметкадырова, Салкынай Токторова и Нуржаз Талантбекова.Целью данного форума является информирование широкой общественности о чистом воздухе и природе региона, обмен опытом Андижанской области по вопросам охраны природы и сохранения экологии, выявление уникального потенциала, перспектив развития и возможностей города Ханабад в сфере туризма.Ожидается анализ с научной точки зрения, ознакомление с мнением экспертов отрасли по этому вопросу и разработка предложений и планов с целью дальнейшего увеличения потока туристов в Ханабад.Данный форум организуется в рамках исполнения постановления президента РУз. «О дополнительных мерах по диверсификации услуг внутреннего туризма», которое было принято 30 апреля 2022 года.Этот форум традиционно планируется проводить раз в два года в октябре. Форум имеет международный статус, и в этом году планируется участие ученых и профессоров из 7 зарубежных стран (Болгария, Польша, Китай, Индия, Казахстан, Кыргызстан и Россия), экспертов в области туризма.</t>
-  </si>
-  <si>
-    <t>Бишкек, 18.10.22. /Кабар/.Активизирована работа по проекту строительства железной дороги Китай - Кыргызстан - Узбекистан. Об этом на пресс-конференции сообщил заместитель гендиректора ГП НК «Кыргыз темир жолу» Абдес Анарбеков.По его словам, на саммите ШОС в Самарканде был подписан Меморандум о сотрудничестве по проекту строительства железной дороги «Китай - Кыргызстан - Узбекистан» между Министерствами транспорта трех стран.«В настоящее время около 185 сотрудников Первого проектно-изыскательского института Китайской железнодорожной строительной корпорации проводят работы по подготовке ТЭО в Нарынской и Джалал-Абадской областях», - добавил он.</t>
-  </si>
-  <si>
-    <t>Бишкек, 14.10.22. /Кабар/.Посольство Китая в Кыргызстанеобъявилоо начале регистрации на вторую стипендиальную программу «Следуя за китайской мечтой», сообщает диппредставительства.«В целях расширения гуманитарных связей между Китаем и Кыргызстаном, предоставления кыргызским выпускникам больше возможностей учиться в Китае, в 2021 году Посольство Китая в Кыргызстане учредило стипендиальную программу «Следуя за китайской мечтой», шесть победителей получили полные правительственные стипендии для обучения в Китае. В нынешнем году Посольство Китая в Кыргызстане продолжает данный проект и официально открыло регистрацию на 2-ю стипендиальную программу «Следуя за китайской мечтой». Посольство надеется на активное участие выпускников средних школ Кыргызстана!», - говорится в сообщении</t>
+    <t>Бишкек, 29.09.22. /Кабар/.Как сообщают в Департаменте транспорта и развития дорожно-транспортной инфраструктуры, с сегодняшнего дня отрезок улицы Садыбакасова от Абдрахманова до Эр-Тайлак открыт для проезда. Об этом сообщили в пресс-службе мэрии Бишкека.Проект реконструкции дороги разработан на основании архитектурно-планировочных условий, выданных ГУ «Бишкекглавархитектура»и прошел Государственную экспертизу.Протяженность двухполюсной дороги составляет 1,7 км, ширина проезжей части – 9 метров. С обеих сторон проезжей части обустроены 1,5 метровые тротуары и ирригация.«Отметим, несмотря на то, что дорожно-строительные работы завершены, акт приема окончательно не принят, до устранения всех дефектов. После тщательной проверки соответствия качества дорог государственным стандартам будет подписан акт выполненных работ с гарантией на 3 года. В течение этого времени подрядная организация будет ремонтировать дорогу за свой счет», - говорится в сообщении.Работы ведутся подрядной организацией – China Road and Bridge Corporation за счет грантовых средств Китайской Народной Республики, проект «Развитие улично-дорожной сети города Бишкек» Фаза-2.</t>
   </si>
   <si>
     <t>Бишкек, 28.09.22. /Кабар/.Министр экономики и коммерции Кыргызстана Данияр Амангельдиев принял участие в 21-ом совещании министров государств-членов ШОС, отвечающих за внешнеэкономическую и внешнеторговую деятельность в режиме онлайн, сообщает пресс-служба ведомства.На Совещании председательствовал министр коммерции Китайской Народной Республики Ван Вэньтао.В соответствии с Повесткой дня главы делегаций выступили с докладами о перспективах и мерах по углублению сотрудничества между государствами-членами ШОС в торгово-экономической области, в том числе в сфере либерализации и упрощения процедур торговли и инвестиции, многосторонней торговой системы, цепочек производства и поставок, взаимосвязанности, цифровой экономики, регионального торгово-экономического сотрудничества и в других сферах.Кроме того, в рамках Совещания заслушали информацию китайской стороны о проекте заявления Совета глав правительств (премьер-министров) государств-членов ШОС о содействии устойчивому восстановлению экономики после пандемии, и информацию Секретариата ШОС о проекте отчета о ходе реализации Программы многостороннего торгово-экономического сотрудничества государств-членов ШОС, которые планируются к утверждению на полях очередного заседания Совета глав правительств (премьер-министров) государств-членов ШОС.Также стороны приняли заявление министров государств-членов ШОС, отвечающих за внешнеэкономическую и внешнеторговую деятельность, о поддержке многосторонней торговой системы и меморандум между министерствами и ведомствами государств-членов ШОС, ответственных за внешнеэкономическую и внешнеторговую деятельность, укрепление сотрудничества в сфере цепочек поставок.По итогам Совещания подписан протокол.Примечание:Данное Совещание министров состоялось в преддверии заседания Совета глав правительств государств-членов ШОС, которое планируется к проведению 1 ноября 2022 года в формате видеоконференции под председательством китайской стороны. Очередное 22-ое совещание министров государств-членов ШОС, отвечающих за внешнеэкономическую и внешнеторговую деятельность, состоится в 2023 году в КР.</t>
   </si>
   <si>
-    <t>Ташкент, 11.10.22. /Толонбай Курбанов – Кабар/. Президент Узбекистана Шавкат Мирзиёев в понедельник в ходе презентации проекта «Узавтопрома» поручил ускорить развитие электромобильной отрасли и расширение обслуживания электромобилей, сообщило информагентство УзА.По его словам, электромобили стремительно входят в повседневную жизнь населения, потому что есть спрос, расходы, связанные с эксплуатацией таких автомобилей, меньше, сервис обходится дешевле. «Самое главное, наши люди предпочитают их. Поэтому нам необходимо обеспечить население доступными, малозатратными, современными электромобилями, - сказал Шавкат Мирзиёев.Глава государства поручил создать предприятия совместно с иностранной компанией, имеющей опыт работы в этой сфере, и организации производства популярных моделей электромобилей. Обратил особое внимание на то, чтобы электромобили были доступны по цене.Поставлена ​​задача по расширению сети пунктов сервисного обслуживания электромобилей. В частности, установить в ближайшие два года две тысячи зарядных станций на парковках, топливных заправках и трассах, которым будут применяться различные льготы.Подчеркнута важность подготовки специалистов для отрасли. Представлены планы по организации научной лаборатории электромобилей в Туринском политехническом университете, повышению квалификации преподавателей и специалистов в Китае, Германии, США, Южной Корее и других странах.Напомним, в Стратегии развития Узбекистана в 2022-2026 годах определены цели по переходу к «зеленой» экономике, в том числе по производству электромобилей. На совещании в феврале текущего года, главой государства были даны конкретные указания по данному направлению.Сегодня в Ташкенте курсируют 20 электробусов китайского производства. В следующем году планируется привезти еще 200 электробусов в столицу и 100 в Самарканд.По данным Госкомстата Республики, за первые восемь месяцев 2022 года Узбекистан импортировал из-за рубежа 1 499 электромобилей. В текущем году импорт электромобилей вырос на 1 003 единицы по сравнению с соответствующим периодом 2021 года. Узбекистан импортировал наибольшее количество электромобилей за январь-август текущего года из Китая (1,3 тыс.), ОАЭ (110), Германии (34), Гонконга (30) и из других стран (19).</t>
-  </si>
-  <si>
-    <t>Бишкек, 03.10.22. /Кабар/.На заседании Комитета по аграрной политике, водным ресурсам, экологии и региональному развитию рассмотрен вопрос по стабилизации цен на продукты питания первой необходимости.Как сообщает пресс-служба парламента, информацию представил заместитель председателя службы Антимонопольного регулирования Женалы Орозбаев.Он отметил, что со стороны Антимонопольной службы принимаются меры по сдерживанию цен на социально значимые товары, осуществляется мониторинг цен на продовольственные товары первой необходимости, проводятся разъяснительные работы с реализаторами о недопустимости необоснованного повышения цен на социально значимые товары. Также докладчик рассказал о ходе проверок субъектов предпринимательства по вопросам контроля за соблюдением антимонопольного законодательства в рамках своих полномочий.Говоря о причинах резкого роста цен на продовольствие, Ж.Орозбаев подчеркнул, что это в первую очередь связано с международной ситуацией, повлекшей экономический кризис.В ходе обсуждения депутаты выразили обеспокоенность сложившейся ситуацией на рынке и указали на недостаточные меры службы Антимонопольного регулирования по борьбе со спекулятивным ростом цен на основные продукты питания.Так, председатель комитета Аманкан Кенжебаев раскритиковал работу правительства по обеспечению продовольственной безопасности и поднял вопрос о целесообразности существования Антимонопольной службы, которая не имеет реальных рычагов воздействия на ценовую политику, а занимается лишь сбором статистических данных.«Если нет соответствующих полномочий, контрольных функций, зачем держать такую службу, выплачивать зарплату? Пришедший на заседание заместитель председателя Антимонопольной службы не знает, по какой цене закупается свекла, отвечает, что по 5 сомов. Он также не осведомлен, когда начнет работать завод «Каинды – Кант», хотя он уже работает. Я только вчера встретился с фермерами, с работниками завода, на свеклоприемных пунктах закупочная стоимость свеклы составляет 6 сомов 3 тыйына. Также завод уже как 15-20 дней перестал перерабатывать сахарный тростник, как рассказывает докладчик, и перепрофилируется на переработку свеклы», - сказал А.Кенжебаев.Также депутат Султанбай Айжигитов призвал кабинет министров пересмотреть подход к государственной политике по развитию экономики и принять безотлагательные меры по ее стабилизации. «Вы пустили экономику на самотек, на протяжении последних двух лет я поднимаю вопрос о необходимости внедрения центрального планирования с учетом рыночных механизмов по типу китайской экономической модели», - отметил С.Айжигитов.</t>
-  </si>
-  <si>
-    <t>Бишкек, 29.09.22. /Кабар/.Как сообщают в Департаменте транспорта и развития дорожно-транспортной инфраструктуры, с сегодняшнего дня отрезок улицы Садыбакасова от Абдрахманова до Эр-Тайлак открыт для проезда. Об этом сообщили в пресс-службе мэрии Бишкека.Проект реконструкции дороги разработан на основании архитектурно-планировочных условий, выданных ГУ «Бишкекглавархитектура»и прошел Государственную экспертизу.Протяженность двухполюсной дороги составляет 1,7 км, ширина проезжей части – 9 метров. С обеих сторон проезжей части обустроены 1,5 метровые тротуары и ирригация.«Отметим, несмотря на то, что дорожно-строительные работы завершены, акт приема окончательно не принят, до устранения всех дефектов. После тщательной проверки соответствия качества дорог государственным стандартам будет подписан акт выполненных работ с гарантией на 3 года. В течение этого времени подрядная организация будет ремонтировать дорогу за свой счет», - говорится в сообщении.Работы ведутся подрядной организацией – China Road and Bridge Corporation за счет грантовых средств Китайской Народной Республики, проект «Развитие улично-дорожной сети города Бишкек» Фаза-2.</t>
-  </si>
-  <si>
-    <t>Бишкек, 11.10.22. /Нуркыз Сабырова – Кабар/.Реализация второго этапа «Безопасного города» в Кыргызстане начнется после завершения судебного процесса. Об этом на пресс-конференции в агентстве «Кабар» сообщила заместитель министра цифрового развития Индира Шаршенова.По ее данным, на сегодня нарушение со стороны исполнителя второй фазы проекта рассматривается судом.«Там было нарушение срока реализации второго этапа проекта со стороны исполнителя. Эти процедуры рассматриваются в судебном процессе. Никто ни с кем не судится», — уточнила Шаршенова.Напомним, тендер на реализацию данного проекта в сентябре 2019 года выиграла китайская компания Shenzhen Sunwin Intelligent Co. Ltd. Согласно условиям торгов, до конца 2020 года в 17 городах и 73 населенных пунктах страны должны были установить 306 камер видеофиксации нарушений ПДД.Из-за пандемии коронавируса, исполнение соглашения было продлено до 18 июня 2021 года. Но компания-исполнитель опоздала и по новому сроку.</t>
-  </si>
-  <si>
-    <t>Бишкек, 11.10.22. /Кабар/.Ученые из университета Тонцзи в Шанхае создали датчик респираторных вирусов, который можно устанавливать на лицевых масках. Исследование было опубликовано в известном журнале по материаловедению Matter, передает Республиканский штаб.Чтобы испытать свой датчик ученые подвесили его в камере, а затем разбрызгали в воздух капли воды с вирусными белками COVID-19, свиного и птичьего гриппа.«Датчик фиксирует даже малые доли микролитра воды с патогенами – то есть в десятки раз меньше, чем зараженный человек обычно выделяет при кашле», - говорится в сообщении.В установленное приложение будет посылаться сигнал тревоги. Получив такой сигнал, владелец маски сможет вовремя покинуть «заразную компанию».</t>
-  </si>
-  <si>
-    <t>Бишкек, 27.09.22. /Индира Камчыбекова - Кабар/.В Бишкеке в следующем году будут построены 5 транспортных развязок, сообщил директор Департамента транспорта и развития дорожно-транспортной инфраструктуры мэрии Максат Нусувалиев на заседании Комитета по транспорту, коммуникациям, архитектуре и строительству ЖК.Он отметил, что данный проект будет реализован за счет третьей фазы китайского гранта.«Развязки будут без светофоров, кольцевыми мостами. В настоящее время, эскизы, предоставленные «Бишкекглавархитектурой», согласовываются с китайской стороной. Их строительство начнется в марте 2023 года», - сообщил он.По его данным, в этом году в столице были построены 70 км автодорог за счет гранта Китая.</t>
+    <t>Бишкек, 30.09.22. /Елена Цой – Кабар/.В связи с празднованием государственного праздника «День образования Китайской Народной Республики» пункты пропуска «Торугарт-автодорожный» и «Иркештам-автодорожный», расположенные на кыргызско-китайском участке государственной границы будут временно закрыты с 1 по 3 октября 2022 года включительно. Об этом сообщили в Погранслужбе Госкомитета нацбезопасности.Уточняется, что пропуск транспортных средств и грузов возобновится 4 октября 2022 года.Напомним, что пункты пропуска «Торугарт-автодорожный» и «Иркештам-автодорожный» функционируют по особому алгоритму, предусматривающему только перемещение товаров из КНР в КР.</t>
+  </si>
+  <si>
+    <t>Бишкек, 28.09.22. /Кабар/.Европейский банк реконструкции и развитияпрогнозируетрост ВВП Кыргызстана к концу 2022 года на 7%. Его аналитики объяснили, за счет каких факторов может быть достигнут прогресс.Согласно обзору, востребованность мигрантов в России и укрепление рубля привели к увеличению объема денежных переводов в Кыргызстан в первом полугодии на 11%. Это оказало поддержку для развития промышленного производства, гостиничного бизнеса, торговли и автомобильных перевозок. Также отмечается, что страна лидирует в регионе по темпу роста реальной заработной платы, из-за повышения оплаты труда в государственном секторе.«Реэкспорт китайских товаров в Россию стал одним из основных направлений деятельности небольших кыргызских компаний и частных лиц. Урегулирование правительством давнего конфликта вокруг золотого рудника «Кумтор» помог восстановить доверие иностранных инвесторов, при этом приток прямых иностранных инвестиций в первом полугодии почти удвоился и достиг 628 млн долларов США. В ближайшие годы ожидается увеличения прямых иностранных инвестиций в крупные проекты в гидроэнергетике и железнодорожном секторе», — говорится в обзоре ЕБРР.На этом фоне у страны есть шанс для экономического роста, пользуясь возможностями расширения реэкспорта, увеличения денежных переводов, а также релокации российских компаний и частных лиц в Кыргызстан.</t>
   </si>
   <si>
     <t>Саммит ШОС прошедший в Самарканде был продуктивен и полезен с точки зрения тех геополитических сдвигов и трансформаций, которые происходят в мировой политике. Зарубежные эксперты и политики сходятся во мнении, что в Узбекистане Шанхайская организация сотрудничества обозначила себя как новый полюс созидания и согласия.Естественно, что в приоритете лидеров была экономическая повестка, так как сейчас закладывается фундамент для взаимодействия государств ШОС на новых принципах взаимодействия и доверия для достижения комплексного развития всех членов Организации.Итоги самаркандского саммита для общественности Кыргызстана остались на втором плане из-за агрессии со стороны Таджикистана, начавшейся в наиболее важный переговорный день для лидеров ШОС. В эксклюзивном интервью «Кабару» Чрезвычайный и Полномочный посол Кыргызстана в Узбекистане Муса Джаманбаев рассказал о наиболее важных для нашей республики результатах достигнутых на переговорных площадках в ходе контактов на высшем уровне в «шанхайском формате».- Самаркандский саммит ШОС эксперты назвали историческим. О расширении Организации говорят, как о зарождении нового полюса мира. Чувствовалась ли эта атмосфера на переговорных площадках?- Самаркандский саммит открыл новую страницу в истории развития ШОС в силу принятых важных решений и достигнутых договоренностей. Безусловно, одним из ключевых решений стал вопрос расширения ШОС. Как уже известно, подписан Меморандум об обязательствах Ирана, после выполнения которых, Иран станет полноправным членом ШОС. Кроме того, принято решение о запуске процедуры предоставления Республике Беларусь статуса государства-члена ШОС. Лидеры также одобрили заявки Бахрейна, Мальдив, ОАЭ, Кувейта и Мьянмы на получение статуса партнёров по диалогу ШОС. Подписаны меморандумы о предоставлении статуса партнера по диалогу Египту, Катару и Саудовской Аравии.В целом текущий совокупный человеческий и экономический потенциал Организации позволяет ее пространству быть одним из важных регионов мира. Вопреки многочисленным вызовам, возникшим вследствие пандемии, страны ШОС демонстрируют уверенность в реализации крупных экономических проектов, а также стремление к совместному развитию и укреплению стабильности и мира в регионе.Кстати, Самаркандский саммит впервые с начала пандемии COVID-19 состоялся очно с участием всех глав государств-членов ШОС. Кроме того, саммит собрал лидеров стран наблюдателей и партнеров по диалогу ШОС и руководителей международных и региональных организаций. Повестка дня позволила участникам обменяться мнениями по широкому кругу актуальных вопросов региональной и международной повестки дня. Все это в совокупности придало саммиту атмосферу доверия, дружбы и взаимопонимания.- Повестка дня саммита была настолько насыщена и обширна, что уследить за всеми событиями было невозможно. Что-то любопытное, интересное и важное наверняка осталось в кулуарах. Были такие моменты?- Весь саммит был овеян так называемым «шанхайским духом», который олицетворяет взаимное доверие, равенство, взаимную выгоду, равноправие, взаимные консультации, уважение к многообразию культур, стремление к совместному развитию.Кулуарные беседы и переговоры в ходе саммита, думаю, позволили обсудить не менее важные вопросы, которые касаются стабильности и мира, укрепления политического диалога и наращивания торговых обменов.- Для Бишкека важнейшим событием стало подписание соглашение о строительстве железной дороги Китай-Кыргызстан-Узбекистан. Проект амбициозный, насколько реальны перспективы его скорой реализации?- Практическая реализация проекта строительства железной дороги «Китай-Кыргызстан-Узбекистан» станет значимым шагом к полноценному раскрытию транзитного потенциала Центрально-Азиатского региона и будет способствовать социально-экономическому развитию всех прилегающих к дороге государств.Строительство обеспечит развитие транспортной инфраструктуры стран Центральной Азии, предоставит эффективный путь для доставки грузов из Китая, портов Тихого океана в Кыргызстан, страны Центральной Азии, Ближнего Востока и Европы.В Самарканде в рамках Саммита подписано Соглашение о сотрудничестве по проекту строительства железной дороги «Китай-Кыргызстан-Узбекистан». Данный документ закрепляет заинтересованность трех стран в строительстве дороги, предусматривает завершение работ по разработке ТЭО проекта строительства железной дороги на территории Кыргызской Республики в первой половине 2023 г. Фактически, этот документ дает старт началу практической реализации проекта. Участвующие в проекте стороны выражают уверенность, что в ближайшее время совместными усилиями начнется строительство железной дороги.- Какие еще важные для Кыргызстана договоренности были достигнуты в Самарканде? Что мы можем однозначно занести себе в актив?- В первую очередь, нужно отметить, что все успехи и достижения ШОС это результат коллективных усилий. Сейчас в рамках ШОС обозначились новые горизонты, расширилась экономическая и социальная повестки дня ШОС, ведется диалог в сфере культуры, науки и образования. Развивается женское и молодёжное движение ШОС. Принципы «шанхайского духа» активно обсуждаются в информационном пространстве.С момента начала председательства Узбекистана в ШОС, сторонами в течение года была проведена кропотливая работа по выработке и согласованию документов, которые были предложены на рассмотрение глав государств. Предложения и инициативы Кыргызской Республики также внесли свой вклад в содержательную часть Саммита, которая состоит из подписанных более 40 документов, которые придадут новый существенный импульс в многопрофильное сотрудничество.В целом, думаю, что важным итогом Саммита ШОС стало проявление единства мнений всех стран о необходимости общих усилий для укрепления стабильности в регионе и улучшения благосостояния народов.Отрадно, что государства-члены считают Центральную Азию ядром ШОС и поддерживают усилия стран региона, направленные на обеспечение мира, устойчивого развития и формирование пространства добрососедства, доверия и дружбы. Лидеры стран ШОС выступили за дальнейшее усиление роли ШОС в укреплении стабильности и социально-экономическом развитии нашего региона и поддержали проведение регулярных Консультативных встреч глав государств Центральной Азии и в этой связи отметили успешно прошедший саммит 21 июля 2022 года в г.Чолпон-Ата.</t>
   </si>
   <si>
-    <t>Бишкек, 07.10.22. /Кабар/.Председатель Верховного суда КР Замирбек Базарбеков встретился с Чрезвычайным и Полномочным послом Китайской Народной Республики в КР Ду Дэвэнь.В ходе встречи стороны обсудили о возможностях обмена опытом по вопросам применения цифровых технологий и искусственного интеллекта, а также другие аспекты возможного взаимодействия судебных систем двух государств.Замирбек Базарбеков в ходе встречи отметил, что уникальный опыт цифровизации права и правовых институтов КНР представляет одну из самых актуальных тем для исследования.Ещё в июне 2016 года в КНР было завершено создание системы «Умного суда» — полного цикла онлайн процессов, с прозрачностью всего процесса. Система «Умного суда» от компьютерного формата была расширена в мобильный формат. Суды КНР создали и активно совершенствуют и продвигают электронную судебную платформу «Мобильный микро-суд», которая использует функции распознавания лиц, удаленного аудио- и видео-фиксации, электронных подписей, демонстрации электронных доказательств, генерации электронного архива по делу, управление судебным процессом и другие. Всё это стало возможным благодаря использованию новых технологий как блокчейн, искусственный интеллект, и другие.Ду Дэвэнь выразила уверенность в дальнейшем правовом сотрудничестве между двумя странами, а также надежном сотрудничестве высших судов двух стран.В завершение встречи стороны подтвердили необходимость дальнейшего сотрудничества.</t>
+    <t>Бишкек, 27.09.22. /Кабар/.Президент Кыргызстана Садыр Жапаров подписал Указ, согласно которому Бактыгулова Канайым Джумадиловна освобождена от должности Чрезвычайного и Полномочного посла КР в Китайской Народной Республике, Чрезвычайного и Полномочного Посла КР в Монголии по совместительству с резиденцией в г. Пекин.</t>
   </si>
   <si>
     <t>Бишкек, 23.09.22. /Кабар/.Кыргызско-китайская ассоциация «Чунь Мяо» отправила гуманитарный груз в Баткенскую область. Об этом сообщили в самой организации.По их данным, всего удалось отправить более 3 тонн продуктов питания, одежду и спальных принадлежностей, предметов гигиены и других видов товаров.Ассоциация работает в Кыргызстане на протяжении 6 лет и регулярно занимается благотворительной деятельностью.Кыргызско-китайская ассоциация содействия экономическому и торговому сотрудничеству создана в январе 2016 года.Членами Ассоциации являются 10 китайских государственных предприятий, 26 крупных, средних и малых частных предприятий.Целью создания Ассоциации является объединение китайских предприятий, интеграция ресурсов для реализации экономической политики «Один пояс, один путь», предоставление проектных консультаций, юридическое сопровождение экономических проектов, защита законных прав и интересов финансируемых Китаем предприятий в Кыргызстане.</t>
   </si>
   <si>
-    <t>Бишкек, 11.10.22 /Кабар/.Первый заместитель председателя кабинета министров КР Адылбек Касымалиев встретился с членами Советом директоров Азиатского банка развития (АБР), сообщили в пресс-службе кабмина.В ходе встречи стороны обсудили перспективы реализации проектов в следующих направлениях сотрудничества: транспорт, энергетика, поддержка частного сектора, цифровизация, зеленая экономика и развитие человеческого капитала.Адылбек Касымалиев отметил, что время диктует нам принимать быстрые и действенные меры для развития страны.“Для смягчения негативного влияния вызовов и рисков на Кыргызскую Республику были разработаны Антикризисный план и План работы кабинета министров КР на 2022 год. За январь-сентябрь 2022 года наблюдается положительный тренд экономического роста на уровне 7,2%. Кабинетом министров пристально контролируются показатели бюджетной устойчивости”,- сказал Адылбек Касымалиев, добавив, что одной из приоритетных задач кабмина является всестороннее экономическое развитие регионов страны, в особенности Баткенской области.В свою очередь, Советом директоров АБР было отмечено, что для финансирования будут рассматриваться следующие основные приоритетные направления: снижение бедности, поддержка частного сектора, вопросы изменения климата, транспорт, энергетика, качественное государственное управление и региональное сотрудничество.Совет директоров АБР также отметил, что в краткосрочной перспективе рисками для Кыргызской Республики являются последствия пандемии COVID-19, инфляция, кризис в Украине и приграничный конфликт.Стороны также обсудили реализацию крупных проектов, запущенных в Кыргызской Республике, в частности строительство Камбар-Атинской ГЭС-1, проект железной дороги «Китай - Кыргызстан - Узбекистан».</t>
-  </si>
-  <si>
-    <t>Бишкек, 04.10.22 /Кабар/.Председатель кабинета министров КР Акылбек Жапаров представил коллективу центрального аппарата Министерства транспорта и коммуникаций исполняющего обязанности министра Тилека Текебаева.Глава кабмина отметил важность продолжения реализации начатых реформ в сфере транспорта.Он подчеркнул важность реализации крупных проектов, в том числе по строительству автомобильных дорог, железной дороги Балыкчы – Кочкор – Кара-Кече и Китай – Кыргызстан - Узбекистан.</t>
-  </si>
-  <si>
     <t>Бишкек, 30.09.22. /Кабар/. Сборник произведений известного писателя, доктора филологических наук, профессора Международного Кувейтского университета (МКУ), член-корреспондента Национальной академии наук Кыргызстана Бейшенбая Усубалиева издан в Анкаре, сообщили в вузе.В сборник произведений писателя вошли лучшие рассказы, созданные в различные годы, как «Горбачек», «Нас было двенадцать», «Скала», «Лиза», «Дым» и другие.Благодаря турецким издателям кыргызские читатели смогут прикоснуться к творчеству одного из лучших писателей современности Кыргызстана, ближе познакомиться с его богатым внутренним миром и глубокими философскими мыслями.Произведения мастера художественного слова отличаются духовным богатством, эстетическим вкусом и глубоким психологизмом. Его произведения – стремление раскрыть очень сложный духовный мир человека, они затрагивают такие животрепещущие и вечные темы, как борьба добра и зла, светлых и темных сил, сочувствие, гуманизм, человеколюбие и любовь.Произведения Бейшенбая Усубалиева переведены на многие языки мира – китайский, русский, турецкий. Автор сборника является академиком Международной академии Чингиза Айтматова, автор более 50 повестей, рассказов и публицистики, более 200 научных работ. Многие годы писатель работает в Международном Кувейтском университете.</t>
   </si>
   <si>
-    <t>Бишкек, 30.09.22. /Елена Цой – Кабар/.В связи с празднованием государственного праздника «День образования Китайской Народной Республики» пункты пропуска «Торугарт-автодорожный» и «Иркештам-автодорожный», расположенные на кыргызско-китайском участке государственной границы будут временно закрыты с 1 по 3 октября 2022 года включительно. Об этом сообщили в Погранслужбе Госкомитета нацбезопасности.Уточняется, что пропуск транспортных средств и грузов возобновится 4 октября 2022 года.Напомним, что пункты пропуска «Торугарт-автодорожный» и «Иркештам-автодорожный» функционируют по особому алгоритму, предусматривающему только перемещение товаров из КНР в КР.</t>
-  </si>
-  <si>
     <t>Бишкек, 27.09.22. /Кабар/. Президент Кыргызстана Садыр Жапаров подписал указ, согласно которому Мусаева Актилек Ишенгазыевна назначена Чрезвычайным и Полномочным Послом КР в Китайской Народной Республике. Об этом сообщает пресс-служба главы государства.</t>
   </si>
   <si>
-    <t>Бишкек, 08.10.22 /Кабар/.Председатель кабинета министров КР Акылбек Жапаров в рамках рабочей поездки в город Ош принял участие в кыргызско-российском инвестиционном форуме.Свое выступление глава кабмина начал со строк великого полководца и поэта Бабура.«Ты на чужбине - и забыт, конечно, человек! Жалеет только сам себя сердечно человек. В своих скитаниях ни на час я радости не знал! По милой родине скорбит извечно человек. Я уверен, что у каждого из вас перед глазами встал образ гонимого всеми бедами и ветрами несчастного изгнанника, нищего дервиша в лохмотьях и вы правы, потому что настолько сильна в этих стихах обездоленность и тоска по покинутой родине. Между тем, эти строки написаны человеком, у ног которого лежал весь полуостров Индостан, огромные пространства нынешних Пакистана и Афганистана. Человек этот обладал несметными богатствами, в числе которых был знаменитый на весь мир алмаз ,,Кохинур" - главное украшение короны британской империи. Имя этого человека Захиреддин Мухамед Бабур, основатель империи Великих Моголов», - отметил Акылбек Жапаров.Глава кабмина назвал неслучайной эту встречу, ведь именно на этой земле начинался блистательный путь нашего знаменитого земляка.«Мы живём в эпоху перемен, в которых не советовали жить древние китайцы. Наша встреча проходит во время тектонических сдвигов в мировой истории и геополитике. Мы живём, когда ломаются вековые устои и на смену старому приходит новый миропорядок. Да, это нелегко, это порой страшно, но это интересно, это новые возможности и новые пути. Это кризис, но кризисы - это двигатели истории и прогресса. Именно так и никак иначе мы должны смотреть на все, что происходит сейчас с нами и с миром», - сказал Акылбек Жапаров.Поэтическое начало своего выступления он объяснил тем, что когда перед Бабуром закрылись одни двери, он открыл другие.«Путь, который он указал пятьсот лет назад и сейчас является дорогой огромных возможностей. Перед нами перспективы неисчерпаемых рынков. Необходимо только отойти от устоявшегося евроцентризма и обратить внимание на Азию. Отсюда, с Оша, с Ферганской долины может начаться новое цивилизационное освоение и развитие не только Центральной, но и всей Азии. Развитие на принципах мира, взаимовыгодного сотрудничества и добрососедства. И роль большого российского бизнеса, пришедшего сюда с новым взглядом и с совершенно иными, чем прежде, в истории парадигмами, может оказаться очень перспективной и взаимовыгодной для наших стран и всей Евразии», - сказал председатель кабмина и призвал российских бизнесменов обратить внимание на возможности азиатского рынка.«Со своей стороны мы как перекрёсток, как место встречи трёх великих цивилизаций, сделаем все возможное для плодотворного взаимодействия и сотрудничества. Для этого у нас есть свое видение, есть открытость и есть политическая воля. Дело за вами», - заключил Акылбек Жапаров.Стоит отметить, что кыргызско-российской инвестиционный форум начал свою работу 7 октября в городе Баткене. Сегодня работа форума продолжается уже в городе Оше. В форуме принимают участие российские предприниматели.По итогам форума планируется подписание более чем 20 проектов.</t>
-  </si>
-  <si>
-    <t>Бишкек, 28.09.22. /Кабар/.Европейский банк реконструкции и развитияпрогнозируетрост ВВП Кыргызстана к концу 2022 года на 7%. Его аналитики объяснили, за счет каких факторов может быть достигнут прогресс.Согласно обзору, востребованность мигрантов в России и укрепление рубля привели к увеличению объема денежных переводов в Кыргызстан в первом полугодии на 11%. Это оказало поддержку для развития промышленного производства, гостиничного бизнеса, торговли и автомобильных перевозок. Также отмечается, что страна лидирует в регионе по темпу роста реальной заработной платы, из-за повышения оплаты труда в государственном секторе.«Реэкспорт китайских товаров в Россию стал одним из основных направлений деятельности небольших кыргызских компаний и частных лиц. Урегулирование правительством давнего конфликта вокруг золотого рудника «Кумтор» помог восстановить доверие иностранных инвесторов, при этом приток прямых иностранных инвестиций в первом полугодии почти удвоился и достиг 628 млн долларов США. В ближайшие годы ожидается увеличения прямых иностранных инвестиций в крупные проекты в гидроэнергетике и железнодорожном секторе», — говорится в обзоре ЕБРР.На этом фоне у страны есть шанс для экономического роста, пользуясь возможностями расширения реэкспорта, увеличения денежных переводов, а также релокации российских компаний и частных лиц в Кыргызстан.</t>
-  </si>
-  <si>
-    <t>Бишкек, 07.10.22. /Кабар/.Председатель кабинета министров КР Акылбек Жапаров принял участие в открытии дополнительного корпуса учебно-воспитательного комплекса школы-гимназии №20 в городе Бишкеке.«Сегодня мы открываем ещё одно прекрасное трехэтажное здание школы на 500 мест со спортивным залом, спортивной площадкой и другими необходимыми помещениями. Строительные работы были начаты 30 апреля текущего года. На строительство объекта было направлено 347 млн сомов, на техническое оборудование – 13,2 млн сомов. Я поздравляю детей, родителей и учителей с этим событием. Также я хочу поздравить учителей с прошедшим профессиональным праздником», - сказал Акылбек Жапаров.Глава кабмина отметил, что в 2005 году в столице с учетом пригородов насчитывалось более 1,1 млн человек, а в 2016 году Национальный статистический комитет констатировал, что в самом городе проживает 1 млн человек. Одной из самых острых проблем являлся вопрос нехватки и загруженности школ, в связи с чем президент КР поставил перед кабинетом министров и мэрией города Бишкека задачу решить данный вопрос.«Построено 5 новых школ в жилых массивах, в остальных школах построены дополнительные корпуса, не уступающие новым школам. У нас были 2 аварийные школы - №75 и №76, сейчас уже функционируют новые школы. В 1950-1959 годы в городе Фрунзе было построено 11 школ, это был период индустриализации, мы эти времена связывали с Исхаком Раззаковым. А в 1960-1969 годы была построена 31 школа, это времена Турдакуна Усубалиева. В 2022 году мы построили в Бишкеке 15 школ и 1 детский сад в течение 5 месяцев. Думаю, когда-нибудь наши дети будут связывать эти времена уже с Садыром Жапаровым. Мы помним времена, когда в городе Бишкеке не было построено ни одной школы, например, в 2011, 2013, 2014, 2016, 2019 и 2020 годах. Самый большой пик демократического взрыва, самая большая внутренняя миграция и ни одной школы не было построено. У нас осталось построить еще 7 школ в жилмассивах, они будут построены в ближайшие годы. Хочу выразить благодарность строителям, которые за 5 месяцев построили нам новые школы», - сказал он.Акылбек Жапаров также подчеркнул, что более не будет повторяться практика, когда отдельные лица, желая набрать голоса избирателей перед выборами, лоббировали строительство школ в определенных местах.«Месторасположение школ будет определять Министерство образования и науки. От учителей мы просим предоставить качество образования, чтобы наши дети были конкурентоспособными, владели более чем 4 языками, в том числе хорошо владели государственным, официальным, английским, китайским и языком программирования. Мы ожидаем рождения 7-миллионного гражданина. Следовательно, каждый год необходимо строить новые школы для создания хороших условий детям для получения образования. Впереди у детей большое светлое будущее. Они будут жить в развитой стране», - заключил председатель кабинета министров.Справочно:В новом трехэтажном комплексе предусмотрено 20 учебных классов. Здание рассчитано на 500 ученических мест.На первом этаже здания расположены начальные классы, зал для хореографии, тренажерный зал площадью 285 квадратных метров и столовая. На втором этаже: начальные классы, актовый зал площадью 277 квадратных метров на 110 мест. На третьем этаже: предметные кабинеты и лаборатории. Общая площадь помещений – 5035 квадратных метров. На территории школы построены футбольное, баскетбольное и волейбольное поля, беговая дорожка и установлена воркаут-площадка.</t>
-  </si>
-  <si>
-    <t>Бишкек, 05.10.22. /Елена Цой – Кабар/.Новый посол Кыргызстана в Китае Актилек Мусаева и директор Национального агентства по инвестициям при президенте Кыргызской Республики Умбриэль Темиралиев обсудили вопросы привлечения инвестиций. Об этом сообщили в НАИ.Во время встречи посол отметила, что Кыргызстан заинтересован в развитии отношений с Китаем. «В настоящее время Китай и Кыргызстан связывают не только добрососедские отношения, мы являемся также надежными партнерами, кроме того Китай является инициатором ряда проектов в Кыргызстане», - отметила А. Мусаева.Стороны сошлись во мнении, что для увеличения инвестиций в Кыргызстан и наращивания экспорта необходимо решение ряда задач.«В первую очередь необходимо упрощение визового вопроса для инвесторов, создание совместных сельскохозяйственных и технопарков, а также упрощение процедуры получения юридического статуса и получения консультационных услуг в одном месте в возможно кратчайшие сроки», - говорится в сообщении.Глава Нацагенства по инвестициям и посол Кыргызстана в Китае договорились о взаимном сотрудничестве и создании площадок для бизнес-сообществ обеих стран.</t>
-  </si>
-  <si>
-    <t>Бишкек, 27.09.22. /Кабар/.Президент Кыргызстана Садыр Жапаров подписал Указ, согласно которому Бактыгулова Канайым Джумадиловна освобождена от должности Чрезвычайного и Полномочного посла КР в Китайской Народной Республике, Чрезвычайного и Полномочного Посла КР в Монголии по совместительству с резиденцией в г. Пекин.</t>
+    <t>https://kabar.kg/site/assets/files/134234/1.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/search/?q=%D0%BA%D0%B8%D1%82%D0%B0%D0%B9</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/134177/whatsapp_image_2022-11-02_at_10_11_26.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/134023/1054784364_0_0_2835_1595_1920x0_80_0_0_640d5805775547298767cfb3b4c3bb61.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/134200/a455341e-9a31-448c-a600-394fd64952c7.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133988/77.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133797/4456465.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133747/132956_jpg_w780_h500_resize_730x0.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133765/ca1.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133989/whatsapp_image_2022-10-28_at_13_26_15.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133750/14_kolonka-2.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133559/99.862x0-is.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133367/cc11.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133698/bez_nazvaniia.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133515/dsc_0837.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133886/whatsapp_image_2022-10-26_at_17_35_40.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132766/whatsapp_image_2022-10-03_at_13_42_49_1.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133169/33.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133135/121234.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133120/whatsapp_image_2022-10-11_at_10_59_58.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133301/ab62e511-41a3-4d8d-8f5e-d6a792c217e0.700x0-is.jpg/site/assets/files/133301/6dbe4184-c77f-4bc7-9ec1-647ab65c66b6.700x0-is.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133222/132009.720x0-is.jpg/site/assets/files/133222/132020.720x0-is.jpg/site/assets/files/133222/132094_jpg_w780_h500_resize.720x0-is.jpg/site/assets/files/133222/132062.720x0-is.jpg/site/assets/files/133222/cdda7599-b651-4115-984f-aa42ebe6e163.720x0-is.jpg/site/assets/files/133222/dos_0359.720x0-is.jpg/site/assets/files/133222/photo1665560065_15.720x0-is.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133625/photo_20.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133131/bezopasnyj-gorod.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133287/ugol.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132892/whatsapp_image_2022-10-05_at_12_12_33.jpeg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/133629/045f5554-e2d7-4b05-9098-b7142c0f1421.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132574/a6381fb5-98a4-48ae-9ba7-0b173eb3bc41.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132659/2a3dc6dc-7937-4df0-955a-1cb4381f4175.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132572/0e787059-a466-4016-9d2a-2c65dac06a70.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132504/1420359_1_1512814250.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132483/150119131634_aoo_9081_730x0_730x0.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132344/12123.jpg</t>
+  </si>
+  <si>
+    <t>https://kabar.kg/site/assets/files/132487/6ed85596-950a-3c2c-a9cb-c71deef98c0c.jpg</t>
   </si>
 </sst>
 </file>
@@ -882,604 +1065,954 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
         <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
         <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
       <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
         <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
       <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
         <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
       <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
         <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
       <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
         <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
       <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
       <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
       <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
       <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
       <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
       <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
       <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
       <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
       <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
       <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
       <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
       <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
       <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
       <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
       <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
       <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
       <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
       <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
       <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
       <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
       <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
       <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
       <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
       <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
       <c r="C40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
       <c r="C41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
       <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
       <c r="C43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
       <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
       <c r="C45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
       <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
       <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
       <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
       <c r="C49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
       <c r="C50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
       <c r="C51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" t="s">
-        <v>155</v>
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="F7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="F8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="F9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="F10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="F11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="F13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="F14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="F15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="F16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="F17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33"/>
+    <hyperlink ref="F18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="F19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="F20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="F21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="F22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="F23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="F24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="F25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="F26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="F27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53"/>
+    <hyperlink ref="F28" r:id="rId54"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="F29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="F30" r:id="rId58"/>
+    <hyperlink ref="A31" r:id="rId59"/>
+    <hyperlink ref="F31" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="F32" r:id="rId62"/>
+    <hyperlink ref="A33" r:id="rId63"/>
+    <hyperlink ref="F33" r:id="rId64"/>
+    <hyperlink ref="A34" r:id="rId65"/>
+    <hyperlink ref="F34" r:id="rId66"/>
+    <hyperlink ref="A35" r:id="rId67"/>
+    <hyperlink ref="F35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="F36" r:id="rId70"/>
+    <hyperlink ref="A37" r:id="rId71"/>
+    <hyperlink ref="F37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="F38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="F39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="F40" r:id="rId78"/>
+    <hyperlink ref="A41" r:id="rId79"/>
+    <hyperlink ref="F41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="F42" r:id="rId82"/>
+    <hyperlink ref="A43" r:id="rId83"/>
+    <hyperlink ref="F43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="F44" r:id="rId86"/>
+    <hyperlink ref="A45" r:id="rId87"/>
+    <hyperlink ref="F45" r:id="rId88"/>
+    <hyperlink ref="A46" r:id="rId89"/>
+    <hyperlink ref="F46" r:id="rId90"/>
+    <hyperlink ref="A47" r:id="rId91"/>
+    <hyperlink ref="F47" r:id="rId92"/>
+    <hyperlink ref="A48" r:id="rId93"/>
+    <hyperlink ref="F48" r:id="rId94"/>
+    <hyperlink ref="A49" r:id="rId95"/>
+    <hyperlink ref="F49" r:id="rId96"/>
+    <hyperlink ref="A50" r:id="rId97"/>
+    <hyperlink ref="F50" r:id="rId98"/>
+    <hyperlink ref="A51" r:id="rId99"/>
+    <hyperlink ref="F51" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
